--- a/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TLSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8528900</v>
+        <v>8070800</v>
       </c>
       <c r="E8" s="3">
-        <v>8470400</v>
+        <v>8408500</v>
       </c>
       <c r="F8" s="3">
-        <v>8775200</v>
+        <v>8350800</v>
       </c>
       <c r="G8" s="3">
-        <v>8620500</v>
+        <v>8651400</v>
       </c>
       <c r="H8" s="3">
-        <v>8888300</v>
+        <v>8498800</v>
       </c>
       <c r="I8" s="3">
-        <v>8618400</v>
+        <v>8762800</v>
       </c>
       <c r="J8" s="3">
+        <v>8496800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8230800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9402000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9293500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9229600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3200800</v>
+        <v>3066700</v>
       </c>
       <c r="E9" s="3">
-        <v>2949100</v>
+        <v>3155600</v>
       </c>
       <c r="F9" s="3">
-        <v>2926900</v>
+        <v>2907500</v>
       </c>
       <c r="G9" s="3">
-        <v>2684600</v>
+        <v>2885600</v>
       </c>
       <c r="H9" s="3">
-        <v>2677200</v>
+        <v>2646700</v>
       </c>
       <c r="I9" s="3">
-        <v>2485400</v>
+        <v>2639400</v>
       </c>
       <c r="J9" s="3">
+        <v>2450300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2239100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2757100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2599800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2366900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5328100</v>
+        <v>5004100</v>
       </c>
       <c r="E10" s="3">
-        <v>5521300</v>
+        <v>5252900</v>
       </c>
       <c r="F10" s="3">
-        <v>5848400</v>
+        <v>5443400</v>
       </c>
       <c r="G10" s="3">
-        <v>5935900</v>
+        <v>5765800</v>
       </c>
       <c r="H10" s="3">
-        <v>6211100</v>
+        <v>5852100</v>
       </c>
       <c r="I10" s="3">
-        <v>6133000</v>
+        <v>6123400</v>
       </c>
       <c r="J10" s="3">
+        <v>6046500</v>
+      </c>
+      <c r="K10" s="3">
         <v>5991700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6644800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6693700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6862700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,31 +929,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>874200</v>
+        <v>126100</v>
       </c>
       <c r="E14" s="3">
-        <v>90200</v>
+        <v>861900</v>
       </c>
       <c r="F14" s="3">
-        <v>24900</v>
+        <v>88900</v>
       </c>
       <c r="G14" s="3">
-        <v>298800</v>
+        <v>24500</v>
       </c>
       <c r="H14" s="3">
-        <v>185700</v>
+        <v>294600</v>
       </c>
       <c r="I14" s="3">
-        <v>111700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>183100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>110100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -947,43 +967,49 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1440900</v>
+        <v>1806000</v>
       </c>
       <c r="E15" s="3">
-        <v>1440900</v>
+        <v>1420600</v>
       </c>
       <c r="F15" s="3">
-        <v>1514900</v>
+        <v>1420600</v>
       </c>
       <c r="G15" s="3">
-        <v>1493400</v>
+        <v>1493500</v>
       </c>
       <c r="H15" s="3">
-        <v>1475900</v>
+        <v>1472300</v>
       </c>
       <c r="I15" s="3">
-        <v>1512900</v>
+        <v>1455100</v>
       </c>
       <c r="J15" s="3">
+        <v>1491500</v>
+      </c>
+      <c r="K15" s="3">
         <v>1424700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1436900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1440300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1443200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8360700</v>
+        <v>7538700</v>
       </c>
       <c r="E17" s="3">
-        <v>7861300</v>
+        <v>8242700</v>
       </c>
       <c r="F17" s="3">
-        <v>7589400</v>
+        <v>7750300</v>
       </c>
       <c r="G17" s="3">
-        <v>7748900</v>
+        <v>7482300</v>
       </c>
       <c r="H17" s="3">
-        <v>7542300</v>
+        <v>7639500</v>
       </c>
       <c r="I17" s="3">
-        <v>7242800</v>
+        <v>7435800</v>
       </c>
       <c r="J17" s="3">
+        <v>7140600</v>
+      </c>
+      <c r="K17" s="3">
         <v>6674800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7471200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7372800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6814800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>168300</v>
+        <v>532100</v>
       </c>
       <c r="E18" s="3">
-        <v>609100</v>
+        <v>165900</v>
       </c>
       <c r="F18" s="3">
-        <v>1185800</v>
+        <v>600500</v>
       </c>
       <c r="G18" s="3">
-        <v>871500</v>
+        <v>1169100</v>
       </c>
       <c r="H18" s="3">
-        <v>1346000</v>
+        <v>859200</v>
       </c>
       <c r="I18" s="3">
-        <v>1375600</v>
+        <v>1327000</v>
       </c>
       <c r="J18" s="3">
+        <v>1356200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1556000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1930800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1920700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2414800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,183 +1112,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>916000</v>
+        <v>840700</v>
       </c>
       <c r="E20" s="3">
-        <v>836500</v>
+        <v>903000</v>
       </c>
       <c r="F20" s="3">
-        <v>757100</v>
+        <v>824700</v>
       </c>
       <c r="G20" s="3">
-        <v>1105100</v>
+        <v>746400</v>
       </c>
       <c r="H20" s="3">
-        <v>901800</v>
+        <v>1089500</v>
       </c>
       <c r="I20" s="3">
-        <v>674300</v>
+        <v>889100</v>
       </c>
       <c r="J20" s="3">
+        <v>664800</v>
+      </c>
+      <c r="K20" s="3">
         <v>452300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>405400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>468700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1084200</v>
+        <v>3178800</v>
       </c>
       <c r="E21" s="3">
-        <v>2886500</v>
+        <v>1068900</v>
       </c>
       <c r="F21" s="3">
-        <v>1964500</v>
+        <v>2845800</v>
       </c>
       <c r="G21" s="3">
-        <v>3470000</v>
+        <v>1936800</v>
       </c>
       <c r="H21" s="3">
-        <v>2210800</v>
+        <v>3421000</v>
       </c>
       <c r="I21" s="3">
-        <v>3562900</v>
+        <v>2179600</v>
       </c>
       <c r="J21" s="3">
+        <v>3512600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2061400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3778100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2386500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3901600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>226100</v>
+        <v>260800</v>
       </c>
       <c r="E22" s="3">
-        <v>236200</v>
+        <v>222900</v>
       </c>
       <c r="F22" s="3">
-        <v>221400</v>
+        <v>232900</v>
       </c>
       <c r="G22" s="3">
-        <v>239600</v>
+        <v>218300</v>
       </c>
       <c r="H22" s="3">
         <v>236200</v>
       </c>
       <c r="I22" s="3">
-        <v>261100</v>
+        <v>232900</v>
       </c>
       <c r="J22" s="3">
+        <v>257400</v>
+      </c>
+      <c r="K22" s="3">
         <v>280000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>288000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>296000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>299700</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>858100</v>
+        <v>1112000</v>
       </c>
       <c r="E23" s="3">
-        <v>1209400</v>
+        <v>846000</v>
       </c>
       <c r="F23" s="3">
-        <v>1721500</v>
+        <v>1192300</v>
       </c>
       <c r="G23" s="3">
-        <v>1737000</v>
+        <v>1697200</v>
       </c>
       <c r="H23" s="3">
-        <v>2011600</v>
+        <v>1712500</v>
       </c>
       <c r="I23" s="3">
-        <v>1788800</v>
+        <v>1983200</v>
       </c>
       <c r="J23" s="3">
+        <v>1763600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1728300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2048200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2093400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2158700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>238200</v>
+        <v>349000</v>
       </c>
       <c r="E24" s="3">
-        <v>382900</v>
+        <v>234900</v>
       </c>
       <c r="F24" s="3">
-        <v>466400</v>
+        <v>377500</v>
       </c>
       <c r="G24" s="3">
-        <v>598300</v>
+        <v>459800</v>
       </c>
       <c r="H24" s="3">
-        <v>605700</v>
+        <v>589900</v>
       </c>
       <c r="I24" s="3">
-        <v>587500</v>
+        <v>597200</v>
       </c>
       <c r="J24" s="3">
+        <v>579200</v>
+      </c>
+      <c r="K24" s="3">
         <v>580800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>616900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>631300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>635600</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>619800</v>
+        <v>763000</v>
       </c>
       <c r="E26" s="3">
-        <v>826400</v>
+        <v>611100</v>
       </c>
       <c r="F26" s="3">
-        <v>1255100</v>
+        <v>814800</v>
       </c>
       <c r="G26" s="3">
-        <v>1138700</v>
+        <v>1237400</v>
       </c>
       <c r="H26" s="3">
-        <v>1405900</v>
+        <v>1122600</v>
       </c>
       <c r="I26" s="3">
-        <v>1201300</v>
+        <v>1386100</v>
       </c>
       <c r="J26" s="3">
+        <v>1184300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1147500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1431300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1462100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1523000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>619800</v>
+        <v>755700</v>
       </c>
       <c r="E27" s="3">
-        <v>829800</v>
+        <v>611100</v>
       </c>
       <c r="F27" s="3">
-        <v>1263900</v>
+        <v>818100</v>
       </c>
       <c r="G27" s="3">
-        <v>1152800</v>
+        <v>1246100</v>
       </c>
       <c r="H27" s="3">
-        <v>1413300</v>
+        <v>1136600</v>
       </c>
       <c r="I27" s="3">
-        <v>1205300</v>
+        <v>1393400</v>
       </c>
       <c r="J27" s="3">
+        <v>1188300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1129300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1401600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1432300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1499100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1411,26 +1472,29 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1352100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>79200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>124800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-916000</v>
+        <v>-840700</v>
       </c>
       <c r="E32" s="3">
-        <v>-836500</v>
+        <v>-903000</v>
       </c>
       <c r="F32" s="3">
-        <v>-757100</v>
+        <v>-824700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1105100</v>
+        <v>-746400</v>
       </c>
       <c r="H32" s="3">
-        <v>-901800</v>
+        <v>-1089500</v>
       </c>
       <c r="I32" s="3">
-        <v>-674300</v>
+        <v>-889100</v>
       </c>
       <c r="J32" s="3">
+        <v>-664800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-452300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-405400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-468700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-43500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>619800</v>
+        <v>755700</v>
       </c>
       <c r="E33" s="3">
-        <v>829800</v>
+        <v>611100</v>
       </c>
       <c r="F33" s="3">
-        <v>1263900</v>
+        <v>818100</v>
       </c>
       <c r="G33" s="3">
-        <v>1152800</v>
+        <v>1246100</v>
       </c>
       <c r="H33" s="3">
-        <v>1413300</v>
+        <v>1136600</v>
       </c>
       <c r="I33" s="3">
-        <v>1205300</v>
+        <v>1393400</v>
       </c>
       <c r="J33" s="3">
+        <v>1188300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2481400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1480800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1557100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>619800</v>
+        <v>755700</v>
       </c>
       <c r="E35" s="3">
-        <v>829800</v>
+        <v>611100</v>
       </c>
       <c r="F35" s="3">
-        <v>1263900</v>
+        <v>818100</v>
       </c>
       <c r="G35" s="3">
-        <v>1152800</v>
+        <v>1246100</v>
       </c>
       <c r="H35" s="3">
-        <v>1413300</v>
+        <v>1136600</v>
       </c>
       <c r="I35" s="3">
-        <v>1205300</v>
+        <v>1393400</v>
       </c>
       <c r="J35" s="3">
+        <v>1188300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2481400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1480800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1557100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,323 +1795,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>147400</v>
+        <v>158600</v>
       </c>
       <c r="E41" s="3">
-        <v>82100</v>
+        <v>145300</v>
       </c>
       <c r="F41" s="3">
-        <v>86800</v>
+        <v>80900</v>
       </c>
       <c r="G41" s="3">
-        <v>84100</v>
+        <v>85600</v>
       </c>
       <c r="H41" s="3">
-        <v>774000</v>
+        <v>82900</v>
       </c>
       <c r="I41" s="3">
-        <v>162900</v>
+        <v>763000</v>
       </c>
       <c r="J41" s="3">
+        <v>160600</v>
+      </c>
+      <c r="K41" s="3">
         <v>181000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>450700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>421600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>243100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>259100</v>
+        <v>341700</v>
       </c>
       <c r="E42" s="3">
-        <v>282000</v>
+        <v>255400</v>
       </c>
       <c r="F42" s="3">
-        <v>336500</v>
+        <v>278000</v>
       </c>
       <c r="G42" s="3">
-        <v>310900</v>
+        <v>331800</v>
       </c>
       <c r="H42" s="3">
-        <v>488600</v>
+        <v>306500</v>
       </c>
       <c r="I42" s="3">
-        <v>636700</v>
+        <v>481700</v>
       </c>
       <c r="J42" s="3">
+        <v>627700</v>
+      </c>
+      <c r="K42" s="3">
         <v>2208100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1085300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>591400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3633500</v>
+        <v>3519200</v>
       </c>
       <c r="E43" s="3">
-        <v>3686700</v>
+        <v>3582200</v>
       </c>
       <c r="F43" s="3">
-        <v>3764800</v>
+        <v>3634700</v>
       </c>
       <c r="G43" s="3">
-        <v>3651700</v>
+        <v>3711600</v>
       </c>
       <c r="H43" s="3">
-        <v>4106000</v>
+        <v>3600200</v>
       </c>
       <c r="I43" s="3">
-        <v>3507000</v>
+        <v>4048000</v>
       </c>
       <c r="J43" s="3">
+        <v>3457500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3193400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3572200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3432100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3365300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>301500</v>
+        <v>494300</v>
       </c>
       <c r="E44" s="3">
-        <v>584800</v>
+        <v>297200</v>
       </c>
       <c r="F44" s="3">
-        <v>331100</v>
+        <v>576600</v>
       </c>
       <c r="G44" s="3">
-        <v>741600</v>
+        <v>326400</v>
       </c>
       <c r="H44" s="3">
-        <v>315600</v>
+        <v>731200</v>
       </c>
       <c r="I44" s="3">
-        <v>589500</v>
+        <v>311200</v>
       </c>
       <c r="J44" s="3">
+        <v>581200</v>
+      </c>
+      <c r="K44" s="3">
         <v>374900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>501600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>356300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>573400</v>
+        <v>445200</v>
       </c>
       <c r="E45" s="3">
-        <v>372200</v>
+        <v>565300</v>
       </c>
       <c r="F45" s="3">
-        <v>387000</v>
+        <v>366900</v>
       </c>
       <c r="G45" s="3">
-        <v>396400</v>
+        <v>381500</v>
       </c>
       <c r="H45" s="3">
-        <v>362700</v>
+        <v>390800</v>
       </c>
       <c r="I45" s="3">
-        <v>389000</v>
+        <v>357600</v>
       </c>
       <c r="J45" s="3">
+        <v>383500</v>
+      </c>
+      <c r="K45" s="3">
         <v>328400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>314800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>256100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4914900</v>
+        <v>4959000</v>
       </c>
       <c r="E46" s="3">
-        <v>5007800</v>
+        <v>4845500</v>
       </c>
       <c r="F46" s="3">
-        <v>4906200</v>
+        <v>4937100</v>
       </c>
       <c r="G46" s="3">
-        <v>5184800</v>
+        <v>4836900</v>
       </c>
       <c r="H46" s="3">
-        <v>5415600</v>
+        <v>5111600</v>
       </c>
       <c r="I46" s="3">
-        <v>5285100</v>
+        <v>5339200</v>
       </c>
       <c r="J46" s="3">
+        <v>5210500</v>
+      </c>
+      <c r="K46" s="3">
         <v>6285800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5924600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5057400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5277300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1415300</v>
+        <v>1680000</v>
       </c>
       <c r="E47" s="3">
-        <v>1455000</v>
+        <v>1395300</v>
       </c>
       <c r="F47" s="3">
-        <v>1348000</v>
+        <v>1434500</v>
       </c>
       <c r="G47" s="3">
-        <v>1210100</v>
+        <v>1329000</v>
       </c>
       <c r="H47" s="3">
-        <v>980600</v>
+        <v>1193000</v>
       </c>
       <c r="I47" s="3">
-        <v>1221500</v>
+        <v>966700</v>
       </c>
       <c r="J47" s="3">
+        <v>1204300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1250400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1098000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1094900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15029400</v>
+        <v>16522500</v>
       </c>
       <c r="E48" s="3">
-        <v>15195700</v>
+        <v>14817300</v>
       </c>
       <c r="F48" s="3">
-        <v>14878700</v>
+        <v>14981200</v>
       </c>
       <c r="G48" s="3">
-        <v>14582600</v>
+        <v>14668700</v>
       </c>
       <c r="H48" s="3">
-        <v>14368600</v>
+        <v>14376700</v>
       </c>
       <c r="I48" s="3">
-        <v>13990300</v>
+        <v>14165700</v>
       </c>
       <c r="J48" s="3">
+        <v>13792800</v>
+      </c>
+      <c r="K48" s="3">
         <v>13851000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14603500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14838500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14308100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4852300</v>
+        <v>4775200</v>
       </c>
       <c r="E49" s="3">
-        <v>5264900</v>
+        <v>4783800</v>
       </c>
       <c r="F49" s="3">
-        <v>5331500</v>
+        <v>5190600</v>
       </c>
       <c r="G49" s="3">
-        <v>6174100</v>
+        <v>5256200</v>
       </c>
       <c r="H49" s="3">
-        <v>5597300</v>
+        <v>6086900</v>
       </c>
       <c r="I49" s="3">
-        <v>6153200</v>
+        <v>5518300</v>
       </c>
       <c r="J49" s="3">
+        <v>6066400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6211100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6729000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6771300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6045700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2450400</v>
+        <v>2289700</v>
       </c>
       <c r="E52" s="3">
-        <v>2502200</v>
+        <v>2415800</v>
       </c>
       <c r="F52" s="3">
-        <v>2288200</v>
+        <v>2466900</v>
       </c>
       <c r="G52" s="3">
-        <v>1237000</v>
+        <v>2255900</v>
       </c>
       <c r="H52" s="3">
-        <v>1908000</v>
+        <v>1219500</v>
       </c>
       <c r="I52" s="3">
-        <v>1450300</v>
+        <v>1881000</v>
       </c>
       <c r="J52" s="3">
+        <v>1429800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1533100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1693000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1584700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1421500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28662400</v>
+        <v>30226400</v>
       </c>
       <c r="E54" s="3">
-        <v>29425600</v>
+        <v>28257800</v>
       </c>
       <c r="F54" s="3">
-        <v>28752600</v>
+        <v>29010200</v>
       </c>
       <c r="G54" s="3">
-        <v>28388500</v>
+        <v>28346700</v>
       </c>
       <c r="H54" s="3">
-        <v>28270000</v>
+        <v>27987800</v>
       </c>
       <c r="I54" s="3">
-        <v>28100400</v>
+        <v>27871000</v>
       </c>
       <c r="J54" s="3">
+        <v>27703800</v>
+      </c>
+      <c r="K54" s="3">
         <v>29131500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30048200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29346900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28035000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3047300</v>
+        <v>666800</v>
       </c>
       <c r="E57" s="3">
-        <v>2981400</v>
+        <v>3004300</v>
       </c>
       <c r="F57" s="3">
-        <v>3047300</v>
+        <v>2939300</v>
       </c>
       <c r="G57" s="3">
-        <v>2832000</v>
+        <v>3004300</v>
       </c>
       <c r="H57" s="3">
-        <v>2654300</v>
+        <v>2792000</v>
       </c>
       <c r="I57" s="3">
-        <v>2594400</v>
+        <v>2616800</v>
       </c>
       <c r="J57" s="3">
+        <v>2557800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2657000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2866800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2960400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2699200</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1495400</v>
+        <v>2439000</v>
       </c>
       <c r="E58" s="3">
-        <v>777300</v>
+        <v>1474300</v>
       </c>
       <c r="F58" s="3">
-        <v>1100400</v>
+        <v>766300</v>
       </c>
       <c r="G58" s="3">
-        <v>1884400</v>
+        <v>1084800</v>
       </c>
       <c r="H58" s="3">
-        <v>1666300</v>
+        <v>1857800</v>
       </c>
       <c r="I58" s="3">
-        <v>2514300</v>
+        <v>1642800</v>
       </c>
       <c r="J58" s="3">
+        <v>2478800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1786800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1335800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1085500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1779200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1886400</v>
+        <v>3569000</v>
       </c>
       <c r="E59" s="3">
-        <v>1665000</v>
+        <v>1859800</v>
       </c>
       <c r="F59" s="3">
-        <v>2590400</v>
+        <v>1641500</v>
       </c>
       <c r="G59" s="3">
-        <v>1589000</v>
+        <v>2553800</v>
       </c>
       <c r="H59" s="3">
-        <v>2622700</v>
+        <v>1566500</v>
       </c>
       <c r="I59" s="3">
-        <v>1636700</v>
+        <v>2585700</v>
       </c>
       <c r="J59" s="3">
+        <v>1613600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1739700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1790000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1852500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1736400</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6429200</v>
+        <v>6674800</v>
       </c>
       <c r="E60" s="3">
-        <v>5423700</v>
+        <v>6338400</v>
       </c>
       <c r="F60" s="3">
-        <v>5912300</v>
+        <v>5347100</v>
       </c>
       <c r="G60" s="3">
-        <v>6305300</v>
+        <v>5828800</v>
       </c>
       <c r="H60" s="3">
-        <v>6111500</v>
+        <v>6216300</v>
       </c>
       <c r="I60" s="3">
-        <v>6745500</v>
+        <v>6025200</v>
       </c>
       <c r="J60" s="3">
+        <v>6650300</v>
+      </c>
+      <c r="K60" s="3">
         <v>6183500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5992500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5898400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6214800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10115900</v>
+        <v>11040600</v>
       </c>
       <c r="E61" s="3">
-        <v>11527100</v>
+        <v>9973100</v>
       </c>
       <c r="F61" s="3">
-        <v>10307700</v>
+        <v>11364400</v>
       </c>
       <c r="G61" s="3">
-        <v>9973200</v>
+        <v>10162200</v>
       </c>
       <c r="H61" s="3">
-        <v>9965800</v>
+        <v>9832400</v>
       </c>
       <c r="I61" s="3">
-        <v>9068000</v>
+        <v>9825100</v>
       </c>
       <c r="J61" s="3">
+        <v>8940000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9857400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10966300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10258500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9559800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2338700</v>
+        <v>2297700</v>
       </c>
       <c r="E62" s="3">
-        <v>2712900</v>
+        <v>2305700</v>
       </c>
       <c r="F62" s="3">
-        <v>3577000</v>
+        <v>2674600</v>
       </c>
       <c r="G62" s="3">
-        <v>2454400</v>
+        <v>3526500</v>
       </c>
       <c r="H62" s="3">
-        <v>3450500</v>
+        <v>2419800</v>
       </c>
       <c r="I62" s="3">
-        <v>2482000</v>
+        <v>3401800</v>
       </c>
       <c r="J62" s="3">
+        <v>2447000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2385100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2604300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2661500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2353800</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18870900</v>
+        <v>20466300</v>
       </c>
       <c r="E66" s="3">
-        <v>19650900</v>
+        <v>18604500</v>
       </c>
       <c r="F66" s="3">
-        <v>18905200</v>
+        <v>19373500</v>
       </c>
       <c r="G66" s="3">
-        <v>18733600</v>
+        <v>18638400</v>
       </c>
       <c r="H66" s="3">
-        <v>18759200</v>
+        <v>18469200</v>
       </c>
       <c r="I66" s="3">
-        <v>18314300</v>
+        <v>18494400</v>
       </c>
       <c r="J66" s="3">
+        <v>18055800</v>
+      </c>
+      <c r="K66" s="3">
         <v>18450300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19892100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19113800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18344600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6798600</v>
+        <v>6814800</v>
       </c>
       <c r="E72" s="3">
-        <v>6789200</v>
+        <v>6702700</v>
       </c>
       <c r="F72" s="3">
-        <v>6867300</v>
+        <v>6693400</v>
       </c>
       <c r="G72" s="3">
-        <v>6678900</v>
+        <v>6770400</v>
       </c>
       <c r="H72" s="3">
-        <v>6532800</v>
+        <v>6584600</v>
       </c>
       <c r="I72" s="3">
-        <v>6677500</v>
+        <v>6440600</v>
       </c>
       <c r="J72" s="3">
+        <v>6583200</v>
+      </c>
+      <c r="K72" s="3">
         <v>7160700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6362500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6415800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5968100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9791500</v>
+        <v>9760100</v>
       </c>
       <c r="E76" s="3">
-        <v>9774700</v>
+        <v>9653300</v>
       </c>
       <c r="F76" s="3">
-        <v>9847300</v>
+        <v>9636700</v>
       </c>
       <c r="G76" s="3">
-        <v>9654900</v>
+        <v>9708300</v>
       </c>
       <c r="H76" s="3">
-        <v>9510800</v>
+        <v>9518600</v>
       </c>
       <c r="I76" s="3">
-        <v>9786100</v>
+        <v>9376600</v>
       </c>
       <c r="J76" s="3">
+        <v>9648000</v>
+      </c>
+      <c r="K76" s="3">
         <v>10681200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10156200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10233100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9690400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>619800</v>
+        <v>755700</v>
       </c>
       <c r="E81" s="3">
-        <v>829800</v>
+        <v>611100</v>
       </c>
       <c r="F81" s="3">
-        <v>1263900</v>
+        <v>818100</v>
       </c>
       <c r="G81" s="3">
-        <v>1152800</v>
+        <v>1246100</v>
       </c>
       <c r="H81" s="3">
-        <v>1413300</v>
+        <v>1136600</v>
       </c>
       <c r="I81" s="3">
-        <v>1205300</v>
+        <v>1393400</v>
       </c>
       <c r="J81" s="3">
+        <v>1188300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2481400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1480800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1557100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2601800</v>
+        <v>1813300</v>
       </c>
       <c r="E89" s="3">
-        <v>1895800</v>
+        <v>2565100</v>
       </c>
       <c r="F89" s="3">
-        <v>3252600</v>
+        <v>1869100</v>
       </c>
       <c r="G89" s="3">
-        <v>2539200</v>
+        <v>3206700</v>
       </c>
       <c r="H89" s="3">
-        <v>3104500</v>
+        <v>2503400</v>
       </c>
       <c r="I89" s="3">
-        <v>2128000</v>
+        <v>3060700</v>
       </c>
       <c r="J89" s="3">
+        <v>2098000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2998900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2601500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3350100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2680400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-942200</v>
+        <v>-781600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1235000</v>
+        <v>-928900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1105700</v>
+        <v>-1217500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1297500</v>
+        <v>-1090100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1381700</v>
+        <v>-1279200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1125300</v>
+        <v>-1362200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1109400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-972500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1136200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5108200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2295800</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-959000</v>
+        <v>-804800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1473900</v>
+        <v>-945500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1247700</v>
+        <v>-1453100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1384400</v>
+        <v>-1230100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1679100</v>
+        <v>-1364800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1200600</v>
+        <v>-1655400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1183700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-301500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1244500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1639900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2490300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,43 +3682,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-640000</v>
+        <v>-631000</v>
       </c>
       <c r="E96" s="3">
-        <v>-880300</v>
+        <v>-631000</v>
       </c>
       <c r="F96" s="3">
-        <v>-880300</v>
+        <v>-867900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1239700</v>
+        <v>-867900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1239700</v>
+        <v>-1222200</v>
       </c>
       <c r="I96" s="3">
+        <v>-1222200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1256700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1274700</v>
       </c>
-      <c r="J96" s="3">
-        <v>-1274700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1339300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1330000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1354000</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1601100</v>
+        <v>-921600</v>
       </c>
       <c r="E100" s="3">
-        <v>-477200</v>
+        <v>-1578500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1983300</v>
+        <v>-470400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1391800</v>
+        <v>-1955300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1590300</v>
+        <v>-1372100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2517700</v>
+        <v>-1567900</v>
       </c>
       <c r="J100" s="3">
+        <v>-2482200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1761200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-820700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1951100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3042400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2700</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-4700</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>42800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42400</v>
+        <v>88200</v>
       </c>
       <c r="E102" s="3">
-        <v>-53200</v>
+        <v>41800</v>
       </c>
       <c r="F102" s="3">
-        <v>24200</v>
+        <v>-52400</v>
       </c>
       <c r="G102" s="3">
-        <v>-236900</v>
+        <v>23900</v>
       </c>
       <c r="H102" s="3">
-        <v>-169600</v>
+        <v>-233600</v>
       </c>
       <c r="I102" s="3">
-        <v>-1589600</v>
+        <v>-167200</v>
       </c>
       <c r="J102" s="3">
+        <v>-1567200</v>
+      </c>
+      <c r="K102" s="3">
         <v>932100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>544100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-198100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2799400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TLSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8070800</v>
+        <v>8348900</v>
       </c>
       <c r="E8" s="3">
-        <v>8408500</v>
+        <v>8795800</v>
       </c>
       <c r="F8" s="3">
-        <v>8350800</v>
+        <v>9163800</v>
       </c>
       <c r="G8" s="3">
-        <v>8651400</v>
+        <v>9100900</v>
       </c>
       <c r="H8" s="3">
-        <v>8498800</v>
+        <v>9428500</v>
       </c>
       <c r="I8" s="3">
-        <v>8762800</v>
+        <v>9262200</v>
       </c>
       <c r="J8" s="3">
+        <v>9550000</v>
+      </c>
+      <c r="K8" s="3">
         <v>8496800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8230800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9402000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9293500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9229600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3066700</v>
+        <v>3243100</v>
       </c>
       <c r="E9" s="3">
-        <v>3155600</v>
+        <v>3342200</v>
       </c>
       <c r="F9" s="3">
-        <v>2907500</v>
+        <v>3439100</v>
       </c>
       <c r="G9" s="3">
-        <v>2885600</v>
+        <v>3168600</v>
       </c>
       <c r="H9" s="3">
-        <v>2646700</v>
+        <v>3144800</v>
       </c>
       <c r="I9" s="3">
-        <v>2639400</v>
+        <v>2884400</v>
       </c>
       <c r="J9" s="3">
+        <v>2876500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2450300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2239100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2757100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2599800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2366900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5004100</v>
+        <v>5105800</v>
       </c>
       <c r="E10" s="3">
-        <v>5252900</v>
+        <v>5453600</v>
       </c>
       <c r="F10" s="3">
-        <v>5443400</v>
+        <v>5724800</v>
       </c>
       <c r="G10" s="3">
-        <v>5765800</v>
+        <v>5932300</v>
       </c>
       <c r="H10" s="3">
-        <v>5852100</v>
+        <v>6283700</v>
       </c>
       <c r="I10" s="3">
-        <v>6123400</v>
+        <v>6377700</v>
       </c>
       <c r="J10" s="3">
+        <v>6673500</v>
+      </c>
+      <c r="K10" s="3">
         <v>6046500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5991700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6644800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6693700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6862700</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,34 +949,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>126100</v>
+        <v>391200</v>
       </c>
       <c r="E14" s="3">
-        <v>861900</v>
+        <v>137400</v>
       </c>
       <c r="F14" s="3">
-        <v>88900</v>
+        <v>939300</v>
       </c>
       <c r="G14" s="3">
-        <v>24500</v>
+        <v>96900</v>
       </c>
       <c r="H14" s="3">
-        <v>294600</v>
+        <v>26800</v>
       </c>
       <c r="I14" s="3">
-        <v>183100</v>
+        <v>321100</v>
       </c>
       <c r="J14" s="3">
+        <v>199600</v>
+      </c>
+      <c r="K14" s="3">
         <v>110100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -970,46 +990,52 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1806000</v>
+        <v>1891600</v>
       </c>
       <c r="E15" s="3">
-        <v>1420600</v>
+        <v>1968300</v>
       </c>
       <c r="F15" s="3">
-        <v>1420600</v>
+        <v>1548200</v>
       </c>
       <c r="G15" s="3">
-        <v>1493500</v>
+        <v>1548200</v>
       </c>
       <c r="H15" s="3">
-        <v>1472300</v>
+        <v>1627700</v>
       </c>
       <c r="I15" s="3">
-        <v>1455100</v>
+        <v>1604600</v>
       </c>
       <c r="J15" s="3">
+        <v>1585800</v>
+      </c>
+      <c r="K15" s="3">
         <v>1491500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1424700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1436900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1440300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1443200</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7538700</v>
+        <v>8112500</v>
       </c>
       <c r="E17" s="3">
-        <v>8242700</v>
+        <v>8215900</v>
       </c>
       <c r="F17" s="3">
-        <v>7750300</v>
+        <v>8983100</v>
       </c>
       <c r="G17" s="3">
-        <v>7482300</v>
+        <v>8446500</v>
       </c>
       <c r="H17" s="3">
-        <v>7639500</v>
+        <v>8154400</v>
       </c>
       <c r="I17" s="3">
-        <v>7435800</v>
+        <v>8325800</v>
       </c>
       <c r="J17" s="3">
+        <v>8103800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7140600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6674800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7471200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7372800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6814800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>532100</v>
+        <v>236500</v>
       </c>
       <c r="E18" s="3">
-        <v>165900</v>
+        <v>579900</v>
       </c>
       <c r="F18" s="3">
-        <v>600500</v>
+        <v>180800</v>
       </c>
       <c r="G18" s="3">
-        <v>1169100</v>
+        <v>654400</v>
       </c>
       <c r="H18" s="3">
-        <v>859200</v>
+        <v>1274100</v>
       </c>
       <c r="I18" s="3">
-        <v>1327000</v>
+        <v>936400</v>
       </c>
       <c r="J18" s="3">
+        <v>1446200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1356200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1556000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1930800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1920700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2414800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,198 +1146,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>840700</v>
+        <v>817100</v>
       </c>
       <c r="E20" s="3">
-        <v>903000</v>
+        <v>916200</v>
       </c>
       <c r="F20" s="3">
-        <v>824700</v>
+        <v>984100</v>
       </c>
       <c r="G20" s="3">
-        <v>746400</v>
+        <v>898800</v>
       </c>
       <c r="H20" s="3">
-        <v>1089500</v>
+        <v>813500</v>
       </c>
       <c r="I20" s="3">
-        <v>889100</v>
+        <v>1187300</v>
       </c>
       <c r="J20" s="3">
+        <v>969000</v>
+      </c>
+      <c r="K20" s="3">
         <v>664800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>452300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>405400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>468700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3178800</v>
+        <v>976900</v>
       </c>
       <c r="E21" s="3">
-        <v>1068900</v>
+        <v>3464400</v>
       </c>
       <c r="F21" s="3">
-        <v>2845800</v>
+        <v>1164900</v>
       </c>
       <c r="G21" s="3">
-        <v>1936800</v>
+        <v>3101400</v>
       </c>
       <c r="H21" s="3">
-        <v>3421000</v>
+        <v>2110700</v>
       </c>
       <c r="I21" s="3">
-        <v>2179600</v>
+        <v>3728300</v>
       </c>
       <c r="J21" s="3">
+        <v>2375400</v>
+      </c>
+      <c r="K21" s="3">
         <v>3512600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2061400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3778100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2386500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3901600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>260800</v>
+        <v>243700</v>
       </c>
       <c r="E22" s="3">
-        <v>222900</v>
+        <v>284200</v>
       </c>
       <c r="F22" s="3">
-        <v>232900</v>
+        <v>243000</v>
       </c>
       <c r="G22" s="3">
-        <v>218300</v>
+        <v>253800</v>
       </c>
       <c r="H22" s="3">
-        <v>236200</v>
+        <v>237900</v>
       </c>
       <c r="I22" s="3">
-        <v>232900</v>
+        <v>257400</v>
       </c>
       <c r="J22" s="3">
+        <v>253800</v>
+      </c>
+      <c r="K22" s="3">
         <v>257400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>280000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>288000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>296000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>299700</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1112000</v>
+        <v>809900</v>
       </c>
       <c r="E23" s="3">
-        <v>846000</v>
+        <v>1211900</v>
       </c>
       <c r="F23" s="3">
-        <v>1192300</v>
+        <v>922000</v>
       </c>
       <c r="G23" s="3">
-        <v>1697200</v>
+        <v>1299400</v>
       </c>
       <c r="H23" s="3">
-        <v>1712500</v>
+        <v>1849700</v>
       </c>
       <c r="I23" s="3">
-        <v>1983200</v>
+        <v>1866300</v>
       </c>
       <c r="J23" s="3">
+        <v>2161300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1763600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1728300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2048200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2093400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2158700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>349000</v>
+        <v>311700</v>
       </c>
       <c r="E24" s="3">
-        <v>234900</v>
+        <v>380400</v>
       </c>
       <c r="F24" s="3">
-        <v>377500</v>
+        <v>256000</v>
       </c>
       <c r="G24" s="3">
-        <v>459800</v>
+        <v>411400</v>
       </c>
       <c r="H24" s="3">
-        <v>589900</v>
+        <v>501100</v>
       </c>
       <c r="I24" s="3">
-        <v>597200</v>
+        <v>642800</v>
       </c>
       <c r="J24" s="3">
+        <v>650800</v>
+      </c>
+      <c r="K24" s="3">
         <v>579200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>580800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>616900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>631300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>635600</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>763000</v>
+        <v>498200</v>
       </c>
       <c r="E26" s="3">
-        <v>611100</v>
+        <v>831600</v>
       </c>
       <c r="F26" s="3">
-        <v>814800</v>
+        <v>666000</v>
       </c>
       <c r="G26" s="3">
-        <v>1237400</v>
+        <v>888000</v>
       </c>
       <c r="H26" s="3">
-        <v>1122600</v>
+        <v>1348600</v>
       </c>
       <c r="I26" s="3">
-        <v>1386100</v>
+        <v>1223500</v>
       </c>
       <c r="J26" s="3">
+        <v>1510600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1184300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1147500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1431300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1462100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1523000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>755700</v>
+        <v>491700</v>
       </c>
       <c r="E27" s="3">
-        <v>611100</v>
+        <v>823600</v>
       </c>
       <c r="F27" s="3">
-        <v>818100</v>
+        <v>666000</v>
       </c>
       <c r="G27" s="3">
-        <v>1246100</v>
+        <v>891600</v>
       </c>
       <c r="H27" s="3">
-        <v>1136600</v>
+        <v>1358000</v>
       </c>
       <c r="I27" s="3">
-        <v>1393400</v>
+        <v>1238700</v>
       </c>
       <c r="J27" s="3">
+        <v>1518500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1188300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1129300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1401600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1432300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1499100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1475,26 +1536,29 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1352100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>79200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>124800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-840700</v>
+        <v>-817100</v>
       </c>
       <c r="E32" s="3">
-        <v>-903000</v>
+        <v>-916200</v>
       </c>
       <c r="F32" s="3">
-        <v>-824700</v>
+        <v>-984100</v>
       </c>
       <c r="G32" s="3">
-        <v>-746400</v>
+        <v>-898800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1089500</v>
+        <v>-813500</v>
       </c>
       <c r="I32" s="3">
-        <v>-889100</v>
+        <v>-1187300</v>
       </c>
       <c r="J32" s="3">
+        <v>-969000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-664800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-452300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-405400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-468700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-43500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>755700</v>
+        <v>491700</v>
       </c>
       <c r="E33" s="3">
-        <v>611100</v>
+        <v>823600</v>
       </c>
       <c r="F33" s="3">
-        <v>818100</v>
+        <v>666000</v>
       </c>
       <c r="G33" s="3">
-        <v>1246100</v>
+        <v>891600</v>
       </c>
       <c r="H33" s="3">
-        <v>1136600</v>
+        <v>1358000</v>
       </c>
       <c r="I33" s="3">
-        <v>1393400</v>
+        <v>1238700</v>
       </c>
       <c r="J33" s="3">
+        <v>1518500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1188300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2481400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1480800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1557100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>755700</v>
+        <v>491700</v>
       </c>
       <c r="E35" s="3">
-        <v>611100</v>
+        <v>823600</v>
       </c>
       <c r="F35" s="3">
-        <v>818100</v>
+        <v>666000</v>
       </c>
       <c r="G35" s="3">
-        <v>1246100</v>
+        <v>891600</v>
       </c>
       <c r="H35" s="3">
-        <v>1136600</v>
+        <v>1358000</v>
       </c>
       <c r="I35" s="3">
-        <v>1393400</v>
+        <v>1238700</v>
       </c>
       <c r="J35" s="3">
+        <v>1518500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1188300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2481400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1480800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1557100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,350 +1882,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>158600</v>
+        <v>172100</v>
       </c>
       <c r="E41" s="3">
-        <v>145300</v>
+        <v>172800</v>
       </c>
       <c r="F41" s="3">
-        <v>80900</v>
+        <v>158400</v>
       </c>
       <c r="G41" s="3">
-        <v>85600</v>
+        <v>88200</v>
       </c>
       <c r="H41" s="3">
-        <v>82900</v>
+        <v>93300</v>
       </c>
       <c r="I41" s="3">
-        <v>763000</v>
+        <v>90400</v>
       </c>
       <c r="J41" s="3">
+        <v>831600</v>
+      </c>
+      <c r="K41" s="3">
         <v>160600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>181000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>450700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>421600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>243100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>341700</v>
+        <v>188700</v>
       </c>
       <c r="E42" s="3">
-        <v>255400</v>
+        <v>372400</v>
       </c>
       <c r="F42" s="3">
-        <v>278000</v>
+        <v>278400</v>
       </c>
       <c r="G42" s="3">
-        <v>331800</v>
+        <v>303000</v>
       </c>
       <c r="H42" s="3">
-        <v>306500</v>
+        <v>361600</v>
       </c>
       <c r="I42" s="3">
-        <v>481700</v>
+        <v>334100</v>
       </c>
       <c r="J42" s="3">
+        <v>525000</v>
+      </c>
+      <c r="K42" s="3">
         <v>627700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2208100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1085300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>591400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3519200</v>
+        <v>3704400</v>
       </c>
       <c r="E43" s="3">
-        <v>3582200</v>
+        <v>3835300</v>
       </c>
       <c r="F43" s="3">
-        <v>3634700</v>
+        <v>3904000</v>
       </c>
       <c r="G43" s="3">
-        <v>3711600</v>
+        <v>3961100</v>
       </c>
       <c r="H43" s="3">
-        <v>3600200</v>
+        <v>4045000</v>
       </c>
       <c r="I43" s="3">
-        <v>4048000</v>
+        <v>3923500</v>
       </c>
       <c r="J43" s="3">
+        <v>4411600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3457500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3193400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3572200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3432100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3365300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>494300</v>
+        <v>302300</v>
       </c>
       <c r="E44" s="3">
-        <v>297200</v>
+        <v>538700</v>
       </c>
       <c r="F44" s="3">
-        <v>576600</v>
+        <v>323900</v>
       </c>
       <c r="G44" s="3">
-        <v>326400</v>
+        <v>628400</v>
       </c>
       <c r="H44" s="3">
-        <v>731200</v>
+        <v>355800</v>
       </c>
       <c r="I44" s="3">
-        <v>311200</v>
+        <v>796900</v>
       </c>
       <c r="J44" s="3">
+        <v>339100</v>
+      </c>
+      <c r="K44" s="3">
         <v>581200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>374900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>501600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>356300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>445200</v>
+        <v>357200</v>
       </c>
       <c r="E45" s="3">
-        <v>565300</v>
+        <v>485200</v>
       </c>
       <c r="F45" s="3">
-        <v>366900</v>
+        <v>616100</v>
       </c>
       <c r="G45" s="3">
-        <v>381500</v>
+        <v>399900</v>
       </c>
       <c r="H45" s="3">
-        <v>390800</v>
+        <v>415800</v>
       </c>
       <c r="I45" s="3">
-        <v>357600</v>
+        <v>425900</v>
       </c>
       <c r="J45" s="3">
+        <v>389800</v>
+      </c>
+      <c r="K45" s="3">
         <v>383500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>328400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>314800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>256100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4959000</v>
+        <v>4724700</v>
       </c>
       <c r="E46" s="3">
-        <v>4845500</v>
+        <v>5404400</v>
       </c>
       <c r="F46" s="3">
-        <v>4937100</v>
+        <v>5280800</v>
       </c>
       <c r="G46" s="3">
-        <v>4836900</v>
+        <v>5380600</v>
       </c>
       <c r="H46" s="3">
-        <v>5111600</v>
+        <v>5271400</v>
       </c>
       <c r="I46" s="3">
-        <v>5339200</v>
+        <v>5570800</v>
       </c>
       <c r="J46" s="3">
+        <v>5818800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5210500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6285800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5924600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5057400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5277300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1680000</v>
+        <v>1696400</v>
       </c>
       <c r="E47" s="3">
-        <v>1395300</v>
+        <v>1830900</v>
       </c>
       <c r="F47" s="3">
-        <v>1434500</v>
+        <v>1520700</v>
       </c>
       <c r="G47" s="3">
-        <v>1329000</v>
+        <v>1563300</v>
       </c>
       <c r="H47" s="3">
-        <v>1193000</v>
+        <v>1448400</v>
       </c>
       <c r="I47" s="3">
-        <v>966700</v>
+        <v>1300100</v>
       </c>
       <c r="J47" s="3">
+        <v>1053600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1204300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1250400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1098000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1094900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16522500</v>
+        <v>17736900</v>
       </c>
       <c r="E48" s="3">
-        <v>14817300</v>
+        <v>18006600</v>
       </c>
       <c r="F48" s="3">
-        <v>14981200</v>
+        <v>16148300</v>
       </c>
       <c r="G48" s="3">
-        <v>14668700</v>
+        <v>16326900</v>
       </c>
       <c r="H48" s="3">
-        <v>14376700</v>
+        <v>15986300</v>
       </c>
       <c r="I48" s="3">
-        <v>14165700</v>
+        <v>15668100</v>
       </c>
       <c r="J48" s="3">
+        <v>15438200</v>
+      </c>
+      <c r="K48" s="3">
         <v>13792800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13851000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14603500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14838500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14308100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4775200</v>
+        <v>5359600</v>
       </c>
       <c r="E49" s="3">
-        <v>4783800</v>
+        <v>5204200</v>
       </c>
       <c r="F49" s="3">
-        <v>5190600</v>
+        <v>5213600</v>
       </c>
       <c r="G49" s="3">
-        <v>5256200</v>
+        <v>5656800</v>
       </c>
       <c r="H49" s="3">
-        <v>6086900</v>
+        <v>5728400</v>
       </c>
       <c r="I49" s="3">
-        <v>5518300</v>
+        <v>6633700</v>
       </c>
       <c r="J49" s="3">
+        <v>6014000</v>
+      </c>
+      <c r="K49" s="3">
         <v>6066400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6211100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6729000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6771300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6045700</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2289700</v>
+        <v>2590100</v>
       </c>
       <c r="E52" s="3">
-        <v>2415800</v>
+        <v>2495400</v>
       </c>
       <c r="F52" s="3">
-        <v>2466900</v>
+        <v>2632800</v>
       </c>
       <c r="G52" s="3">
-        <v>2255900</v>
+        <v>2688500</v>
       </c>
       <c r="H52" s="3">
-        <v>1219500</v>
+        <v>2458500</v>
       </c>
       <c r="I52" s="3">
-        <v>1881000</v>
+        <v>1329100</v>
       </c>
       <c r="J52" s="3">
+        <v>2050000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1429800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1533100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1693000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1584700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1421500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30226400</v>
+        <v>32107800</v>
       </c>
       <c r="E54" s="3">
-        <v>28257800</v>
+        <v>32941500</v>
       </c>
       <c r="F54" s="3">
-        <v>29010200</v>
+        <v>30796100</v>
       </c>
       <c r="G54" s="3">
-        <v>28346700</v>
+        <v>31616100</v>
       </c>
       <c r="H54" s="3">
-        <v>27987800</v>
+        <v>30893000</v>
       </c>
       <c r="I54" s="3">
-        <v>27871000</v>
+        <v>30501800</v>
       </c>
       <c r="J54" s="3">
+        <v>30374500</v>
+      </c>
+      <c r="K54" s="3">
         <v>27703800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29131500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30048200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29346900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28035000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>666800</v>
+        <v>714400</v>
       </c>
       <c r="E57" s="3">
-        <v>3004300</v>
+        <v>726700</v>
       </c>
       <c r="F57" s="3">
-        <v>2939300</v>
+        <v>3274200</v>
       </c>
       <c r="G57" s="3">
-        <v>3004300</v>
+        <v>3203300</v>
       </c>
       <c r="H57" s="3">
-        <v>2792000</v>
+        <v>3274200</v>
       </c>
       <c r="I57" s="3">
-        <v>2616800</v>
+        <v>3042800</v>
       </c>
       <c r="J57" s="3">
+        <v>2851900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2557800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2657000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2866800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2960400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2699200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2439000</v>
+        <v>2439700</v>
       </c>
       <c r="E58" s="3">
-        <v>1474300</v>
+        <v>2658100</v>
       </c>
       <c r="F58" s="3">
-        <v>766300</v>
+        <v>1606700</v>
       </c>
       <c r="G58" s="3">
-        <v>1084800</v>
+        <v>835200</v>
       </c>
       <c r="H58" s="3">
-        <v>1857800</v>
+        <v>1182300</v>
       </c>
       <c r="I58" s="3">
-        <v>1642800</v>
+        <v>2024700</v>
       </c>
       <c r="J58" s="3">
+        <v>1790400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2478800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1786800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1335800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1085500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1779200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3569000</v>
+        <v>4144800</v>
       </c>
       <c r="E59" s="3">
-        <v>1859800</v>
+        <v>3889600</v>
       </c>
       <c r="F59" s="3">
-        <v>1641500</v>
+        <v>2026800</v>
       </c>
       <c r="G59" s="3">
-        <v>2553800</v>
+        <v>1788900</v>
       </c>
       <c r="H59" s="3">
-        <v>1566500</v>
+        <v>2783200</v>
       </c>
       <c r="I59" s="3">
-        <v>2585700</v>
+        <v>1707200</v>
       </c>
       <c r="J59" s="3">
+        <v>2817900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1613600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1739700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1790000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1852500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1736400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6674800</v>
+        <v>7299000</v>
       </c>
       <c r="E60" s="3">
-        <v>6338400</v>
+        <v>7274400</v>
       </c>
       <c r="F60" s="3">
-        <v>5347100</v>
+        <v>6907800</v>
       </c>
       <c r="G60" s="3">
-        <v>5828800</v>
+        <v>5827500</v>
       </c>
       <c r="H60" s="3">
-        <v>6216300</v>
+        <v>6352400</v>
       </c>
       <c r="I60" s="3">
-        <v>6025200</v>
+        <v>6774700</v>
       </c>
       <c r="J60" s="3">
+        <v>6566500</v>
+      </c>
+      <c r="K60" s="3">
         <v>6650300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6183500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5992500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5898400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6214800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11040600</v>
+        <v>11391000</v>
       </c>
       <c r="E61" s="3">
-        <v>9973100</v>
+        <v>12032400</v>
       </c>
       <c r="F61" s="3">
-        <v>11364400</v>
+        <v>10868900</v>
       </c>
       <c r="G61" s="3">
-        <v>10162200</v>
+        <v>12385300</v>
       </c>
       <c r="H61" s="3">
-        <v>9832400</v>
+        <v>11075000</v>
       </c>
       <c r="I61" s="3">
-        <v>9825100</v>
+        <v>10715600</v>
       </c>
       <c r="J61" s="3">
+        <v>10707700</v>
+      </c>
+      <c r="K61" s="3">
         <v>8940000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9857400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10966300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10258500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9559800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2297700</v>
+        <v>2465000</v>
       </c>
       <c r="E62" s="3">
-        <v>2305700</v>
+        <v>2504100</v>
       </c>
       <c r="F62" s="3">
-        <v>2674600</v>
+        <v>2512800</v>
       </c>
       <c r="G62" s="3">
-        <v>3526500</v>
+        <v>2914800</v>
       </c>
       <c r="H62" s="3">
-        <v>2419800</v>
+        <v>3843300</v>
       </c>
       <c r="I62" s="3">
-        <v>3401800</v>
+        <v>2637100</v>
       </c>
       <c r="J62" s="3">
+        <v>3707300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2447000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2385100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2604300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2661500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2353800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20466300</v>
+        <v>21642400</v>
       </c>
       <c r="E66" s="3">
-        <v>18604500</v>
+        <v>22304700</v>
       </c>
       <c r="F66" s="3">
-        <v>19373500</v>
+        <v>20275700</v>
       </c>
       <c r="G66" s="3">
-        <v>18638400</v>
+        <v>21113800</v>
       </c>
       <c r="H66" s="3">
-        <v>18469200</v>
+        <v>20312600</v>
       </c>
       <c r="I66" s="3">
-        <v>18494400</v>
+        <v>20128200</v>
       </c>
       <c r="J66" s="3">
+        <v>20155700</v>
+      </c>
+      <c r="K66" s="3">
         <v>18055800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18450300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19892100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19113800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18344600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6814800</v>
+        <v>7246900</v>
       </c>
       <c r="E72" s="3">
-        <v>6702700</v>
+        <v>7427000</v>
       </c>
       <c r="F72" s="3">
-        <v>6693400</v>
+        <v>7304800</v>
       </c>
       <c r="G72" s="3">
-        <v>6770400</v>
+        <v>7294600</v>
       </c>
       <c r="H72" s="3">
-        <v>6584600</v>
+        <v>7378500</v>
       </c>
       <c r="I72" s="3">
-        <v>6440600</v>
+        <v>7176000</v>
       </c>
       <c r="J72" s="3">
+        <v>7019100</v>
+      </c>
+      <c r="K72" s="3">
         <v>6583200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7160700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6362500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6415800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5968100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9760100</v>
+        <v>10465400</v>
       </c>
       <c r="E76" s="3">
-        <v>9653300</v>
+        <v>10636800</v>
       </c>
       <c r="F76" s="3">
-        <v>9636700</v>
+        <v>10520400</v>
       </c>
       <c r="G76" s="3">
-        <v>9708300</v>
+        <v>10502300</v>
       </c>
       <c r="H76" s="3">
-        <v>9518600</v>
+        <v>10580400</v>
       </c>
       <c r="I76" s="3">
-        <v>9376600</v>
+        <v>10373600</v>
       </c>
       <c r="J76" s="3">
+        <v>10218800</v>
+      </c>
+      <c r="K76" s="3">
         <v>9648000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10681200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10156200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10233100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9690400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>755700</v>
+        <v>491700</v>
       </c>
       <c r="E81" s="3">
-        <v>611100</v>
+        <v>823600</v>
       </c>
       <c r="F81" s="3">
-        <v>818100</v>
+        <v>666000</v>
       </c>
       <c r="G81" s="3">
-        <v>1246100</v>
+        <v>891600</v>
       </c>
       <c r="H81" s="3">
-        <v>1136600</v>
+        <v>1358000</v>
       </c>
       <c r="I81" s="3">
-        <v>1393400</v>
+        <v>1238700</v>
       </c>
       <c r="J81" s="3">
+        <v>1518500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1188300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2481400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1480800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1557100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1813300</v>
+        <v>3092700</v>
       </c>
       <c r="E89" s="3">
-        <v>2565100</v>
+        <v>1976200</v>
       </c>
       <c r="F89" s="3">
-        <v>1869100</v>
+        <v>2795500</v>
       </c>
       <c r="G89" s="3">
-        <v>3206700</v>
+        <v>2037000</v>
       </c>
       <c r="H89" s="3">
-        <v>2503400</v>
+        <v>3494700</v>
       </c>
       <c r="I89" s="3">
-        <v>3060700</v>
+        <v>2728300</v>
       </c>
       <c r="J89" s="3">
+        <v>3335700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2098000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2998900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2601500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3350100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2680400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-781600</v>
+        <v>-841000</v>
       </c>
       <c r="E91" s="3">
-        <v>-928900</v>
+        <v>-851800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1217500</v>
+        <v>-1012300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1090100</v>
+        <v>-1326900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1279200</v>
+        <v>-1188100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1362200</v>
+        <v>-1394100</v>
       </c>
       <c r="J91" s="3">
+        <v>-1484500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-972500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1136200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5108200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2295800</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-804800</v>
+        <v>-1274800</v>
       </c>
       <c r="E94" s="3">
-        <v>-945500</v>
+        <v>-877100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1453100</v>
+        <v>-1030400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1230100</v>
+        <v>-1583600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1364800</v>
+        <v>-1340600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1655400</v>
+        <v>-1487400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1804100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1183700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-301500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1244500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1639900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2490300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3916,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-631000</v>
+        <v>-688400</v>
       </c>
       <c r="E96" s="3">
-        <v>-631000</v>
+        <v>-687700</v>
       </c>
       <c r="F96" s="3">
-        <v>-867900</v>
+        <v>-687700</v>
       </c>
       <c r="G96" s="3">
-        <v>-867900</v>
+        <v>-945800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1222200</v>
+        <v>-945800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1222200</v>
+        <v>-1332000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1332000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1256700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1274700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1339300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1330000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1354000</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-921600</v>
+        <v>-1987800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1578500</v>
+        <v>-1004400</v>
       </c>
       <c r="F100" s="3">
-        <v>-470400</v>
+        <v>-1720300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1955300</v>
+        <v>-512700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1372100</v>
+        <v>-2131000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1567900</v>
+        <v>-1495400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1708700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2482200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1761200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-820700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1951100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3042400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1300</v>
+        <v>-2200</v>
       </c>
       <c r="E101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
-        <v>2000</v>
-      </c>
       <c r="G101" s="3">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="I101" s="3">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>42800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>88200</v>
+        <v>-172100</v>
       </c>
       <c r="E102" s="3">
-        <v>41800</v>
+        <v>96200</v>
       </c>
       <c r="F102" s="3">
-        <v>-52400</v>
+        <v>45600</v>
       </c>
       <c r="G102" s="3">
-        <v>23900</v>
+        <v>-57100</v>
       </c>
       <c r="H102" s="3">
-        <v>-233600</v>
+        <v>26000</v>
       </c>
       <c r="I102" s="3">
-        <v>-167200</v>
+        <v>-254500</v>
       </c>
       <c r="J102" s="3">
+        <v>-182200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1567200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>932100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>544100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-198100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2799400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
@@ -736,25 +736,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8348900</v>
+        <v>8527900</v>
       </c>
       <c r="E8" s="3">
-        <v>8795800</v>
+        <v>8984300</v>
       </c>
       <c r="F8" s="3">
-        <v>9163800</v>
+        <v>9360300</v>
       </c>
       <c r="G8" s="3">
-        <v>9100900</v>
+        <v>9296000</v>
       </c>
       <c r="H8" s="3">
-        <v>9428500</v>
+        <v>9630600</v>
       </c>
       <c r="I8" s="3">
-        <v>9262200</v>
+        <v>9460700</v>
       </c>
       <c r="J8" s="3">
-        <v>9550000</v>
+        <v>9754700</v>
       </c>
       <c r="K8" s="3">
         <v>8496800</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3243100</v>
+        <v>3312600</v>
       </c>
       <c r="E9" s="3">
-        <v>3342200</v>
+        <v>3413800</v>
       </c>
       <c r="F9" s="3">
-        <v>3439100</v>
+        <v>3512800</v>
       </c>
       <c r="G9" s="3">
-        <v>3168600</v>
+        <v>3236500</v>
       </c>
       <c r="H9" s="3">
-        <v>3144800</v>
+        <v>3212200</v>
       </c>
       <c r="I9" s="3">
-        <v>2884400</v>
+        <v>2946300</v>
       </c>
       <c r="J9" s="3">
-        <v>2876500</v>
+        <v>2938200</v>
       </c>
       <c r="K9" s="3">
         <v>2450300</v>
@@ -818,25 +818,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5105800</v>
+        <v>5215300</v>
       </c>
       <c r="E10" s="3">
-        <v>5453600</v>
+        <v>5570500</v>
       </c>
       <c r="F10" s="3">
-        <v>5724800</v>
+        <v>5847500</v>
       </c>
       <c r="G10" s="3">
-        <v>5932300</v>
+        <v>6059500</v>
       </c>
       <c r="H10" s="3">
-        <v>6283700</v>
+        <v>6418400</v>
       </c>
       <c r="I10" s="3">
-        <v>6377700</v>
+        <v>6514500</v>
       </c>
       <c r="J10" s="3">
-        <v>6673500</v>
+        <v>6816500</v>
       </c>
       <c r="K10" s="3">
         <v>6046500</v>
@@ -958,25 +958,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>391200</v>
+        <v>399600</v>
       </c>
       <c r="E14" s="3">
-        <v>137400</v>
+        <v>140300</v>
       </c>
       <c r="F14" s="3">
-        <v>939300</v>
+        <v>959400</v>
       </c>
       <c r="G14" s="3">
-        <v>96900</v>
+        <v>99000</v>
       </c>
       <c r="H14" s="3">
-        <v>26800</v>
+        <v>27300</v>
       </c>
       <c r="I14" s="3">
-        <v>321100</v>
+        <v>327900</v>
       </c>
       <c r="J14" s="3">
-        <v>199600</v>
+        <v>203900</v>
       </c>
       <c r="K14" s="3">
         <v>110100</v>
@@ -999,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1891600</v>
+        <v>1932200</v>
       </c>
       <c r="E15" s="3">
-        <v>1968300</v>
+        <v>2010500</v>
       </c>
       <c r="F15" s="3">
-        <v>1548200</v>
+        <v>1581300</v>
       </c>
       <c r="G15" s="3">
-        <v>1548200</v>
+        <v>1581300</v>
       </c>
       <c r="H15" s="3">
-        <v>1627700</v>
+        <v>1662600</v>
       </c>
       <c r="I15" s="3">
-        <v>1604600</v>
+        <v>1639000</v>
       </c>
       <c r="J15" s="3">
-        <v>1585800</v>
+        <v>1619700</v>
       </c>
       <c r="K15" s="3">
         <v>1491500</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8112500</v>
+        <v>8286400</v>
       </c>
       <c r="E17" s="3">
-        <v>8215900</v>
+        <v>8392000</v>
       </c>
       <c r="F17" s="3">
-        <v>8983100</v>
+        <v>9175600</v>
       </c>
       <c r="G17" s="3">
-        <v>8446500</v>
+        <v>8627600</v>
       </c>
       <c r="H17" s="3">
-        <v>8154400</v>
+        <v>8329200</v>
       </c>
       <c r="I17" s="3">
-        <v>8325800</v>
+        <v>8504200</v>
       </c>
       <c r="J17" s="3">
-        <v>8103800</v>
+        <v>8277500</v>
       </c>
       <c r="K17" s="3">
         <v>7140600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>236500</v>
+        <v>241500</v>
       </c>
       <c r="E18" s="3">
-        <v>579900</v>
+        <v>592400</v>
       </c>
       <c r="F18" s="3">
-        <v>180800</v>
+        <v>184700</v>
       </c>
       <c r="G18" s="3">
-        <v>654400</v>
+        <v>668400</v>
       </c>
       <c r="H18" s="3">
-        <v>1274100</v>
+        <v>1301400</v>
       </c>
       <c r="I18" s="3">
-        <v>936400</v>
+        <v>956500</v>
       </c>
       <c r="J18" s="3">
-        <v>1446200</v>
+        <v>1477200</v>
       </c>
       <c r="K18" s="3">
         <v>1356200</v>
@@ -1153,25 +1153,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>817100</v>
+        <v>834600</v>
       </c>
       <c r="E20" s="3">
-        <v>916200</v>
+        <v>935800</v>
       </c>
       <c r="F20" s="3">
-        <v>984100</v>
+        <v>1005200</v>
       </c>
       <c r="G20" s="3">
-        <v>898800</v>
+        <v>918100</v>
       </c>
       <c r="H20" s="3">
-        <v>813500</v>
+        <v>830900</v>
       </c>
       <c r="I20" s="3">
-        <v>1187300</v>
+        <v>1212800</v>
       </c>
       <c r="J20" s="3">
-        <v>969000</v>
+        <v>989700</v>
       </c>
       <c r="K20" s="3">
         <v>664800</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>976900</v>
+        <v>997800</v>
       </c>
       <c r="E21" s="3">
-        <v>3464400</v>
+        <v>3538600</v>
       </c>
       <c r="F21" s="3">
-        <v>1164900</v>
+        <v>1189900</v>
       </c>
       <c r="G21" s="3">
-        <v>3101400</v>
+        <v>3167900</v>
       </c>
       <c r="H21" s="3">
-        <v>2110700</v>
+        <v>2156000</v>
       </c>
       <c r="I21" s="3">
-        <v>3728300</v>
+        <v>3808200</v>
       </c>
       <c r="J21" s="3">
-        <v>2375400</v>
+        <v>2426300</v>
       </c>
       <c r="K21" s="3">
         <v>3512600</v>
@@ -1235,25 +1235,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>243700</v>
+        <v>248900</v>
       </c>
       <c r="E22" s="3">
-        <v>284200</v>
+        <v>290300</v>
       </c>
       <c r="F22" s="3">
+        <v>248200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>259200</v>
+      </c>
+      <c r="H22" s="3">
         <v>243000</v>
       </c>
-      <c r="G22" s="3">
-        <v>253800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>237900</v>
-      </c>
       <c r="I22" s="3">
-        <v>257400</v>
+        <v>262900</v>
       </c>
       <c r="J22" s="3">
-        <v>253800</v>
+        <v>259200</v>
       </c>
       <c r="K22" s="3">
         <v>257400</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>809900</v>
+        <v>827200</v>
       </c>
       <c r="E23" s="3">
-        <v>1211900</v>
+        <v>1237900</v>
       </c>
       <c r="F23" s="3">
-        <v>922000</v>
+        <v>941700</v>
       </c>
       <c r="G23" s="3">
-        <v>1299400</v>
+        <v>1327300</v>
       </c>
       <c r="H23" s="3">
-        <v>1849700</v>
+        <v>1889300</v>
       </c>
       <c r="I23" s="3">
-        <v>1866300</v>
+        <v>1906300</v>
       </c>
       <c r="J23" s="3">
-        <v>2161300</v>
+        <v>2207700</v>
       </c>
       <c r="K23" s="3">
         <v>1763600</v>
@@ -1317,25 +1317,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>311700</v>
+        <v>318300</v>
       </c>
       <c r="E24" s="3">
-        <v>380400</v>
+        <v>388500</v>
       </c>
       <c r="F24" s="3">
-        <v>256000</v>
+        <v>261500</v>
       </c>
       <c r="G24" s="3">
-        <v>411400</v>
+        <v>420300</v>
       </c>
       <c r="H24" s="3">
-        <v>501100</v>
+        <v>511800</v>
       </c>
       <c r="I24" s="3">
-        <v>642800</v>
+        <v>656600</v>
       </c>
       <c r="J24" s="3">
-        <v>650800</v>
+        <v>664700</v>
       </c>
       <c r="K24" s="3">
         <v>579200</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>498200</v>
+        <v>508900</v>
       </c>
       <c r="E26" s="3">
-        <v>831600</v>
+        <v>849400</v>
       </c>
       <c r="F26" s="3">
-        <v>666000</v>
+        <v>680300</v>
       </c>
       <c r="G26" s="3">
-        <v>888000</v>
+        <v>907000</v>
       </c>
       <c r="H26" s="3">
-        <v>1348600</v>
+        <v>1377500</v>
       </c>
       <c r="I26" s="3">
-        <v>1223500</v>
+        <v>1249700</v>
       </c>
       <c r="J26" s="3">
-        <v>1510600</v>
+        <v>1542900</v>
       </c>
       <c r="K26" s="3">
         <v>1184300</v>
@@ -1440,25 +1440,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>491700</v>
+        <v>502200</v>
       </c>
       <c r="E27" s="3">
-        <v>823600</v>
+        <v>841300</v>
       </c>
       <c r="F27" s="3">
-        <v>666000</v>
+        <v>680300</v>
       </c>
       <c r="G27" s="3">
-        <v>891600</v>
+        <v>910700</v>
       </c>
       <c r="H27" s="3">
-        <v>1358000</v>
+        <v>1387100</v>
       </c>
       <c r="I27" s="3">
-        <v>1238700</v>
+        <v>1265200</v>
       </c>
       <c r="J27" s="3">
-        <v>1518500</v>
+        <v>1551100</v>
       </c>
       <c r="K27" s="3">
         <v>1188300</v>
@@ -1645,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-817100</v>
+        <v>-834600</v>
       </c>
       <c r="E32" s="3">
-        <v>-916200</v>
+        <v>-935800</v>
       </c>
       <c r="F32" s="3">
-        <v>-984100</v>
+        <v>-1005200</v>
       </c>
       <c r="G32" s="3">
-        <v>-898800</v>
+        <v>-918100</v>
       </c>
       <c r="H32" s="3">
-        <v>-813500</v>
+        <v>-830900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1187300</v>
+        <v>-1212800</v>
       </c>
       <c r="J32" s="3">
-        <v>-969000</v>
+        <v>-989700</v>
       </c>
       <c r="K32" s="3">
         <v>-664800</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>491700</v>
+        <v>502200</v>
       </c>
       <c r="E33" s="3">
-        <v>823600</v>
+        <v>841300</v>
       </c>
       <c r="F33" s="3">
-        <v>666000</v>
+        <v>680300</v>
       </c>
       <c r="G33" s="3">
-        <v>891600</v>
+        <v>910700</v>
       </c>
       <c r="H33" s="3">
-        <v>1358000</v>
+        <v>1387100</v>
       </c>
       <c r="I33" s="3">
-        <v>1238700</v>
+        <v>1265200</v>
       </c>
       <c r="J33" s="3">
-        <v>1518500</v>
+        <v>1551100</v>
       </c>
       <c r="K33" s="3">
         <v>1188300</v>
@@ -1768,25 +1768,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>491700</v>
+        <v>502200</v>
       </c>
       <c r="E35" s="3">
-        <v>823600</v>
+        <v>841300</v>
       </c>
       <c r="F35" s="3">
-        <v>666000</v>
+        <v>680300</v>
       </c>
       <c r="G35" s="3">
-        <v>891600</v>
+        <v>910700</v>
       </c>
       <c r="H35" s="3">
-        <v>1358000</v>
+        <v>1387100</v>
       </c>
       <c r="I35" s="3">
-        <v>1238700</v>
+        <v>1265200</v>
       </c>
       <c r="J35" s="3">
-        <v>1518500</v>
+        <v>1551100</v>
       </c>
       <c r="K35" s="3">
         <v>1188300</v>
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>172100</v>
+        <v>175800</v>
       </c>
       <c r="E41" s="3">
-        <v>172800</v>
+        <v>176500</v>
       </c>
       <c r="F41" s="3">
-        <v>158400</v>
+        <v>161800</v>
       </c>
       <c r="G41" s="3">
-        <v>88200</v>
+        <v>90100</v>
       </c>
       <c r="H41" s="3">
-        <v>93300</v>
+        <v>95300</v>
       </c>
       <c r="I41" s="3">
-        <v>90400</v>
+        <v>92300</v>
       </c>
       <c r="J41" s="3">
-        <v>831600</v>
+        <v>849400</v>
       </c>
       <c r="K41" s="3">
         <v>160600</v>
@@ -1930,25 +1930,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>188700</v>
+        <v>192800</v>
       </c>
       <c r="E42" s="3">
-        <v>372400</v>
+        <v>380400</v>
       </c>
       <c r="F42" s="3">
-        <v>278400</v>
+        <v>284400</v>
       </c>
       <c r="G42" s="3">
-        <v>303000</v>
+        <v>309500</v>
       </c>
       <c r="H42" s="3">
-        <v>361600</v>
+        <v>369300</v>
       </c>
       <c r="I42" s="3">
-        <v>334100</v>
+        <v>341200</v>
       </c>
       <c r="J42" s="3">
-        <v>525000</v>
+        <v>536200</v>
       </c>
       <c r="K42" s="3">
         <v>627700</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3704400</v>
+        <v>3783800</v>
       </c>
       <c r="E43" s="3">
-        <v>3835300</v>
+        <v>3917500</v>
       </c>
       <c r="F43" s="3">
-        <v>3904000</v>
+        <v>3987700</v>
       </c>
       <c r="G43" s="3">
-        <v>3961100</v>
+        <v>4046100</v>
       </c>
       <c r="H43" s="3">
-        <v>4045000</v>
+        <v>4131700</v>
       </c>
       <c r="I43" s="3">
-        <v>3923500</v>
+        <v>4007600</v>
       </c>
       <c r="J43" s="3">
-        <v>4411600</v>
+        <v>4506200</v>
       </c>
       <c r="K43" s="3">
         <v>3457500</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>302300</v>
+        <v>308700</v>
       </c>
       <c r="E44" s="3">
-        <v>538700</v>
+        <v>550300</v>
       </c>
       <c r="F44" s="3">
-        <v>323900</v>
+        <v>330900</v>
       </c>
       <c r="G44" s="3">
-        <v>628400</v>
+        <v>641800</v>
       </c>
       <c r="H44" s="3">
-        <v>355800</v>
+        <v>363400</v>
       </c>
       <c r="I44" s="3">
-        <v>796900</v>
+        <v>813900</v>
       </c>
       <c r="J44" s="3">
-        <v>339100</v>
+        <v>346400</v>
       </c>
       <c r="K44" s="3">
         <v>581200</v>
@@ -2053,25 +2053,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>357200</v>
+        <v>364900</v>
       </c>
       <c r="E45" s="3">
-        <v>485200</v>
+        <v>495600</v>
       </c>
       <c r="F45" s="3">
-        <v>616100</v>
+        <v>629300</v>
       </c>
       <c r="G45" s="3">
-        <v>399900</v>
+        <v>408400</v>
       </c>
       <c r="H45" s="3">
-        <v>415800</v>
+        <v>424700</v>
       </c>
       <c r="I45" s="3">
-        <v>425900</v>
+        <v>435000</v>
       </c>
       <c r="J45" s="3">
-        <v>389800</v>
+        <v>398100</v>
       </c>
       <c r="K45" s="3">
         <v>383500</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4724700</v>
+        <v>4826000</v>
       </c>
       <c r="E46" s="3">
-        <v>5404400</v>
+        <v>5520300</v>
       </c>
       <c r="F46" s="3">
-        <v>5280800</v>
+        <v>5394000</v>
       </c>
       <c r="G46" s="3">
-        <v>5380600</v>
+        <v>5495900</v>
       </c>
       <c r="H46" s="3">
-        <v>5271400</v>
+        <v>5384400</v>
       </c>
       <c r="I46" s="3">
-        <v>5570800</v>
+        <v>5690200</v>
       </c>
       <c r="J46" s="3">
-        <v>5818800</v>
+        <v>5943500</v>
       </c>
       <c r="K46" s="3">
         <v>5210500</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1696400</v>
+        <v>1732800</v>
       </c>
       <c r="E47" s="3">
-        <v>1830900</v>
+        <v>1870100</v>
       </c>
       <c r="F47" s="3">
-        <v>1520700</v>
+        <v>1553300</v>
       </c>
       <c r="G47" s="3">
-        <v>1563300</v>
+        <v>1596900</v>
       </c>
       <c r="H47" s="3">
-        <v>1448400</v>
+        <v>1479400</v>
       </c>
       <c r="I47" s="3">
-        <v>1300100</v>
+        <v>1328000</v>
       </c>
       <c r="J47" s="3">
-        <v>1053600</v>
+        <v>1076100</v>
       </c>
       <c r="K47" s="3">
         <v>1204300</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17736900</v>
+        <v>18117100</v>
       </c>
       <c r="E48" s="3">
-        <v>18006600</v>
+        <v>18392600</v>
       </c>
       <c r="F48" s="3">
-        <v>16148300</v>
+        <v>16494400</v>
       </c>
       <c r="G48" s="3">
-        <v>16326900</v>
+        <v>16676800</v>
       </c>
       <c r="H48" s="3">
-        <v>15986300</v>
+        <v>16329000</v>
       </c>
       <c r="I48" s="3">
-        <v>15668100</v>
+        <v>16004000</v>
       </c>
       <c r="J48" s="3">
-        <v>15438200</v>
+        <v>15769100</v>
       </c>
       <c r="K48" s="3">
         <v>13792800</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5359600</v>
+        <v>5474500</v>
       </c>
       <c r="E49" s="3">
-        <v>5204200</v>
+        <v>5315700</v>
       </c>
       <c r="F49" s="3">
-        <v>5213600</v>
+        <v>5325300</v>
       </c>
       <c r="G49" s="3">
-        <v>5656800</v>
+        <v>5778100</v>
       </c>
       <c r="H49" s="3">
-        <v>5728400</v>
+        <v>5851200</v>
       </c>
       <c r="I49" s="3">
-        <v>6633700</v>
+        <v>6775900</v>
       </c>
       <c r="J49" s="3">
-        <v>6014000</v>
+        <v>6142900</v>
       </c>
       <c r="K49" s="3">
         <v>6066400</v>
@@ -2340,25 +2340,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2590100</v>
+        <v>2645700</v>
       </c>
       <c r="E52" s="3">
-        <v>2495400</v>
+        <v>2548900</v>
       </c>
       <c r="F52" s="3">
-        <v>2632800</v>
+        <v>2689200</v>
       </c>
       <c r="G52" s="3">
-        <v>2688500</v>
+        <v>2746100</v>
       </c>
       <c r="H52" s="3">
-        <v>2458500</v>
+        <v>2511200</v>
       </c>
       <c r="I52" s="3">
-        <v>1329100</v>
+        <v>1357500</v>
       </c>
       <c r="J52" s="3">
-        <v>2050000</v>
+        <v>2093900</v>
       </c>
       <c r="K52" s="3">
         <v>1429800</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32107800</v>
+        <v>32796100</v>
       </c>
       <c r="E54" s="3">
-        <v>32941500</v>
+        <v>33647700</v>
       </c>
       <c r="F54" s="3">
-        <v>30796100</v>
+        <v>31456200</v>
       </c>
       <c r="G54" s="3">
-        <v>31616100</v>
+        <v>32293800</v>
       </c>
       <c r="H54" s="3">
-        <v>30893000</v>
+        <v>31555200</v>
       </c>
       <c r="I54" s="3">
-        <v>30501800</v>
+        <v>31155600</v>
       </c>
       <c r="J54" s="3">
-        <v>30374500</v>
+        <v>31025600</v>
       </c>
       <c r="K54" s="3">
         <v>27703800</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>714400</v>
+        <v>729700</v>
       </c>
       <c r="E57" s="3">
-        <v>726700</v>
+        <v>742300</v>
       </c>
       <c r="F57" s="3">
-        <v>3274200</v>
+        <v>3344400</v>
       </c>
       <c r="G57" s="3">
-        <v>3203300</v>
+        <v>3272000</v>
       </c>
       <c r="H57" s="3">
-        <v>3274200</v>
+        <v>3344400</v>
       </c>
       <c r="I57" s="3">
-        <v>3042800</v>
+        <v>3108000</v>
       </c>
       <c r="J57" s="3">
-        <v>2851900</v>
+        <v>2913000</v>
       </c>
       <c r="K57" s="3">
         <v>2557800</v>
@@ -2538,25 +2538,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2439700</v>
+        <v>2492000</v>
       </c>
       <c r="E58" s="3">
-        <v>2658100</v>
+        <v>2715100</v>
       </c>
       <c r="F58" s="3">
-        <v>1606700</v>
+        <v>1641200</v>
       </c>
       <c r="G58" s="3">
-        <v>835200</v>
+        <v>853100</v>
       </c>
       <c r="H58" s="3">
-        <v>1182300</v>
+        <v>1207600</v>
       </c>
       <c r="I58" s="3">
-        <v>2024700</v>
+        <v>2068100</v>
       </c>
       <c r="J58" s="3">
-        <v>1790400</v>
+        <v>1828800</v>
       </c>
       <c r="K58" s="3">
         <v>2478800</v>
@@ -2579,25 +2579,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4144800</v>
+        <v>4233700</v>
       </c>
       <c r="E59" s="3">
-        <v>3889600</v>
+        <v>3972900</v>
       </c>
       <c r="F59" s="3">
-        <v>2026800</v>
+        <v>2070300</v>
       </c>
       <c r="G59" s="3">
-        <v>1788900</v>
+        <v>1827300</v>
       </c>
       <c r="H59" s="3">
-        <v>2783200</v>
+        <v>2842900</v>
       </c>
       <c r="I59" s="3">
-        <v>1707200</v>
+        <v>1743800</v>
       </c>
       <c r="J59" s="3">
-        <v>2817900</v>
+        <v>2878300</v>
       </c>
       <c r="K59" s="3">
         <v>1613600</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7299000</v>
+        <v>7455400</v>
       </c>
       <c r="E60" s="3">
-        <v>7274400</v>
+        <v>7430300</v>
       </c>
       <c r="F60" s="3">
-        <v>6907800</v>
+        <v>7055800</v>
       </c>
       <c r="G60" s="3">
-        <v>5827500</v>
+        <v>5952400</v>
       </c>
       <c r="H60" s="3">
-        <v>6352400</v>
+        <v>6488600</v>
       </c>
       <c r="I60" s="3">
-        <v>6774700</v>
+        <v>6919900</v>
       </c>
       <c r="J60" s="3">
-        <v>6566500</v>
+        <v>6707200</v>
       </c>
       <c r="K60" s="3">
         <v>6650300</v>
@@ -2661,25 +2661,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11391000</v>
+        <v>11635200</v>
       </c>
       <c r="E61" s="3">
-        <v>12032400</v>
+        <v>12290300</v>
       </c>
       <c r="F61" s="3">
-        <v>10868900</v>
+        <v>11101900</v>
       </c>
       <c r="G61" s="3">
-        <v>12385300</v>
+        <v>12650700</v>
       </c>
       <c r="H61" s="3">
-        <v>11075000</v>
+        <v>11312400</v>
       </c>
       <c r="I61" s="3">
-        <v>10715600</v>
+        <v>10945300</v>
       </c>
       <c r="J61" s="3">
-        <v>10707700</v>
+        <v>10937200</v>
       </c>
       <c r="K61" s="3">
         <v>8940000</v>
@@ -2702,25 +2702,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2465000</v>
+        <v>2517900</v>
       </c>
       <c r="E62" s="3">
-        <v>2504100</v>
+        <v>2557800</v>
       </c>
       <c r="F62" s="3">
-        <v>2512800</v>
+        <v>2566600</v>
       </c>
       <c r="G62" s="3">
-        <v>2914800</v>
+        <v>2977300</v>
       </c>
       <c r="H62" s="3">
-        <v>3843300</v>
+        <v>3925700</v>
       </c>
       <c r="I62" s="3">
-        <v>2637100</v>
+        <v>2693700</v>
       </c>
       <c r="J62" s="3">
-        <v>3707300</v>
+        <v>3786800</v>
       </c>
       <c r="K62" s="3">
         <v>2447000</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21642400</v>
+        <v>22106300</v>
       </c>
       <c r="E66" s="3">
-        <v>22304700</v>
+        <v>22782900</v>
       </c>
       <c r="F66" s="3">
-        <v>20275700</v>
+        <v>20710300</v>
       </c>
       <c r="G66" s="3">
-        <v>21113800</v>
+        <v>21566400</v>
       </c>
       <c r="H66" s="3">
-        <v>20312600</v>
+        <v>20748000</v>
       </c>
       <c r="I66" s="3">
-        <v>20128200</v>
+        <v>20559700</v>
       </c>
       <c r="J66" s="3">
-        <v>20155700</v>
+        <v>20587700</v>
       </c>
       <c r="K66" s="3">
         <v>18055800</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7246900</v>
+        <v>7402200</v>
       </c>
       <c r="E72" s="3">
-        <v>7427000</v>
+        <v>7586200</v>
       </c>
       <c r="F72" s="3">
-        <v>7304800</v>
+        <v>7461300</v>
       </c>
       <c r="G72" s="3">
-        <v>7294600</v>
+        <v>7451000</v>
       </c>
       <c r="H72" s="3">
-        <v>7378500</v>
+        <v>7536700</v>
       </c>
       <c r="I72" s="3">
-        <v>7176000</v>
+        <v>7329900</v>
       </c>
       <c r="J72" s="3">
-        <v>7019100</v>
+        <v>7169600</v>
       </c>
       <c r="K72" s="3">
         <v>6583200</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10465400</v>
+        <v>10689800</v>
       </c>
       <c r="E76" s="3">
-        <v>10636800</v>
+        <v>10864800</v>
       </c>
       <c r="F76" s="3">
-        <v>10520400</v>
+        <v>10745900</v>
       </c>
       <c r="G76" s="3">
-        <v>10502300</v>
+        <v>10727400</v>
       </c>
       <c r="H76" s="3">
-        <v>10580400</v>
+        <v>10807200</v>
       </c>
       <c r="I76" s="3">
-        <v>10373600</v>
+        <v>10596000</v>
       </c>
       <c r="J76" s="3">
-        <v>10218800</v>
+        <v>10437900</v>
       </c>
       <c r="K76" s="3">
         <v>9648000</v>
@@ -3380,25 +3380,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>491700</v>
+        <v>502200</v>
       </c>
       <c r="E81" s="3">
-        <v>823600</v>
+        <v>841300</v>
       </c>
       <c r="F81" s="3">
-        <v>666000</v>
+        <v>680300</v>
       </c>
       <c r="G81" s="3">
-        <v>891600</v>
+        <v>910700</v>
       </c>
       <c r="H81" s="3">
-        <v>1358000</v>
+        <v>1387100</v>
       </c>
       <c r="I81" s="3">
-        <v>1238700</v>
+        <v>1265200</v>
       </c>
       <c r="J81" s="3">
-        <v>1518500</v>
+        <v>1551100</v>
       </c>
       <c r="K81" s="3">
         <v>1188300</v>
@@ -3684,25 +3684,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3092700</v>
+        <v>3159000</v>
       </c>
       <c r="E89" s="3">
-        <v>1976200</v>
+        <v>2018600</v>
       </c>
       <c r="F89" s="3">
-        <v>2795500</v>
+        <v>2855400</v>
       </c>
       <c r="G89" s="3">
-        <v>2037000</v>
+        <v>2080600</v>
       </c>
       <c r="H89" s="3">
-        <v>3494700</v>
+        <v>3569700</v>
       </c>
       <c r="I89" s="3">
-        <v>2728300</v>
+        <v>2786700</v>
       </c>
       <c r="J89" s="3">
-        <v>3335700</v>
+        <v>3407200</v>
       </c>
       <c r="K89" s="3">
         <v>2098000</v>
@@ -3742,25 +3742,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-841000</v>
+        <v>-859000</v>
       </c>
       <c r="E91" s="3">
-        <v>-851800</v>
+        <v>-870100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1012300</v>
+        <v>-1034000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1326900</v>
+        <v>-1355300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1188100</v>
+        <v>-1213500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1394100</v>
+        <v>-1424000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1484500</v>
+        <v>-1516300</v>
       </c>
       <c r="K91" s="3">
         <v>-1109400</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1274800</v>
+        <v>-1302200</v>
       </c>
       <c r="E94" s="3">
-        <v>-877100</v>
+        <v>-895900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1030400</v>
+        <v>-1052500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1583600</v>
+        <v>-1617500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1340600</v>
+        <v>-1369400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1487400</v>
+        <v>-1519300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1804100</v>
+        <v>-1842800</v>
       </c>
       <c r="K94" s="3">
         <v>-1183700</v>
@@ -3923,25 +3923,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-688400</v>
+        <v>-703100</v>
       </c>
       <c r="E96" s="3">
-        <v>-687700</v>
+        <v>-702400</v>
       </c>
       <c r="F96" s="3">
-        <v>-687700</v>
+        <v>-702400</v>
       </c>
       <c r="G96" s="3">
-        <v>-945800</v>
+        <v>-966100</v>
       </c>
       <c r="H96" s="3">
-        <v>-945800</v>
+        <v>-966100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1332000</v>
+        <v>-1360500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1332000</v>
+        <v>-1360500</v>
       </c>
       <c r="K96" s="3">
         <v>-1256700</v>
@@ -4087,25 +4087,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1987800</v>
+        <v>-2030400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1004400</v>
+        <v>-1025900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1720300</v>
+        <v>-1757100</v>
       </c>
       <c r="G100" s="3">
-        <v>-512700</v>
+        <v>-523700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2131000</v>
+        <v>-2176700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1495400</v>
+        <v>-1527400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1708700</v>
+        <v>-1745300</v>
       </c>
       <c r="K100" s="3">
         <v>-2482200</v>
@@ -4131,7 +4131,7 @@
         <v>-2200</v>
       </c>
       <c r="E101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
@@ -4140,13 +4140,13 @@
         <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="K101" s="3">
         <v>700</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-172100</v>
+        <v>-175800</v>
       </c>
       <c r="E102" s="3">
-        <v>96200</v>
+        <v>98200</v>
       </c>
       <c r="F102" s="3">
-        <v>45600</v>
+        <v>46500</v>
       </c>
       <c r="G102" s="3">
-        <v>-57100</v>
+        <v>-58300</v>
       </c>
       <c r="H102" s="3">
-        <v>26000</v>
+        <v>26600</v>
       </c>
       <c r="I102" s="3">
-        <v>-254500</v>
+        <v>-260000</v>
       </c>
       <c r="J102" s="3">
-        <v>-182200</v>
+        <v>-186100</v>
       </c>
       <c r="K102" s="3">
         <v>-1567200</v>

--- a/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TLSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8527900</v>
+        <v>8324800</v>
       </c>
       <c r="E8" s="3">
-        <v>8984300</v>
+        <v>8750700</v>
       </c>
       <c r="F8" s="3">
-        <v>9360300</v>
+        <v>9219100</v>
       </c>
       <c r="G8" s="3">
-        <v>9296000</v>
+        <v>9604900</v>
       </c>
       <c r="H8" s="3">
-        <v>9630600</v>
+        <v>9538900</v>
       </c>
       <c r="I8" s="3">
-        <v>9460700</v>
+        <v>9882300</v>
       </c>
       <c r="J8" s="3">
+        <v>9707900</v>
+      </c>
+      <c r="K8" s="3">
         <v>9754700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8496800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8230800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9402000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9293500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9229600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3312600</v>
+        <v>3189200</v>
       </c>
       <c r="E9" s="3">
-        <v>3413800</v>
+        <v>3399200</v>
       </c>
       <c r="F9" s="3">
-        <v>3512800</v>
+        <v>3503000</v>
       </c>
       <c r="G9" s="3">
-        <v>3236500</v>
+        <v>3604600</v>
       </c>
       <c r="H9" s="3">
-        <v>3212200</v>
+        <v>3321100</v>
       </c>
       <c r="I9" s="3">
-        <v>2946300</v>
+        <v>3296100</v>
       </c>
       <c r="J9" s="3">
+        <v>3023300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2938200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2450300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2239100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2757100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2599800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2366900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5215300</v>
+        <v>5135500</v>
       </c>
       <c r="E10" s="3">
-        <v>5570500</v>
+        <v>5351500</v>
       </c>
       <c r="F10" s="3">
-        <v>5847500</v>
+        <v>5716100</v>
       </c>
       <c r="G10" s="3">
-        <v>6059500</v>
+        <v>6000300</v>
       </c>
       <c r="H10" s="3">
-        <v>6418400</v>
+        <v>6217800</v>
       </c>
       <c r="I10" s="3">
-        <v>6514500</v>
+        <v>6586200</v>
       </c>
       <c r="J10" s="3">
+        <v>6684700</v>
+      </c>
+      <c r="K10" s="3">
         <v>6816500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6046500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5991700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6644800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6693700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6862700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,37 +969,40 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>399600</v>
+        <v>110700</v>
       </c>
       <c r="E14" s="3">
-        <v>140300</v>
+        <v>410000</v>
       </c>
       <c r="F14" s="3">
-        <v>959400</v>
+        <v>144000</v>
       </c>
       <c r="G14" s="3">
-        <v>99000</v>
+        <v>984500</v>
       </c>
       <c r="H14" s="3">
-        <v>27300</v>
+        <v>101600</v>
       </c>
       <c r="I14" s="3">
-        <v>327900</v>
+        <v>28000</v>
       </c>
       <c r="J14" s="3">
+        <v>336500</v>
+      </c>
+      <c r="K14" s="3">
         <v>203900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>110100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -993,49 +1013,55 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1932200</v>
+        <v>1840900</v>
       </c>
       <c r="E15" s="3">
-        <v>2010500</v>
+        <v>1982700</v>
       </c>
       <c r="F15" s="3">
-        <v>1581300</v>
+        <v>2063000</v>
       </c>
       <c r="G15" s="3">
-        <v>1581300</v>
+        <v>1622700</v>
       </c>
       <c r="H15" s="3">
-        <v>1662600</v>
+        <v>1622700</v>
       </c>
       <c r="I15" s="3">
-        <v>1639000</v>
+        <v>1706000</v>
       </c>
       <c r="J15" s="3">
+        <v>1681800</v>
+      </c>
+      <c r="K15" s="3">
         <v>1619700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1491500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1424700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1436900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1440300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1443200</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8286400</v>
+        <v>7782900</v>
       </c>
       <c r="E17" s="3">
-        <v>8392000</v>
+        <v>8502900</v>
       </c>
       <c r="F17" s="3">
-        <v>9175600</v>
+        <v>8611300</v>
       </c>
       <c r="G17" s="3">
-        <v>8627600</v>
+        <v>9415400</v>
       </c>
       <c r="H17" s="3">
-        <v>8329200</v>
+        <v>8853000</v>
       </c>
       <c r="I17" s="3">
-        <v>8504200</v>
+        <v>8546800</v>
       </c>
       <c r="J17" s="3">
+        <v>8726500</v>
+      </c>
+      <c r="K17" s="3">
         <v>8277500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7140600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6674800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7471200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7372800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6814800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>241500</v>
+        <v>541900</v>
       </c>
       <c r="E18" s="3">
-        <v>592400</v>
+        <v>247800</v>
       </c>
       <c r="F18" s="3">
-        <v>184700</v>
+        <v>607800</v>
       </c>
       <c r="G18" s="3">
-        <v>668400</v>
+        <v>189500</v>
       </c>
       <c r="H18" s="3">
-        <v>1301400</v>
+        <v>685900</v>
       </c>
       <c r="I18" s="3">
-        <v>956500</v>
+        <v>1335400</v>
       </c>
       <c r="J18" s="3">
+        <v>981500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1477200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1356200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1556000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1930800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1920700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2414800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,213 +1180,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>834600</v>
+        <v>686700</v>
       </c>
       <c r="E20" s="3">
-        <v>935800</v>
+        <v>856400</v>
       </c>
       <c r="F20" s="3">
-        <v>1005200</v>
+        <v>960300</v>
       </c>
       <c r="G20" s="3">
-        <v>918100</v>
+        <v>1031500</v>
       </c>
       <c r="H20" s="3">
-        <v>830900</v>
+        <v>942100</v>
       </c>
       <c r="I20" s="3">
-        <v>1212800</v>
+        <v>852600</v>
       </c>
       <c r="J20" s="3">
+        <v>1244500</v>
+      </c>
+      <c r="K20" s="3">
         <v>989700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>664800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>452300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>405400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>468700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>997800</v>
+        <v>3069500</v>
       </c>
       <c r="E21" s="3">
-        <v>3538600</v>
+        <v>1023900</v>
       </c>
       <c r="F21" s="3">
-        <v>1189900</v>
+        <v>3631100</v>
       </c>
       <c r="G21" s="3">
-        <v>3167900</v>
+        <v>1221000</v>
       </c>
       <c r="H21" s="3">
-        <v>2156000</v>
+        <v>3250600</v>
       </c>
       <c r="I21" s="3">
-        <v>3808200</v>
+        <v>2212300</v>
       </c>
       <c r="J21" s="3">
+        <v>3907700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2426300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3512600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2061400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3778100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2386500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3901600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>248900</v>
+        <v>217500</v>
       </c>
       <c r="E22" s="3">
-        <v>290300</v>
+        <v>255400</v>
       </c>
       <c r="F22" s="3">
-        <v>248200</v>
+        <v>297900</v>
       </c>
       <c r="G22" s="3">
+        <v>254700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>266000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>249300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>269800</v>
+      </c>
+      <c r="K22" s="3">
         <v>259200</v>
       </c>
-      <c r="H22" s="3">
-        <v>243000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>262900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>259200</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>257400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>280000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>288000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>296000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>299700</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>827200</v>
+        <v>1011000</v>
       </c>
       <c r="E23" s="3">
-        <v>1237900</v>
+        <v>848800</v>
       </c>
       <c r="F23" s="3">
-        <v>941700</v>
+        <v>1270200</v>
       </c>
       <c r="G23" s="3">
-        <v>1327300</v>
+        <v>966300</v>
       </c>
       <c r="H23" s="3">
-        <v>1889300</v>
+        <v>1361900</v>
       </c>
       <c r="I23" s="3">
-        <v>1906300</v>
+        <v>1938700</v>
       </c>
       <c r="J23" s="3">
+        <v>1956100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2207700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1763600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1728300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2048200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2093400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2158700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>318300</v>
+        <v>158400</v>
       </c>
       <c r="E24" s="3">
-        <v>388500</v>
+        <v>326700</v>
       </c>
       <c r="F24" s="3">
-        <v>261500</v>
+        <v>398700</v>
       </c>
       <c r="G24" s="3">
-        <v>420300</v>
+        <v>268300</v>
       </c>
       <c r="H24" s="3">
-        <v>511800</v>
+        <v>431200</v>
       </c>
       <c r="I24" s="3">
-        <v>656600</v>
+        <v>525200</v>
       </c>
       <c r="J24" s="3">
+        <v>673800</v>
+      </c>
+      <c r="K24" s="3">
         <v>664700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>579200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>580800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>616900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>631300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>635600</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>508900</v>
+        <v>852600</v>
       </c>
       <c r="E26" s="3">
-        <v>849400</v>
+        <v>522200</v>
       </c>
       <c r="F26" s="3">
-        <v>680300</v>
+        <v>871600</v>
       </c>
       <c r="G26" s="3">
-        <v>907000</v>
+        <v>698000</v>
       </c>
       <c r="H26" s="3">
-        <v>1377500</v>
+        <v>930700</v>
       </c>
       <c r="I26" s="3">
-        <v>1249700</v>
+        <v>1413500</v>
       </c>
       <c r="J26" s="3">
+        <v>1282400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1542900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1184300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1147500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1431300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1462100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1523000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>502200</v>
+        <v>832200</v>
       </c>
       <c r="E27" s="3">
-        <v>841300</v>
+        <v>515400</v>
       </c>
       <c r="F27" s="3">
-        <v>680300</v>
+        <v>863200</v>
       </c>
       <c r="G27" s="3">
-        <v>910700</v>
+        <v>698000</v>
       </c>
       <c r="H27" s="3">
-        <v>1387100</v>
+        <v>934500</v>
       </c>
       <c r="I27" s="3">
-        <v>1265200</v>
+        <v>1423300</v>
       </c>
       <c r="J27" s="3">
+        <v>1298300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1551100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1188300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1129300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1401600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1432300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1499100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1539,26 +1600,29 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1352100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>79200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>124800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-834600</v>
+        <v>-686700</v>
       </c>
       <c r="E32" s="3">
-        <v>-935800</v>
+        <v>-856400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1005200</v>
+        <v>-960300</v>
       </c>
       <c r="G32" s="3">
-        <v>-918100</v>
+        <v>-1031500</v>
       </c>
       <c r="H32" s="3">
-        <v>-830900</v>
+        <v>-942100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1212800</v>
+        <v>-852600</v>
       </c>
       <c r="J32" s="3">
+        <v>-1244500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-989700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-664800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-452300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-405400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-468700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-43500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>502200</v>
+        <v>832200</v>
       </c>
       <c r="E33" s="3">
-        <v>841300</v>
+        <v>515400</v>
       </c>
       <c r="F33" s="3">
-        <v>680300</v>
+        <v>863200</v>
       </c>
       <c r="G33" s="3">
-        <v>910700</v>
+        <v>698000</v>
       </c>
       <c r="H33" s="3">
-        <v>1387100</v>
+        <v>934500</v>
       </c>
       <c r="I33" s="3">
-        <v>1265200</v>
+        <v>1423300</v>
       </c>
       <c r="J33" s="3">
+        <v>1298300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1551100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1188300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2481400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1480800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1557100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>502200</v>
+        <v>832200</v>
       </c>
       <c r="E35" s="3">
-        <v>841300</v>
+        <v>515400</v>
       </c>
       <c r="F35" s="3">
-        <v>680300</v>
+        <v>863200</v>
       </c>
       <c r="G35" s="3">
-        <v>910700</v>
+        <v>698000</v>
       </c>
       <c r="H35" s="3">
-        <v>1387100</v>
+        <v>934500</v>
       </c>
       <c r="I35" s="3">
-        <v>1265200</v>
+        <v>1423300</v>
       </c>
       <c r="J35" s="3">
+        <v>1298300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1551100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1188300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2481400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1480800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1557100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,377 +1969,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175800</v>
+        <v>197800</v>
       </c>
       <c r="E41" s="3">
-        <v>176500</v>
+        <v>180400</v>
       </c>
       <c r="F41" s="3">
-        <v>161800</v>
+        <v>181100</v>
       </c>
       <c r="G41" s="3">
-        <v>90100</v>
+        <v>166000</v>
       </c>
       <c r="H41" s="3">
-        <v>95300</v>
+        <v>92500</v>
       </c>
       <c r="I41" s="3">
-        <v>92300</v>
+        <v>97800</v>
       </c>
       <c r="J41" s="3">
+        <v>94700</v>
+      </c>
+      <c r="K41" s="3">
         <v>849400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>160600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>181000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>450700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>421600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>243100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>192800</v>
+        <v>783700</v>
       </c>
       <c r="E42" s="3">
-        <v>380400</v>
+        <v>197800</v>
       </c>
       <c r="F42" s="3">
-        <v>284400</v>
+        <v>390300</v>
       </c>
       <c r="G42" s="3">
-        <v>309500</v>
+        <v>291800</v>
       </c>
       <c r="H42" s="3">
-        <v>369300</v>
+        <v>317600</v>
       </c>
       <c r="I42" s="3">
-        <v>341200</v>
+        <v>379000</v>
       </c>
       <c r="J42" s="3">
+        <v>350100</v>
+      </c>
+      <c r="K42" s="3">
         <v>536200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>627700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2208100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1085300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>591400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3783800</v>
+        <v>3481800</v>
       </c>
       <c r="E43" s="3">
-        <v>3917500</v>
+        <v>3882700</v>
       </c>
       <c r="F43" s="3">
-        <v>3987700</v>
+        <v>4019900</v>
       </c>
       <c r="G43" s="3">
-        <v>4046100</v>
+        <v>4091900</v>
       </c>
       <c r="H43" s="3">
-        <v>4131700</v>
+        <v>4151800</v>
       </c>
       <c r="I43" s="3">
-        <v>4007600</v>
+        <v>4239700</v>
       </c>
       <c r="J43" s="3">
+        <v>4112400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4506200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3457500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3193400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3572200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3432100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3365300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>308700</v>
+        <v>349400</v>
       </c>
       <c r="E44" s="3">
-        <v>550300</v>
+        <v>316800</v>
       </c>
       <c r="F44" s="3">
-        <v>330900</v>
+        <v>564600</v>
       </c>
       <c r="G44" s="3">
-        <v>641800</v>
+        <v>339500</v>
       </c>
       <c r="H44" s="3">
-        <v>363400</v>
+        <v>658600</v>
       </c>
       <c r="I44" s="3">
-        <v>813900</v>
+        <v>372900</v>
       </c>
       <c r="J44" s="3">
+        <v>835200</v>
+      </c>
+      <c r="K44" s="3">
         <v>346400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>581200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>374900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>501600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>356300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>364900</v>
+        <v>784400</v>
       </c>
       <c r="E45" s="3">
-        <v>495600</v>
+        <v>374400</v>
       </c>
       <c r="F45" s="3">
-        <v>629300</v>
+        <v>508600</v>
       </c>
       <c r="G45" s="3">
-        <v>408400</v>
+        <v>645700</v>
       </c>
       <c r="H45" s="3">
-        <v>424700</v>
+        <v>419100</v>
       </c>
       <c r="I45" s="3">
-        <v>435000</v>
+        <v>435800</v>
       </c>
       <c r="J45" s="3">
+        <v>446400</v>
+      </c>
+      <c r="K45" s="3">
         <v>398100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>383500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>328400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>314800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>256100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4826000</v>
+        <v>5597100</v>
       </c>
       <c r="E46" s="3">
-        <v>5520300</v>
+        <v>4952100</v>
       </c>
       <c r="F46" s="3">
-        <v>5394000</v>
+        <v>5664500</v>
       </c>
       <c r="G46" s="3">
-        <v>5495900</v>
+        <v>5534900</v>
       </c>
       <c r="H46" s="3">
-        <v>5384400</v>
+        <v>5639500</v>
       </c>
       <c r="I46" s="3">
-        <v>5690200</v>
+        <v>5525100</v>
       </c>
       <c r="J46" s="3">
+        <v>5838900</v>
+      </c>
+      <c r="K46" s="3">
         <v>5943500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5210500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6285800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5924600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5057400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5277300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1732800</v>
+        <v>1759100</v>
       </c>
       <c r="E47" s="3">
-        <v>1870100</v>
+        <v>1778000</v>
       </c>
       <c r="F47" s="3">
-        <v>1553300</v>
+        <v>1919000</v>
       </c>
       <c r="G47" s="3">
-        <v>1596900</v>
+        <v>1593900</v>
       </c>
       <c r="H47" s="3">
-        <v>1479400</v>
+        <v>1638600</v>
       </c>
       <c r="I47" s="3">
-        <v>1328000</v>
+        <v>1518100</v>
       </c>
       <c r="J47" s="3">
+        <v>1362700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1076100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1204300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1250400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1098000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1094900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18117100</v>
+        <v>18154700</v>
       </c>
       <c r="E48" s="3">
-        <v>18392600</v>
+        <v>18590500</v>
       </c>
       <c r="F48" s="3">
-        <v>16494400</v>
+        <v>18873200</v>
       </c>
       <c r="G48" s="3">
-        <v>16676800</v>
+        <v>16925400</v>
       </c>
       <c r="H48" s="3">
-        <v>16329000</v>
+        <v>17112600</v>
       </c>
       <c r="I48" s="3">
-        <v>16004000</v>
+        <v>16755700</v>
       </c>
       <c r="J48" s="3">
+        <v>16422200</v>
+      </c>
+      <c r="K48" s="3">
         <v>15769100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13792800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13851000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14603500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14838500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14308100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5474500</v>
+        <v>5390900</v>
       </c>
       <c r="E49" s="3">
-        <v>5315700</v>
+        <v>5617600</v>
       </c>
       <c r="F49" s="3">
-        <v>5325300</v>
+        <v>5454600</v>
       </c>
       <c r="G49" s="3">
-        <v>5778100</v>
+        <v>5464500</v>
       </c>
       <c r="H49" s="3">
-        <v>5851200</v>
+        <v>5929100</v>
       </c>
       <c r="I49" s="3">
-        <v>6775900</v>
+        <v>6004100</v>
       </c>
       <c r="J49" s="3">
+        <v>6953000</v>
+      </c>
+      <c r="K49" s="3">
         <v>6142900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6066400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6211100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6729000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6771300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6045700</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2645700</v>
+        <v>1963000</v>
       </c>
       <c r="E52" s="3">
-        <v>2548900</v>
+        <v>2714800</v>
       </c>
       <c r="F52" s="3">
-        <v>2689200</v>
+        <v>2615500</v>
       </c>
       <c r="G52" s="3">
-        <v>2746100</v>
+        <v>2759500</v>
       </c>
       <c r="H52" s="3">
-        <v>2511200</v>
+        <v>2817900</v>
       </c>
       <c r="I52" s="3">
-        <v>1357500</v>
+        <v>2576900</v>
       </c>
       <c r="J52" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2093900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1429800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1533100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1693000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1584700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1421500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32796100</v>
+        <v>32864800</v>
       </c>
       <c r="E54" s="3">
-        <v>33647700</v>
+        <v>33653000</v>
       </c>
       <c r="F54" s="3">
-        <v>31456200</v>
+        <v>34526900</v>
       </c>
       <c r="G54" s="3">
-        <v>32293800</v>
+        <v>32278200</v>
       </c>
       <c r="H54" s="3">
-        <v>31555200</v>
+        <v>33137700</v>
       </c>
       <c r="I54" s="3">
-        <v>31155600</v>
+        <v>32379800</v>
       </c>
       <c r="J54" s="3">
+        <v>31969700</v>
+      </c>
+      <c r="K54" s="3">
         <v>31025600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27703800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29131500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30048200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29346900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28035000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>729700</v>
+        <v>815500</v>
       </c>
       <c r="E57" s="3">
-        <v>742300</v>
+        <v>748800</v>
       </c>
       <c r="F57" s="3">
-        <v>3344400</v>
+        <v>761700</v>
       </c>
       <c r="G57" s="3">
-        <v>3272000</v>
+        <v>3431800</v>
       </c>
       <c r="H57" s="3">
-        <v>3344400</v>
+        <v>3357500</v>
       </c>
       <c r="I57" s="3">
-        <v>3108000</v>
+        <v>3431800</v>
       </c>
       <c r="J57" s="3">
+        <v>3189200</v>
+      </c>
+      <c r="K57" s="3">
         <v>2913000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2557800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2657000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2866800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2960400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2699200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2492000</v>
+        <v>2533700</v>
       </c>
       <c r="E58" s="3">
-        <v>2715100</v>
+        <v>2557200</v>
       </c>
       <c r="F58" s="3">
-        <v>1641200</v>
+        <v>2786000</v>
       </c>
       <c r="G58" s="3">
-        <v>853100</v>
+        <v>1684100</v>
       </c>
       <c r="H58" s="3">
-        <v>1207600</v>
+        <v>875400</v>
       </c>
       <c r="I58" s="3">
-        <v>2068100</v>
+        <v>1239200</v>
       </c>
       <c r="J58" s="3">
+        <v>2122100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1828800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2478800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1786800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1335800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1085500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1779200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4233700</v>
+        <v>3943400</v>
       </c>
       <c r="E59" s="3">
-        <v>3972900</v>
+        <v>4344300</v>
       </c>
       <c r="F59" s="3">
-        <v>2070300</v>
+        <v>4076700</v>
       </c>
       <c r="G59" s="3">
-        <v>1827300</v>
+        <v>2124400</v>
       </c>
       <c r="H59" s="3">
-        <v>2842900</v>
+        <v>1875000</v>
       </c>
       <c r="I59" s="3">
-        <v>1743800</v>
+        <v>2917200</v>
       </c>
       <c r="J59" s="3">
+        <v>1789400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2878300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1613600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1739700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1790000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1852500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1736400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7455400</v>
+        <v>7292500</v>
       </c>
       <c r="E60" s="3">
-        <v>7430300</v>
+        <v>7650200</v>
       </c>
       <c r="F60" s="3">
-        <v>7055800</v>
+        <v>7624500</v>
       </c>
       <c r="G60" s="3">
-        <v>5952400</v>
+        <v>7240200</v>
       </c>
       <c r="H60" s="3">
-        <v>6488600</v>
+        <v>6107900</v>
       </c>
       <c r="I60" s="3">
-        <v>6919900</v>
+        <v>6658200</v>
       </c>
       <c r="J60" s="3">
+        <v>7100800</v>
+      </c>
+      <c r="K60" s="3">
         <v>6707200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6650300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6183500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5992500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5898400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6214800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11635200</v>
+        <v>11459400</v>
       </c>
       <c r="E61" s="3">
-        <v>12290300</v>
+        <v>11939200</v>
       </c>
       <c r="F61" s="3">
-        <v>11101900</v>
+        <v>12611500</v>
       </c>
       <c r="G61" s="3">
-        <v>12650700</v>
+        <v>11392000</v>
       </c>
       <c r="H61" s="3">
-        <v>11312400</v>
+        <v>12981300</v>
       </c>
       <c r="I61" s="3">
-        <v>10945300</v>
+        <v>11608000</v>
       </c>
       <c r="J61" s="3">
+        <v>11231300</v>
+      </c>
+      <c r="K61" s="3">
         <v>10937200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8940000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9857400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10966300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10258500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9559800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2517900</v>
+        <v>2604100</v>
       </c>
       <c r="E62" s="3">
-        <v>2557800</v>
+        <v>2583700</v>
       </c>
       <c r="F62" s="3">
-        <v>2566600</v>
+        <v>2624600</v>
       </c>
       <c r="G62" s="3">
-        <v>2977300</v>
+        <v>2633700</v>
       </c>
       <c r="H62" s="3">
-        <v>3925700</v>
+        <v>3055100</v>
       </c>
       <c r="I62" s="3">
-        <v>2693700</v>
+        <v>4028200</v>
       </c>
       <c r="J62" s="3">
+        <v>2764100</v>
+      </c>
+      <c r="K62" s="3">
         <v>3786800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2447000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2385100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2604300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2661500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2353800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22106300</v>
+        <v>21874500</v>
       </c>
       <c r="E66" s="3">
-        <v>22782900</v>
+        <v>22683900</v>
       </c>
       <c r="F66" s="3">
-        <v>20710300</v>
+        <v>23378200</v>
       </c>
       <c r="G66" s="3">
-        <v>21566400</v>
+        <v>21251500</v>
       </c>
       <c r="H66" s="3">
-        <v>20748000</v>
+        <v>22129900</v>
       </c>
       <c r="I66" s="3">
-        <v>20559700</v>
+        <v>21290200</v>
       </c>
       <c r="J66" s="3">
+        <v>21096900</v>
+      </c>
+      <c r="K66" s="3">
         <v>20587700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18055800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18450300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19892100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19113800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18344600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7402200</v>
+        <v>7635800</v>
       </c>
       <c r="E72" s="3">
-        <v>7586200</v>
+        <v>7595700</v>
       </c>
       <c r="F72" s="3">
-        <v>7461300</v>
+        <v>7784400</v>
       </c>
       <c r="G72" s="3">
-        <v>7451000</v>
+        <v>7656300</v>
       </c>
       <c r="H72" s="3">
-        <v>7536700</v>
+        <v>7645700</v>
       </c>
       <c r="I72" s="3">
-        <v>7329900</v>
+        <v>7733600</v>
       </c>
       <c r="J72" s="3">
+        <v>7521400</v>
+      </c>
+      <c r="K72" s="3">
         <v>7169600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6583200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7160700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6362500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6415800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5968100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10689800</v>
+        <v>10990300</v>
       </c>
       <c r="E76" s="3">
-        <v>10864800</v>
+        <v>10969100</v>
       </c>
       <c r="F76" s="3">
-        <v>10745900</v>
+        <v>11148700</v>
       </c>
       <c r="G76" s="3">
-        <v>10727400</v>
+        <v>11026700</v>
       </c>
       <c r="H76" s="3">
-        <v>10807200</v>
+        <v>11007700</v>
       </c>
       <c r="I76" s="3">
-        <v>10596000</v>
+        <v>11089600</v>
       </c>
       <c r="J76" s="3">
+        <v>10872800</v>
+      </c>
+      <c r="K76" s="3">
         <v>10437900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9648000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10681200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10156200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10233100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9690400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>502200</v>
+        <v>832200</v>
       </c>
       <c r="E81" s="3">
-        <v>841300</v>
+        <v>515400</v>
       </c>
       <c r="F81" s="3">
-        <v>680300</v>
+        <v>863200</v>
       </c>
       <c r="G81" s="3">
-        <v>910700</v>
+        <v>698000</v>
       </c>
       <c r="H81" s="3">
-        <v>1387100</v>
+        <v>934500</v>
       </c>
       <c r="I81" s="3">
-        <v>1265200</v>
+        <v>1423300</v>
       </c>
       <c r="J81" s="3">
+        <v>1298300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1551100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1188300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2481400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1480800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1557100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3159000</v>
+        <v>2609400</v>
       </c>
       <c r="E89" s="3">
-        <v>2018600</v>
+        <v>3241500</v>
       </c>
       <c r="F89" s="3">
-        <v>2855400</v>
+        <v>2071300</v>
       </c>
       <c r="G89" s="3">
-        <v>2080600</v>
+        <v>2930000</v>
       </c>
       <c r="H89" s="3">
-        <v>3569700</v>
+        <v>2135000</v>
       </c>
       <c r="I89" s="3">
-        <v>2786700</v>
+        <v>3662900</v>
       </c>
       <c r="J89" s="3">
+        <v>2859600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3407200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2098000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2998900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2601500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3350100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2680400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-859000</v>
+        <v>-830700</v>
       </c>
       <c r="E91" s="3">
-        <v>-870100</v>
+        <v>-881400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1034000</v>
+        <v>-892800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1355300</v>
+        <v>-1061100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1213500</v>
+        <v>-1390700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1424000</v>
+        <v>-1245200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1461200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1516300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-972500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1136200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5108200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2295800</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1302200</v>
+        <v>-588900</v>
       </c>
       <c r="E94" s="3">
-        <v>-895900</v>
+        <v>-1336200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1052500</v>
+        <v>-919300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1617500</v>
+        <v>-1080000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1369400</v>
+        <v>-1659800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1519300</v>
+        <v>-1405100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1559000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1842800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1183700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-301500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1244500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1639900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2490300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,49 +4150,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-703100</v>
+        <v>-720800</v>
       </c>
       <c r="E96" s="3">
-        <v>-702400</v>
+        <v>-721500</v>
       </c>
       <c r="F96" s="3">
-        <v>-702400</v>
+        <v>-720800</v>
       </c>
       <c r="G96" s="3">
-        <v>-966100</v>
+        <v>-720800</v>
       </c>
       <c r="H96" s="3">
-        <v>-966100</v>
+        <v>-991300</v>
       </c>
       <c r="I96" s="3">
+        <v>-991300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1396100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1360500</v>
       </c>
-      <c r="J96" s="3">
-        <v>-1360500</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1256700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1274700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1339300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1330000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1354000</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2030400</v>
+        <v>-1391500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1025900</v>
+        <v>-2083500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1757100</v>
+        <v>-1052700</v>
       </c>
       <c r="G100" s="3">
-        <v>-523700</v>
+        <v>-1803000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2176700</v>
+        <v>-537400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1527400</v>
+        <v>-2233500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1567300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1745300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2482200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1761200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-820700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1951100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3042400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2200</v>
+        <v>-25800</v>
       </c>
       <c r="E101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>700</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>42800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-175800</v>
+        <v>603300</v>
       </c>
       <c r="E102" s="3">
-        <v>98200</v>
+        <v>-180400</v>
       </c>
       <c r="F102" s="3">
-        <v>46500</v>
+        <v>100800</v>
       </c>
       <c r="G102" s="3">
-        <v>-58300</v>
+        <v>47700</v>
       </c>
       <c r="H102" s="3">
-        <v>26600</v>
+        <v>-59900</v>
       </c>
       <c r="I102" s="3">
-        <v>-260000</v>
+        <v>27300</v>
       </c>
       <c r="J102" s="3">
+        <v>-266800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-186100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1567200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>932100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>544100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-198100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2799400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8324800</v>
+        <v>8512600</v>
       </c>
       <c r="E8" s="3">
-        <v>8750700</v>
+        <v>8948200</v>
       </c>
       <c r="F8" s="3">
-        <v>9219100</v>
+        <v>9427100</v>
       </c>
       <c r="G8" s="3">
-        <v>9604900</v>
+        <v>9821600</v>
       </c>
       <c r="H8" s="3">
-        <v>9538900</v>
+        <v>9754200</v>
       </c>
       <c r="I8" s="3">
-        <v>9882300</v>
+        <v>10105200</v>
       </c>
       <c r="J8" s="3">
-        <v>9707900</v>
+        <v>9927000</v>
       </c>
       <c r="K8" s="3">
         <v>9754700</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3189200</v>
+        <v>3261200</v>
       </c>
       <c r="E9" s="3">
-        <v>3399200</v>
+        <v>3475900</v>
       </c>
       <c r="F9" s="3">
-        <v>3503000</v>
+        <v>3582100</v>
       </c>
       <c r="G9" s="3">
-        <v>3604600</v>
+        <v>3685900</v>
       </c>
       <c r="H9" s="3">
-        <v>3321100</v>
+        <v>3396100</v>
       </c>
       <c r="I9" s="3">
-        <v>3296100</v>
+        <v>3370500</v>
       </c>
       <c r="J9" s="3">
-        <v>3023300</v>
+        <v>3091500</v>
       </c>
       <c r="K9" s="3">
         <v>2938200</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5135500</v>
+        <v>5251400</v>
       </c>
       <c r="E10" s="3">
-        <v>5351500</v>
+        <v>5472300</v>
       </c>
       <c r="F10" s="3">
-        <v>5716100</v>
+        <v>5845100</v>
       </c>
       <c r="G10" s="3">
-        <v>6000300</v>
+        <v>6135700</v>
       </c>
       <c r="H10" s="3">
-        <v>6217800</v>
+        <v>6358100</v>
       </c>
       <c r="I10" s="3">
-        <v>6586200</v>
+        <v>6734800</v>
       </c>
       <c r="J10" s="3">
-        <v>6684700</v>
+        <v>6835500</v>
       </c>
       <c r="K10" s="3">
         <v>6816500</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>110700</v>
+        <v>113200</v>
       </c>
       <c r="E14" s="3">
-        <v>410000</v>
+        <v>419300</v>
       </c>
       <c r="F14" s="3">
-        <v>144000</v>
+        <v>147300</v>
       </c>
       <c r="G14" s="3">
-        <v>984500</v>
+        <v>1006700</v>
       </c>
       <c r="H14" s="3">
-        <v>101600</v>
+        <v>103900</v>
       </c>
       <c r="I14" s="3">
-        <v>28000</v>
+        <v>28700</v>
       </c>
       <c r="J14" s="3">
-        <v>336500</v>
+        <v>344100</v>
       </c>
       <c r="K14" s="3">
         <v>203900</v>
@@ -1022,25 +1022,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1840900</v>
+        <v>1882500</v>
       </c>
       <c r="E15" s="3">
-        <v>1982700</v>
+        <v>2027400</v>
       </c>
       <c r="F15" s="3">
-        <v>2063000</v>
+        <v>2109600</v>
       </c>
       <c r="G15" s="3">
-        <v>1622700</v>
+        <v>1659300</v>
       </c>
       <c r="H15" s="3">
-        <v>1622700</v>
+        <v>1659300</v>
       </c>
       <c r="I15" s="3">
-        <v>1706000</v>
+        <v>1744500</v>
       </c>
       <c r="J15" s="3">
-        <v>1681800</v>
+        <v>1719700</v>
       </c>
       <c r="K15" s="3">
         <v>1619700</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7782900</v>
+        <v>7958500</v>
       </c>
       <c r="E17" s="3">
-        <v>8502900</v>
+        <v>8694700</v>
       </c>
       <c r="F17" s="3">
-        <v>8611300</v>
+        <v>8805600</v>
       </c>
       <c r="G17" s="3">
-        <v>9415400</v>
+        <v>9627800</v>
       </c>
       <c r="H17" s="3">
-        <v>8853000</v>
+        <v>9052800</v>
       </c>
       <c r="I17" s="3">
-        <v>8546800</v>
+        <v>8739700</v>
       </c>
       <c r="J17" s="3">
-        <v>8726500</v>
+        <v>8923400</v>
       </c>
       <c r="K17" s="3">
         <v>8277500</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>541900</v>
+        <v>554100</v>
       </c>
       <c r="E18" s="3">
-        <v>247800</v>
+        <v>253400</v>
       </c>
       <c r="F18" s="3">
-        <v>607800</v>
+        <v>621500</v>
       </c>
       <c r="G18" s="3">
-        <v>189500</v>
+        <v>193800</v>
       </c>
       <c r="H18" s="3">
-        <v>685900</v>
+        <v>701400</v>
       </c>
       <c r="I18" s="3">
-        <v>1335400</v>
+        <v>1365600</v>
       </c>
       <c r="J18" s="3">
-        <v>981500</v>
+        <v>1003600</v>
       </c>
       <c r="K18" s="3">
         <v>1477200</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>686700</v>
+        <v>702200</v>
       </c>
       <c r="E20" s="3">
-        <v>856400</v>
+        <v>875800</v>
       </c>
       <c r="F20" s="3">
-        <v>960300</v>
+        <v>981900</v>
       </c>
       <c r="G20" s="3">
-        <v>1031500</v>
+        <v>1054800</v>
       </c>
       <c r="H20" s="3">
-        <v>942100</v>
+        <v>963300</v>
       </c>
       <c r="I20" s="3">
-        <v>852600</v>
+        <v>871900</v>
       </c>
       <c r="J20" s="3">
-        <v>1244500</v>
+        <v>1272600</v>
       </c>
       <c r="K20" s="3">
         <v>989700</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3069500</v>
+        <v>3138800</v>
       </c>
       <c r="E21" s="3">
-        <v>1023900</v>
+        <v>1047000</v>
       </c>
       <c r="F21" s="3">
-        <v>3631100</v>
+        <v>3713000</v>
       </c>
       <c r="G21" s="3">
-        <v>1221000</v>
+        <v>1248500</v>
       </c>
       <c r="H21" s="3">
-        <v>3250600</v>
+        <v>3324000</v>
       </c>
       <c r="I21" s="3">
-        <v>2212300</v>
+        <v>2262200</v>
       </c>
       <c r="J21" s="3">
-        <v>3907700</v>
+        <v>3995900</v>
       </c>
       <c r="K21" s="3">
         <v>2426300</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>217500</v>
+        <v>222400</v>
       </c>
       <c r="E22" s="3">
-        <v>255400</v>
+        <v>261200</v>
       </c>
       <c r="F22" s="3">
-        <v>297900</v>
+        <v>304600</v>
       </c>
       <c r="G22" s="3">
-        <v>254700</v>
+        <v>260400</v>
       </c>
       <c r="H22" s="3">
-        <v>266000</v>
+        <v>272000</v>
       </c>
       <c r="I22" s="3">
-        <v>249300</v>
+        <v>255000</v>
       </c>
       <c r="J22" s="3">
-        <v>269800</v>
+        <v>275900</v>
       </c>
       <c r="K22" s="3">
         <v>259200</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1011000</v>
+        <v>1033900</v>
       </c>
       <c r="E23" s="3">
-        <v>848800</v>
+        <v>868000</v>
       </c>
       <c r="F23" s="3">
-        <v>1270200</v>
+        <v>1298900</v>
       </c>
       <c r="G23" s="3">
-        <v>966300</v>
+        <v>988100</v>
       </c>
       <c r="H23" s="3">
-        <v>1361900</v>
+        <v>1392700</v>
       </c>
       <c r="I23" s="3">
-        <v>1938700</v>
+        <v>1982500</v>
       </c>
       <c r="J23" s="3">
-        <v>1956100</v>
+        <v>2000300</v>
       </c>
       <c r="K23" s="3">
         <v>2207700</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>158400</v>
+        <v>162000</v>
       </c>
       <c r="E24" s="3">
-        <v>326700</v>
+        <v>334000</v>
       </c>
       <c r="F24" s="3">
-        <v>398700</v>
+        <v>407700</v>
       </c>
       <c r="G24" s="3">
-        <v>268300</v>
+        <v>274400</v>
       </c>
       <c r="H24" s="3">
-        <v>431200</v>
+        <v>441000</v>
       </c>
       <c r="I24" s="3">
-        <v>525200</v>
+        <v>537100</v>
       </c>
       <c r="J24" s="3">
-        <v>673800</v>
+        <v>689000</v>
       </c>
       <c r="K24" s="3">
         <v>664700</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>852600</v>
+        <v>871900</v>
       </c>
       <c r="E26" s="3">
-        <v>522200</v>
+        <v>534000</v>
       </c>
       <c r="F26" s="3">
-        <v>871600</v>
+        <v>891300</v>
       </c>
       <c r="G26" s="3">
-        <v>698000</v>
+        <v>713800</v>
       </c>
       <c r="H26" s="3">
-        <v>930700</v>
+        <v>951700</v>
       </c>
       <c r="I26" s="3">
-        <v>1413500</v>
+        <v>1445400</v>
       </c>
       <c r="J26" s="3">
-        <v>1282400</v>
+        <v>1311300</v>
       </c>
       <c r="K26" s="3">
         <v>1542900</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>832200</v>
+        <v>851000</v>
       </c>
       <c r="E27" s="3">
-        <v>515400</v>
+        <v>527000</v>
       </c>
       <c r="F27" s="3">
-        <v>863200</v>
+        <v>882700</v>
       </c>
       <c r="G27" s="3">
-        <v>698000</v>
+        <v>713800</v>
       </c>
       <c r="H27" s="3">
-        <v>934500</v>
+        <v>955600</v>
       </c>
       <c r="I27" s="3">
-        <v>1423300</v>
+        <v>1455500</v>
       </c>
       <c r="J27" s="3">
-        <v>1298300</v>
+        <v>1327600</v>
       </c>
       <c r="K27" s="3">
         <v>1551100</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-686700</v>
+        <v>-702200</v>
       </c>
       <c r="E32" s="3">
-        <v>-856400</v>
+        <v>-875800</v>
       </c>
       <c r="F32" s="3">
-        <v>-960300</v>
+        <v>-981900</v>
       </c>
       <c r="G32" s="3">
-        <v>-1031500</v>
+        <v>-1054800</v>
       </c>
       <c r="H32" s="3">
-        <v>-942100</v>
+        <v>-963300</v>
       </c>
       <c r="I32" s="3">
-        <v>-852600</v>
+        <v>-871900</v>
       </c>
       <c r="J32" s="3">
-        <v>-1244500</v>
+        <v>-1272600</v>
       </c>
       <c r="K32" s="3">
         <v>-989700</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>832200</v>
+        <v>851000</v>
       </c>
       <c r="E33" s="3">
-        <v>515400</v>
+        <v>527000</v>
       </c>
       <c r="F33" s="3">
-        <v>863200</v>
+        <v>882700</v>
       </c>
       <c r="G33" s="3">
-        <v>698000</v>
+        <v>713800</v>
       </c>
       <c r="H33" s="3">
-        <v>934500</v>
+        <v>955600</v>
       </c>
       <c r="I33" s="3">
-        <v>1423300</v>
+        <v>1455500</v>
       </c>
       <c r="J33" s="3">
-        <v>1298300</v>
+        <v>1327600</v>
       </c>
       <c r="K33" s="3">
         <v>1551100</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>832200</v>
+        <v>851000</v>
       </c>
       <c r="E35" s="3">
-        <v>515400</v>
+        <v>527000</v>
       </c>
       <c r="F35" s="3">
-        <v>863200</v>
+        <v>882700</v>
       </c>
       <c r="G35" s="3">
-        <v>698000</v>
+        <v>713800</v>
       </c>
       <c r="H35" s="3">
-        <v>934500</v>
+        <v>955600</v>
       </c>
       <c r="I35" s="3">
-        <v>1423300</v>
+        <v>1455500</v>
       </c>
       <c r="J35" s="3">
-        <v>1298300</v>
+        <v>1327600</v>
       </c>
       <c r="K35" s="3">
         <v>1551100</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>197800</v>
+        <v>202300</v>
       </c>
       <c r="E41" s="3">
-        <v>180400</v>
+        <v>184500</v>
       </c>
       <c r="F41" s="3">
-        <v>181100</v>
+        <v>185200</v>
       </c>
       <c r="G41" s="3">
-        <v>166000</v>
+        <v>169700</v>
       </c>
       <c r="H41" s="3">
-        <v>92500</v>
+        <v>94600</v>
       </c>
       <c r="I41" s="3">
-        <v>97800</v>
+        <v>100000</v>
       </c>
       <c r="J41" s="3">
-        <v>94700</v>
+        <v>96900</v>
       </c>
       <c r="K41" s="3">
         <v>849400</v>
@@ -2020,25 +2020,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>783700</v>
+        <v>801400</v>
       </c>
       <c r="E42" s="3">
-        <v>197800</v>
+        <v>202300</v>
       </c>
       <c r="F42" s="3">
-        <v>390300</v>
+        <v>399100</v>
       </c>
       <c r="G42" s="3">
-        <v>291800</v>
+        <v>298400</v>
       </c>
       <c r="H42" s="3">
-        <v>317600</v>
+        <v>324700</v>
       </c>
       <c r="I42" s="3">
-        <v>379000</v>
+        <v>387500</v>
       </c>
       <c r="J42" s="3">
-        <v>350100</v>
+        <v>358100</v>
       </c>
       <c r="K42" s="3">
         <v>536200</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3481800</v>
+        <v>3560400</v>
       </c>
       <c r="E43" s="3">
-        <v>3882700</v>
+        <v>3970300</v>
       </c>
       <c r="F43" s="3">
-        <v>4019900</v>
+        <v>4110600</v>
       </c>
       <c r="G43" s="3">
-        <v>4091900</v>
+        <v>4184200</v>
       </c>
       <c r="H43" s="3">
-        <v>4151800</v>
+        <v>4245500</v>
       </c>
       <c r="I43" s="3">
-        <v>4239700</v>
+        <v>4335400</v>
       </c>
       <c r="J43" s="3">
-        <v>4112400</v>
+        <v>4205200</v>
       </c>
       <c r="K43" s="3">
         <v>4506200</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>349400</v>
+        <v>357300</v>
       </c>
       <c r="E44" s="3">
-        <v>316800</v>
+        <v>324000</v>
       </c>
       <c r="F44" s="3">
-        <v>564600</v>
+        <v>577400</v>
       </c>
       <c r="G44" s="3">
-        <v>339500</v>
+        <v>347200</v>
       </c>
       <c r="H44" s="3">
-        <v>658600</v>
+        <v>673500</v>
       </c>
       <c r="I44" s="3">
-        <v>372900</v>
+        <v>381300</v>
       </c>
       <c r="J44" s="3">
-        <v>835200</v>
+        <v>854100</v>
       </c>
       <c r="K44" s="3">
         <v>346400</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>784400</v>
+        <v>802100</v>
       </c>
       <c r="E45" s="3">
-        <v>374400</v>
+        <v>382900</v>
       </c>
       <c r="F45" s="3">
-        <v>508600</v>
+        <v>520000</v>
       </c>
       <c r="G45" s="3">
-        <v>645700</v>
+        <v>660300</v>
       </c>
       <c r="H45" s="3">
-        <v>419100</v>
+        <v>428600</v>
       </c>
       <c r="I45" s="3">
-        <v>435800</v>
+        <v>445600</v>
       </c>
       <c r="J45" s="3">
-        <v>446400</v>
+        <v>456500</v>
       </c>
       <c r="K45" s="3">
         <v>398100</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5597100</v>
+        <v>5723400</v>
       </c>
       <c r="E46" s="3">
-        <v>4952100</v>
+        <v>5063900</v>
       </c>
       <c r="F46" s="3">
-        <v>5664500</v>
+        <v>5792400</v>
       </c>
       <c r="G46" s="3">
-        <v>5534900</v>
+        <v>5659800</v>
       </c>
       <c r="H46" s="3">
-        <v>5639500</v>
+        <v>5766800</v>
       </c>
       <c r="I46" s="3">
-        <v>5525100</v>
+        <v>5649800</v>
       </c>
       <c r="J46" s="3">
-        <v>5838900</v>
+        <v>5970600</v>
       </c>
       <c r="K46" s="3">
         <v>5943500</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1759100</v>
+        <v>1798800</v>
       </c>
       <c r="E47" s="3">
-        <v>1778000</v>
+        <v>1818200</v>
       </c>
       <c r="F47" s="3">
-        <v>1919000</v>
+        <v>1962300</v>
       </c>
       <c r="G47" s="3">
-        <v>1593900</v>
+        <v>1629800</v>
       </c>
       <c r="H47" s="3">
-        <v>1638600</v>
+        <v>1675600</v>
       </c>
       <c r="I47" s="3">
-        <v>1518100</v>
+        <v>1552300</v>
       </c>
       <c r="J47" s="3">
-        <v>1362700</v>
+        <v>1393500</v>
       </c>
       <c r="K47" s="3">
         <v>1076100</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18154700</v>
+        <v>18564400</v>
       </c>
       <c r="E48" s="3">
-        <v>18590500</v>
+        <v>19010000</v>
       </c>
       <c r="F48" s="3">
-        <v>18873200</v>
+        <v>19299100</v>
       </c>
       <c r="G48" s="3">
-        <v>16925400</v>
+        <v>17307300</v>
       </c>
       <c r="H48" s="3">
-        <v>17112600</v>
+        <v>17498700</v>
       </c>
       <c r="I48" s="3">
-        <v>16755700</v>
+        <v>17133700</v>
       </c>
       <c r="J48" s="3">
-        <v>16422200</v>
+        <v>16792700</v>
       </c>
       <c r="K48" s="3">
         <v>15769100</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5390900</v>
+        <v>5512600</v>
       </c>
       <c r="E49" s="3">
-        <v>5617600</v>
+        <v>5744300</v>
       </c>
       <c r="F49" s="3">
-        <v>5454600</v>
+        <v>5577700</v>
       </c>
       <c r="G49" s="3">
-        <v>5464500</v>
+        <v>5587800</v>
       </c>
       <c r="H49" s="3">
-        <v>5929100</v>
+        <v>6062800</v>
       </c>
       <c r="I49" s="3">
-        <v>6004100</v>
+        <v>6139600</v>
       </c>
       <c r="J49" s="3">
-        <v>6953000</v>
+        <v>7109900</v>
       </c>
       <c r="K49" s="3">
         <v>6142900</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1963000</v>
+        <v>2007300</v>
       </c>
       <c r="E52" s="3">
-        <v>2714800</v>
+        <v>2776100</v>
       </c>
       <c r="F52" s="3">
-        <v>2615500</v>
+        <v>2674500</v>
       </c>
       <c r="G52" s="3">
-        <v>2759500</v>
+        <v>2821800</v>
       </c>
       <c r="H52" s="3">
-        <v>2817900</v>
+        <v>2881500</v>
       </c>
       <c r="I52" s="3">
-        <v>2576900</v>
+        <v>2635000</v>
       </c>
       <c r="J52" s="3">
-        <v>1393000</v>
+        <v>1424500</v>
       </c>
       <c r="K52" s="3">
         <v>2093900</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32864800</v>
+        <v>33606300</v>
       </c>
       <c r="E54" s="3">
-        <v>33653000</v>
+        <v>34412300</v>
       </c>
       <c r="F54" s="3">
-        <v>34526900</v>
+        <v>35305900</v>
       </c>
       <c r="G54" s="3">
-        <v>32278200</v>
+        <v>33006500</v>
       </c>
       <c r="H54" s="3">
-        <v>33137700</v>
+        <v>33885300</v>
       </c>
       <c r="I54" s="3">
-        <v>32379800</v>
+        <v>33110300</v>
       </c>
       <c r="J54" s="3">
-        <v>31969700</v>
+        <v>32691100</v>
       </c>
       <c r="K54" s="3">
         <v>31025600</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>815500</v>
+        <v>833900</v>
       </c>
       <c r="E57" s="3">
-        <v>748800</v>
+        <v>765700</v>
       </c>
       <c r="F57" s="3">
-        <v>761700</v>
+        <v>778900</v>
       </c>
       <c r="G57" s="3">
-        <v>3431800</v>
+        <v>3509200</v>
       </c>
       <c r="H57" s="3">
-        <v>3357500</v>
+        <v>3433300</v>
       </c>
       <c r="I57" s="3">
-        <v>3431800</v>
+        <v>3509200</v>
       </c>
       <c r="J57" s="3">
-        <v>3189200</v>
+        <v>3261200</v>
       </c>
       <c r="K57" s="3">
         <v>2913000</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2533700</v>
+        <v>2590800</v>
       </c>
       <c r="E58" s="3">
-        <v>2557200</v>
+        <v>2614900</v>
       </c>
       <c r="F58" s="3">
-        <v>2786000</v>
+        <v>2848900</v>
       </c>
       <c r="G58" s="3">
-        <v>1684100</v>
+        <v>1722100</v>
       </c>
       <c r="H58" s="3">
-        <v>875400</v>
+        <v>895100</v>
       </c>
       <c r="I58" s="3">
-        <v>1239200</v>
+        <v>1267100</v>
       </c>
       <c r="J58" s="3">
-        <v>2122100</v>
+        <v>2170000</v>
       </c>
       <c r="K58" s="3">
         <v>1828800</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3943400</v>
+        <v>4032300</v>
       </c>
       <c r="E59" s="3">
-        <v>4344300</v>
+        <v>4442300</v>
       </c>
       <c r="F59" s="3">
-        <v>4076700</v>
+        <v>4168700</v>
       </c>
       <c r="G59" s="3">
-        <v>2124400</v>
+        <v>2172300</v>
       </c>
       <c r="H59" s="3">
-        <v>1875000</v>
+        <v>1917400</v>
       </c>
       <c r="I59" s="3">
-        <v>2917200</v>
+        <v>2983000</v>
       </c>
       <c r="J59" s="3">
-        <v>1789400</v>
+        <v>1829800</v>
       </c>
       <c r="K59" s="3">
         <v>2878300</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7292500</v>
+        <v>7457100</v>
       </c>
       <c r="E60" s="3">
-        <v>7650200</v>
+        <v>7822900</v>
       </c>
       <c r="F60" s="3">
-        <v>7624500</v>
+        <v>7796500</v>
       </c>
       <c r="G60" s="3">
-        <v>7240200</v>
+        <v>7403600</v>
       </c>
       <c r="H60" s="3">
-        <v>6107900</v>
+        <v>6245700</v>
       </c>
       <c r="I60" s="3">
-        <v>6658200</v>
+        <v>6808400</v>
       </c>
       <c r="J60" s="3">
-        <v>7100800</v>
+        <v>7261000</v>
       </c>
       <c r="K60" s="3">
         <v>6707200</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11459400</v>
+        <v>11718000</v>
       </c>
       <c r="E61" s="3">
-        <v>11939200</v>
+        <v>12208600</v>
       </c>
       <c r="F61" s="3">
-        <v>12611500</v>
+        <v>12896000</v>
       </c>
       <c r="G61" s="3">
-        <v>11392000</v>
+        <v>11649000</v>
       </c>
       <c r="H61" s="3">
-        <v>12981300</v>
+        <v>13274200</v>
       </c>
       <c r="I61" s="3">
-        <v>11608000</v>
+        <v>11869900</v>
       </c>
       <c r="J61" s="3">
-        <v>11231300</v>
+        <v>11484700</v>
       </c>
       <c r="K61" s="3">
         <v>10937200</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2604100</v>
+        <v>2662900</v>
       </c>
       <c r="E62" s="3">
-        <v>2583700</v>
+        <v>2642000</v>
       </c>
       <c r="F62" s="3">
-        <v>2624600</v>
+        <v>2683800</v>
       </c>
       <c r="G62" s="3">
-        <v>2633700</v>
+        <v>2693100</v>
       </c>
       <c r="H62" s="3">
-        <v>3055100</v>
+        <v>3124000</v>
       </c>
       <c r="I62" s="3">
-        <v>4028200</v>
+        <v>4119100</v>
       </c>
       <c r="J62" s="3">
-        <v>2764100</v>
+        <v>2826400</v>
       </c>
       <c r="K62" s="3">
         <v>3786800</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21874500</v>
+        <v>22368100</v>
       </c>
       <c r="E66" s="3">
-        <v>22683900</v>
+        <v>23195800</v>
       </c>
       <c r="F66" s="3">
-        <v>23378200</v>
+        <v>23905700</v>
       </c>
       <c r="G66" s="3">
-        <v>21251500</v>
+        <v>21731000</v>
       </c>
       <c r="H66" s="3">
-        <v>22129900</v>
+        <v>22629200</v>
       </c>
       <c r="I66" s="3">
-        <v>21290200</v>
+        <v>21770500</v>
       </c>
       <c r="J66" s="3">
-        <v>21096900</v>
+        <v>21572900</v>
       </c>
       <c r="K66" s="3">
         <v>20587700</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7635800</v>
+        <v>7808100</v>
       </c>
       <c r="E72" s="3">
-        <v>7595700</v>
+        <v>7767100</v>
       </c>
       <c r="F72" s="3">
-        <v>7784400</v>
+        <v>7960000</v>
       </c>
       <c r="G72" s="3">
-        <v>7656300</v>
+        <v>7829100</v>
       </c>
       <c r="H72" s="3">
-        <v>7645700</v>
+        <v>7818200</v>
       </c>
       <c r="I72" s="3">
-        <v>7733600</v>
+        <v>7908100</v>
       </c>
       <c r="J72" s="3">
-        <v>7521400</v>
+        <v>7691100</v>
       </c>
       <c r="K72" s="3">
         <v>7169600</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10990300</v>
+        <v>11238300</v>
       </c>
       <c r="E76" s="3">
-        <v>10969100</v>
+        <v>11216600</v>
       </c>
       <c r="F76" s="3">
-        <v>11148700</v>
+        <v>11400300</v>
       </c>
       <c r="G76" s="3">
-        <v>11026700</v>
+        <v>11275500</v>
       </c>
       <c r="H76" s="3">
-        <v>11007700</v>
+        <v>11256100</v>
       </c>
       <c r="I76" s="3">
-        <v>11089600</v>
+        <v>11339800</v>
       </c>
       <c r="J76" s="3">
-        <v>10872800</v>
+        <v>11118200</v>
       </c>
       <c r="K76" s="3">
         <v>10437900</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>832200</v>
+        <v>851000</v>
       </c>
       <c r="E81" s="3">
-        <v>515400</v>
+        <v>527000</v>
       </c>
       <c r="F81" s="3">
-        <v>863200</v>
+        <v>882700</v>
       </c>
       <c r="G81" s="3">
-        <v>698000</v>
+        <v>713800</v>
       </c>
       <c r="H81" s="3">
-        <v>934500</v>
+        <v>955600</v>
       </c>
       <c r="I81" s="3">
-        <v>1423300</v>
+        <v>1455500</v>
       </c>
       <c r="J81" s="3">
-        <v>1298300</v>
+        <v>1327600</v>
       </c>
       <c r="K81" s="3">
         <v>1551100</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2609400</v>
+        <v>2668300</v>
       </c>
       <c r="E89" s="3">
-        <v>3241500</v>
+        <v>3314700</v>
       </c>
       <c r="F89" s="3">
-        <v>2071300</v>
+        <v>2118100</v>
       </c>
       <c r="G89" s="3">
-        <v>2930000</v>
+        <v>2996200</v>
       </c>
       <c r="H89" s="3">
-        <v>2135000</v>
+        <v>2183200</v>
       </c>
       <c r="I89" s="3">
-        <v>3662900</v>
+        <v>3745600</v>
       </c>
       <c r="J89" s="3">
-        <v>2859600</v>
+        <v>2924100</v>
       </c>
       <c r="K89" s="3">
         <v>3407200</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-830700</v>
+        <v>-849400</v>
       </c>
       <c r="E91" s="3">
-        <v>-881400</v>
+        <v>-901300</v>
       </c>
       <c r="F91" s="3">
-        <v>-892800</v>
+        <v>-913000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1061100</v>
+        <v>-1085000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1390700</v>
+        <v>-1422100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1245200</v>
+        <v>-1273300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1461200</v>
+        <v>-1494200</v>
       </c>
       <c r="K91" s="3">
         <v>-1516300</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-588900</v>
+        <v>-602200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1336200</v>
+        <v>-1366300</v>
       </c>
       <c r="F94" s="3">
-        <v>-919300</v>
+        <v>-940100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1080000</v>
+        <v>-1104400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1659800</v>
+        <v>-1697300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1405100</v>
+        <v>-1436900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1559000</v>
+        <v>-1594200</v>
       </c>
       <c r="K94" s="3">
         <v>-1842800</v>
@@ -4157,25 +4157,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-720800</v>
+        <v>-737000</v>
       </c>
       <c r="E96" s="3">
-        <v>-721500</v>
+        <v>-737800</v>
       </c>
       <c r="F96" s="3">
-        <v>-720800</v>
+        <v>-737000</v>
       </c>
       <c r="G96" s="3">
-        <v>-720800</v>
+        <v>-737000</v>
       </c>
       <c r="H96" s="3">
-        <v>-991300</v>
+        <v>-1013700</v>
       </c>
       <c r="I96" s="3">
-        <v>-991300</v>
+        <v>-1013700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1396100</v>
+        <v>-1427600</v>
       </c>
       <c r="K96" s="3">
         <v>-1360500</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1391500</v>
+        <v>-1422900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2083500</v>
+        <v>-2130500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1052700</v>
+        <v>-1076500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1803000</v>
+        <v>-1843700</v>
       </c>
       <c r="H100" s="3">
-        <v>-537400</v>
+        <v>-549500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2233500</v>
+        <v>-2283900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1567300</v>
+        <v>-1602700</v>
       </c>
       <c r="K100" s="3">
         <v>-1745300</v>
@@ -4377,13 +4377,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-25800</v>
+        <v>-26400</v>
       </c>
       <c r="E101" s="3">
         <v>-2300</v>
       </c>
       <c r="F101" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
         <v>800</v>
@@ -4392,7 +4392,7 @@
         <v>2300</v>
       </c>
       <c r="I101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>603300</v>
+        <v>616900</v>
       </c>
       <c r="E102" s="3">
-        <v>-180400</v>
+        <v>-184500</v>
       </c>
       <c r="F102" s="3">
-        <v>100800</v>
+        <v>103100</v>
       </c>
       <c r="G102" s="3">
-        <v>47700</v>
+        <v>48800</v>
       </c>
       <c r="H102" s="3">
-        <v>-59900</v>
+        <v>-61200</v>
       </c>
       <c r="I102" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="J102" s="3">
-        <v>-266800</v>
+        <v>-272800</v>
       </c>
       <c r="K102" s="3">
         <v>-186100</v>

--- a/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TLSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8512600</v>
+        <v>7556200</v>
       </c>
       <c r="E8" s="3">
-        <v>8948200</v>
+        <v>7849200</v>
       </c>
       <c r="F8" s="3">
-        <v>9427100</v>
+        <v>8250800</v>
       </c>
       <c r="G8" s="3">
-        <v>9821600</v>
+        <v>8692400</v>
       </c>
       <c r="H8" s="3">
-        <v>9754200</v>
+        <v>9056100</v>
       </c>
       <c r="I8" s="3">
-        <v>10105200</v>
+        <v>8994000</v>
       </c>
       <c r="J8" s="3">
+        <v>9317700</v>
+      </c>
+      <c r="K8" s="3">
         <v>9927000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9754700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8496800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8230800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9402000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9293500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9229600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3261200</v>
+        <v>2937000</v>
       </c>
       <c r="E9" s="3">
-        <v>3475900</v>
+        <v>3007000</v>
       </c>
       <c r="F9" s="3">
-        <v>3582100</v>
+        <v>3205000</v>
       </c>
       <c r="G9" s="3">
-        <v>3685900</v>
+        <v>3302900</v>
       </c>
       <c r="H9" s="3">
-        <v>3396100</v>
+        <v>3398600</v>
       </c>
       <c r="I9" s="3">
-        <v>3370500</v>
+        <v>3131400</v>
       </c>
       <c r="J9" s="3">
+        <v>3107800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3091500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2938200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2450300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2239100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2757100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2599800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2366900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5251400</v>
+        <v>4619200</v>
       </c>
       <c r="E10" s="3">
-        <v>5472300</v>
+        <v>4842100</v>
       </c>
       <c r="F10" s="3">
-        <v>5845100</v>
+        <v>5045800</v>
       </c>
       <c r="G10" s="3">
-        <v>6135700</v>
+        <v>5389500</v>
       </c>
       <c r="H10" s="3">
-        <v>6358100</v>
+        <v>5657500</v>
       </c>
       <c r="I10" s="3">
-        <v>6734800</v>
+        <v>5862600</v>
       </c>
       <c r="J10" s="3">
+        <v>6209900</v>
+      </c>
+      <c r="K10" s="3">
         <v>6835500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6816500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6046500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5991700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6644800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6693700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6862700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,40 +989,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>113200</v>
+        <v>86500</v>
       </c>
       <c r="E14" s="3">
-        <v>419300</v>
+        <v>104300</v>
       </c>
       <c r="F14" s="3">
-        <v>147300</v>
+        <v>386600</v>
       </c>
       <c r="G14" s="3">
-        <v>1006700</v>
+        <v>135800</v>
       </c>
       <c r="H14" s="3">
-        <v>103900</v>
+        <v>928300</v>
       </c>
       <c r="I14" s="3">
-        <v>28700</v>
+        <v>95800</v>
       </c>
       <c r="J14" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K14" s="3">
         <v>344100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>203900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>110100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1016,52 +1036,58 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1882500</v>
+        <v>1584300</v>
       </c>
       <c r="E15" s="3">
-        <v>2027400</v>
+        <v>1735800</v>
       </c>
       <c r="F15" s="3">
-        <v>2109600</v>
+        <v>1869400</v>
       </c>
       <c r="G15" s="3">
-        <v>1659300</v>
+        <v>1945100</v>
       </c>
       <c r="H15" s="3">
-        <v>1659300</v>
+        <v>1530000</v>
       </c>
       <c r="I15" s="3">
-        <v>1744500</v>
+        <v>1530000</v>
       </c>
       <c r="J15" s="3">
+        <v>1608600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1719700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1619700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1491500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1424700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1436900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1440300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1443200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7958500</v>
+        <v>6977400</v>
       </c>
       <c r="E17" s="3">
-        <v>8694700</v>
+        <v>7338200</v>
       </c>
       <c r="F17" s="3">
-        <v>8805600</v>
+        <v>8017100</v>
       </c>
       <c r="G17" s="3">
-        <v>9627800</v>
+        <v>8119300</v>
       </c>
       <c r="H17" s="3">
-        <v>9052800</v>
+        <v>8877500</v>
       </c>
       <c r="I17" s="3">
-        <v>8739700</v>
+        <v>8347200</v>
       </c>
       <c r="J17" s="3">
+        <v>8058500</v>
+      </c>
+      <c r="K17" s="3">
         <v>8923400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8277500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7140600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6674800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7471200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7372800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6814800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>554100</v>
+        <v>578800</v>
       </c>
       <c r="E18" s="3">
-        <v>253400</v>
+        <v>510900</v>
       </c>
       <c r="F18" s="3">
-        <v>621500</v>
+        <v>233700</v>
       </c>
       <c r="G18" s="3">
-        <v>193800</v>
+        <v>573100</v>
       </c>
       <c r="H18" s="3">
-        <v>701400</v>
+        <v>178700</v>
       </c>
       <c r="I18" s="3">
-        <v>1365600</v>
+        <v>646700</v>
       </c>
       <c r="J18" s="3">
+        <v>1259100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1003600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1477200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1356200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1556000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1930800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1920700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2414800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>702200</v>
+        <v>397300</v>
       </c>
       <c r="E20" s="3">
-        <v>875800</v>
+        <v>647400</v>
       </c>
       <c r="F20" s="3">
-        <v>981900</v>
+        <v>807500</v>
       </c>
       <c r="G20" s="3">
-        <v>1054800</v>
+        <v>905400</v>
       </c>
       <c r="H20" s="3">
-        <v>963300</v>
+        <v>972600</v>
       </c>
       <c r="I20" s="3">
-        <v>871900</v>
+        <v>888200</v>
       </c>
       <c r="J20" s="3">
+        <v>803900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1272600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>989700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>664800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>452300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>405400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>468700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3138800</v>
+        <v>824600</v>
       </c>
       <c r="E21" s="3">
-        <v>1047000</v>
+        <v>2894100</v>
       </c>
       <c r="F21" s="3">
-        <v>3713000</v>
+        <v>965400</v>
       </c>
       <c r="G21" s="3">
-        <v>1248500</v>
+        <v>3423600</v>
       </c>
       <c r="H21" s="3">
-        <v>3324000</v>
+        <v>1151200</v>
       </c>
       <c r="I21" s="3">
-        <v>2262200</v>
+        <v>3064900</v>
       </c>
       <c r="J21" s="3">
+        <v>2085900</v>
+      </c>
+      <c r="K21" s="3">
         <v>3995900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2426300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3512600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2061400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3778100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2386500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3901600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>222400</v>
+        <v>185100</v>
       </c>
       <c r="E22" s="3">
-        <v>261200</v>
+        <v>205100</v>
       </c>
       <c r="F22" s="3">
-        <v>304600</v>
+        <v>240800</v>
       </c>
       <c r="G22" s="3">
-        <v>260400</v>
+        <v>280800</v>
       </c>
       <c r="H22" s="3">
-        <v>272000</v>
+        <v>240100</v>
       </c>
       <c r="I22" s="3">
-        <v>255000</v>
+        <v>250800</v>
       </c>
       <c r="J22" s="3">
+        <v>235100</v>
+      </c>
+      <c r="K22" s="3">
         <v>275900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>259200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>257400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>280000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>288000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>296000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>299700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1033900</v>
+        <v>791100</v>
       </c>
       <c r="E23" s="3">
-        <v>868000</v>
+        <v>953300</v>
       </c>
       <c r="F23" s="3">
-        <v>1298900</v>
+        <v>800400</v>
       </c>
       <c r="G23" s="3">
-        <v>988100</v>
+        <v>1197700</v>
       </c>
       <c r="H23" s="3">
-        <v>1392700</v>
+        <v>911100</v>
       </c>
       <c r="I23" s="3">
-        <v>1982500</v>
+        <v>1284100</v>
       </c>
       <c r="J23" s="3">
+        <v>1827900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2000300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2207700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1763600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1728300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2048200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2093400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2158700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>162000</v>
+        <v>235800</v>
       </c>
       <c r="E24" s="3">
-        <v>334000</v>
+        <v>149400</v>
       </c>
       <c r="F24" s="3">
-        <v>407700</v>
+        <v>308000</v>
       </c>
       <c r="G24" s="3">
-        <v>274400</v>
+        <v>375900</v>
       </c>
       <c r="H24" s="3">
-        <v>441000</v>
+        <v>253000</v>
       </c>
       <c r="I24" s="3">
-        <v>537100</v>
+        <v>406600</v>
       </c>
       <c r="J24" s="3">
+        <v>495200</v>
+      </c>
+      <c r="K24" s="3">
         <v>689000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>664700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>579200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>580800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>616900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>631300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>635600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>871900</v>
+        <v>555200</v>
       </c>
       <c r="E26" s="3">
-        <v>534000</v>
+        <v>803900</v>
       </c>
       <c r="F26" s="3">
-        <v>891300</v>
+        <v>492400</v>
       </c>
       <c r="G26" s="3">
-        <v>713800</v>
+        <v>821800</v>
       </c>
       <c r="H26" s="3">
-        <v>951700</v>
+        <v>658100</v>
       </c>
       <c r="I26" s="3">
-        <v>1445400</v>
+        <v>877500</v>
       </c>
       <c r="J26" s="3">
+        <v>1332700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1311300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1542900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1184300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1147500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1431300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1462100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1523000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>851000</v>
+        <v>542400</v>
       </c>
       <c r="E27" s="3">
-        <v>527000</v>
+        <v>784600</v>
       </c>
       <c r="F27" s="3">
-        <v>882700</v>
+        <v>485900</v>
       </c>
       <c r="G27" s="3">
-        <v>713800</v>
+        <v>813900</v>
       </c>
       <c r="H27" s="3">
-        <v>955600</v>
+        <v>658100</v>
       </c>
       <c r="I27" s="3">
-        <v>1455500</v>
+        <v>881100</v>
       </c>
       <c r="J27" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1327600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1551100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1188300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1129300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1401600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1432300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1499100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1603,26 +1664,29 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1352100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>79200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>124800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-702200</v>
+        <v>-397300</v>
       </c>
       <c r="E32" s="3">
-        <v>-875800</v>
+        <v>-647400</v>
       </c>
       <c r="F32" s="3">
-        <v>-981900</v>
+        <v>-807500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1054800</v>
+        <v>-905400</v>
       </c>
       <c r="H32" s="3">
-        <v>-963300</v>
+        <v>-972600</v>
       </c>
       <c r="I32" s="3">
-        <v>-871900</v>
+        <v>-888200</v>
       </c>
       <c r="J32" s="3">
+        <v>-803900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1272600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-989700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-664800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-452300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-405400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-468700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-43500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>851000</v>
+        <v>542400</v>
       </c>
       <c r="E33" s="3">
-        <v>527000</v>
+        <v>784600</v>
       </c>
       <c r="F33" s="3">
-        <v>882700</v>
+        <v>485900</v>
       </c>
       <c r="G33" s="3">
-        <v>713800</v>
+        <v>813900</v>
       </c>
       <c r="H33" s="3">
-        <v>955600</v>
+        <v>658100</v>
       </c>
       <c r="I33" s="3">
-        <v>1455500</v>
+        <v>881100</v>
       </c>
       <c r="J33" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1327600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1551100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1188300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2481400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1480800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1557100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>851000</v>
+        <v>542400</v>
       </c>
       <c r="E35" s="3">
-        <v>527000</v>
+        <v>784600</v>
       </c>
       <c r="F35" s="3">
-        <v>882700</v>
+        <v>485900</v>
       </c>
       <c r="G35" s="3">
-        <v>713800</v>
+        <v>813900</v>
       </c>
       <c r="H35" s="3">
-        <v>955600</v>
+        <v>658100</v>
       </c>
       <c r="I35" s="3">
-        <v>1455500</v>
+        <v>881100</v>
       </c>
       <c r="J35" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1327600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1551100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1188300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2481400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1480800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1557100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,404 +2056,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>202300</v>
+        <v>803900</v>
       </c>
       <c r="E41" s="3">
-        <v>184500</v>
+        <v>925400</v>
       </c>
       <c r="F41" s="3">
-        <v>185200</v>
+        <v>356600</v>
       </c>
       <c r="G41" s="3">
-        <v>169700</v>
+        <v>538800</v>
       </c>
       <c r="H41" s="3">
-        <v>94600</v>
+        <v>431600</v>
       </c>
       <c r="I41" s="3">
-        <v>100000</v>
+        <v>386600</v>
       </c>
       <c r="J41" s="3">
+        <v>449500</v>
+      </c>
+      <c r="K41" s="3">
         <v>96900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>849400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>160600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>181000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>450700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>421600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>243100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>801400</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>202300</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>399100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>298400</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>324700</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>387500</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>358100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>536200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>627700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2208100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1085300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>591400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3560400</v>
+        <v>3274300</v>
       </c>
       <c r="E43" s="3">
-        <v>3970300</v>
+        <v>3282900</v>
       </c>
       <c r="F43" s="3">
-        <v>4110600</v>
+        <v>3660900</v>
       </c>
       <c r="G43" s="3">
-        <v>4184200</v>
+        <v>3790200</v>
       </c>
       <c r="H43" s="3">
-        <v>4245500</v>
+        <v>3858100</v>
       </c>
       <c r="I43" s="3">
-        <v>4335400</v>
+        <v>3914600</v>
       </c>
       <c r="J43" s="3">
+        <v>3997500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4205200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4506200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3457500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3193400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3572200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3432100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3365300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>357300</v>
+        <v>275100</v>
       </c>
       <c r="E44" s="3">
-        <v>324000</v>
+        <v>329400</v>
       </c>
       <c r="F44" s="3">
-        <v>577400</v>
+        <v>298700</v>
       </c>
       <c r="G44" s="3">
-        <v>347200</v>
+        <v>532400</v>
       </c>
       <c r="H44" s="3">
-        <v>673500</v>
+        <v>320100</v>
       </c>
       <c r="I44" s="3">
-        <v>381300</v>
+        <v>621000</v>
       </c>
       <c r="J44" s="3">
+        <v>351600</v>
+      </c>
+      <c r="K44" s="3">
         <v>854100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>346400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>581200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>374900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>501600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>356300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>802100</v>
+        <v>730300</v>
       </c>
       <c r="E45" s="3">
-        <v>382900</v>
+        <v>739600</v>
       </c>
       <c r="F45" s="3">
-        <v>520000</v>
+        <v>353000</v>
       </c>
       <c r="G45" s="3">
-        <v>660300</v>
+        <v>479500</v>
       </c>
       <c r="H45" s="3">
-        <v>428600</v>
+        <v>608800</v>
       </c>
       <c r="I45" s="3">
-        <v>445600</v>
+        <v>395200</v>
       </c>
       <c r="J45" s="3">
+        <v>410900</v>
+      </c>
+      <c r="K45" s="3">
         <v>456500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>398100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>383500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>328400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>314800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>256100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5723400</v>
+        <v>5083700</v>
       </c>
       <c r="E46" s="3">
-        <v>5063900</v>
+        <v>5277300</v>
       </c>
       <c r="F46" s="3">
-        <v>5792400</v>
+        <v>4669200</v>
       </c>
       <c r="G46" s="3">
-        <v>5659800</v>
+        <v>5340900</v>
       </c>
       <c r="H46" s="3">
-        <v>5766800</v>
+        <v>5218700</v>
       </c>
       <c r="I46" s="3">
-        <v>5649800</v>
+        <v>5317300</v>
       </c>
       <c r="J46" s="3">
+        <v>5209400</v>
+      </c>
+      <c r="K46" s="3">
         <v>5970600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5943500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5210500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6285800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5924600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5057400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5277300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1798800</v>
+        <v>1572800</v>
       </c>
       <c r="E47" s="3">
-        <v>1818200</v>
+        <v>1658600</v>
       </c>
       <c r="F47" s="3">
-        <v>1962300</v>
+        <v>1676500</v>
       </c>
       <c r="G47" s="3">
-        <v>1629800</v>
+        <v>1809400</v>
       </c>
       <c r="H47" s="3">
-        <v>1675600</v>
+        <v>1502800</v>
       </c>
       <c r="I47" s="3">
-        <v>1552300</v>
+        <v>1545000</v>
       </c>
       <c r="J47" s="3">
+        <v>1431300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1393500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1076100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1204300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1250400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1098000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1094900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18564400</v>
+        <v>16946700</v>
       </c>
       <c r="E48" s="3">
-        <v>19010000</v>
+        <v>17117500</v>
       </c>
       <c r="F48" s="3">
-        <v>19299100</v>
+        <v>17528400</v>
       </c>
       <c r="G48" s="3">
-        <v>17307300</v>
+        <v>17795000</v>
       </c>
       <c r="H48" s="3">
-        <v>17498700</v>
+        <v>15958400</v>
       </c>
       <c r="I48" s="3">
-        <v>17133700</v>
+        <v>16135000</v>
       </c>
       <c r="J48" s="3">
+        <v>15798400</v>
+      </c>
+      <c r="K48" s="3">
         <v>16792700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15769100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13792800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13851000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14603500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14838500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14308100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5512600</v>
+        <v>5095800</v>
       </c>
       <c r="E49" s="3">
-        <v>5744300</v>
+        <v>5082900</v>
       </c>
       <c r="F49" s="3">
-        <v>5577700</v>
+        <v>5296600</v>
       </c>
       <c r="G49" s="3">
-        <v>5587800</v>
+        <v>5143000</v>
       </c>
       <c r="H49" s="3">
-        <v>6062800</v>
+        <v>5152300</v>
       </c>
       <c r="I49" s="3">
-        <v>6139600</v>
+        <v>5590300</v>
       </c>
       <c r="J49" s="3">
+        <v>5661100</v>
+      </c>
+      <c r="K49" s="3">
         <v>7109900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6142900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6066400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6211100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6729000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6771300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6045700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2007300</v>
+        <v>1689300</v>
       </c>
       <c r="E52" s="3">
-        <v>2776100</v>
+        <v>1850800</v>
       </c>
       <c r="F52" s="3">
-        <v>2674500</v>
+        <v>2559700</v>
       </c>
       <c r="G52" s="3">
-        <v>2821800</v>
+        <v>2466100</v>
       </c>
       <c r="H52" s="3">
-        <v>2881500</v>
+        <v>2601900</v>
       </c>
       <c r="I52" s="3">
-        <v>2635000</v>
+        <v>2656900</v>
       </c>
       <c r="J52" s="3">
+        <v>2429600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1424500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2093900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1429800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1533100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1693000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1584700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1421500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33606300</v>
+        <v>30388400</v>
       </c>
       <c r="E54" s="3">
-        <v>34412300</v>
+        <v>30987200</v>
       </c>
       <c r="F54" s="3">
-        <v>35305900</v>
+        <v>31730400</v>
       </c>
       <c r="G54" s="3">
-        <v>33006500</v>
+        <v>32554300</v>
       </c>
       <c r="H54" s="3">
-        <v>33885300</v>
+        <v>30434100</v>
       </c>
       <c r="I54" s="3">
-        <v>33110300</v>
+        <v>31244500</v>
       </c>
       <c r="J54" s="3">
+        <v>30529900</v>
+      </c>
+      <c r="K54" s="3">
         <v>32691100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31025600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27703800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29131500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30048200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29346900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28035000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>833900</v>
+        <v>860400</v>
       </c>
       <c r="E57" s="3">
-        <v>765700</v>
+        <v>768900</v>
       </c>
       <c r="F57" s="3">
-        <v>778900</v>
+        <v>706000</v>
       </c>
       <c r="G57" s="3">
-        <v>3509200</v>
+        <v>718200</v>
       </c>
       <c r="H57" s="3">
-        <v>3433300</v>
+        <v>3235700</v>
       </c>
       <c r="I57" s="3">
-        <v>3509200</v>
+        <v>3165700</v>
       </c>
       <c r="J57" s="3">
+        <v>3235700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3261200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2913000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2557800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2657000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2866800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2960400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2699200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2590800</v>
+        <v>2954200</v>
       </c>
       <c r="E58" s="3">
-        <v>2614900</v>
+        <v>2388900</v>
       </c>
       <c r="F58" s="3">
-        <v>2848900</v>
+        <v>2411100</v>
       </c>
       <c r="G58" s="3">
-        <v>1722100</v>
+        <v>2626900</v>
       </c>
       <c r="H58" s="3">
-        <v>895100</v>
+        <v>1587800</v>
       </c>
       <c r="I58" s="3">
-        <v>1267100</v>
+        <v>825400</v>
       </c>
       <c r="J58" s="3">
+        <v>1168400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2170000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1828800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2478800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1786800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1335800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1085500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1779200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4032300</v>
+        <v>3634500</v>
       </c>
       <c r="E59" s="3">
-        <v>4442300</v>
+        <v>3718100</v>
       </c>
       <c r="F59" s="3">
-        <v>4168700</v>
+        <v>4096100</v>
       </c>
       <c r="G59" s="3">
-        <v>2172300</v>
+        <v>3843800</v>
       </c>
       <c r="H59" s="3">
-        <v>1917400</v>
+        <v>2003000</v>
       </c>
       <c r="I59" s="3">
-        <v>2983000</v>
+        <v>1767900</v>
       </c>
       <c r="J59" s="3">
+        <v>2750500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1829800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2878300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1613600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1739700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1790000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1852500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1736400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7457100</v>
+        <v>7449000</v>
       </c>
       <c r="E60" s="3">
-        <v>7822900</v>
+        <v>6875900</v>
       </c>
       <c r="F60" s="3">
-        <v>7796500</v>
+        <v>7213200</v>
       </c>
       <c r="G60" s="3">
-        <v>7403600</v>
+        <v>7188900</v>
       </c>
       <c r="H60" s="3">
-        <v>6245700</v>
+        <v>6826600</v>
       </c>
       <c r="I60" s="3">
-        <v>6808400</v>
+        <v>5759000</v>
       </c>
       <c r="J60" s="3">
+        <v>6277800</v>
+      </c>
+      <c r="K60" s="3">
         <v>7261000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6707200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6650300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6183500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5992500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5898400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6214800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11718000</v>
+        <v>9509200</v>
       </c>
       <c r="E61" s="3">
-        <v>12208600</v>
+        <v>10804800</v>
       </c>
       <c r="F61" s="3">
-        <v>12896000</v>
+        <v>11257100</v>
       </c>
       <c r="G61" s="3">
-        <v>11649000</v>
+        <v>11890900</v>
       </c>
       <c r="H61" s="3">
-        <v>13274200</v>
+        <v>10741200</v>
       </c>
       <c r="I61" s="3">
-        <v>11869900</v>
+        <v>12239700</v>
       </c>
       <c r="J61" s="3">
+        <v>10944800</v>
+      </c>
+      <c r="K61" s="3">
         <v>11484700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10937200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8940000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9857400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10966300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10258500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9559800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2662900</v>
+        <v>2514700</v>
       </c>
       <c r="E62" s="3">
-        <v>2642000</v>
+        <v>2455400</v>
       </c>
       <c r="F62" s="3">
-        <v>2683800</v>
+        <v>2436100</v>
       </c>
       <c r="G62" s="3">
-        <v>2693100</v>
+        <v>2474700</v>
       </c>
       <c r="H62" s="3">
-        <v>3124000</v>
+        <v>2483200</v>
       </c>
       <c r="I62" s="3">
-        <v>4119100</v>
+        <v>2880600</v>
       </c>
       <c r="J62" s="3">
+        <v>3798100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2826400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3786800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2447000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2385100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2604300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2661500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2353800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22368100</v>
+        <v>19963800</v>
       </c>
       <c r="E66" s="3">
-        <v>23195800</v>
+        <v>20624800</v>
       </c>
       <c r="F66" s="3">
-        <v>23905700</v>
+        <v>21388000</v>
       </c>
       <c r="G66" s="3">
-        <v>21731000</v>
+        <v>22042600</v>
       </c>
       <c r="H66" s="3">
-        <v>22629200</v>
+        <v>20037400</v>
       </c>
       <c r="I66" s="3">
-        <v>21770500</v>
+        <v>20865600</v>
       </c>
       <c r="J66" s="3">
+        <v>20073800</v>
+      </c>
+      <c r="K66" s="3">
         <v>21572900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20587700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18055800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18450300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19892100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19113800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18344600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7808100</v>
+        <v>7254600</v>
       </c>
       <c r="E72" s="3">
-        <v>7767100</v>
+        <v>7199600</v>
       </c>
       <c r="F72" s="3">
-        <v>7960000</v>
+        <v>7161700</v>
       </c>
       <c r="G72" s="3">
-        <v>7829100</v>
+        <v>7339700</v>
       </c>
       <c r="H72" s="3">
-        <v>7818200</v>
+        <v>7218900</v>
       </c>
       <c r="I72" s="3">
-        <v>7908100</v>
+        <v>7208900</v>
       </c>
       <c r="J72" s="3">
+        <v>7291800</v>
+      </c>
+      <c r="K72" s="3">
         <v>7691100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7169600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6583200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7160700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6362500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6415800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5968100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11238300</v>
+        <v>10424600</v>
       </c>
       <c r="E76" s="3">
-        <v>11216600</v>
+        <v>10362400</v>
       </c>
       <c r="F76" s="3">
-        <v>11400300</v>
+        <v>10342400</v>
       </c>
       <c r="G76" s="3">
-        <v>11275500</v>
+        <v>10511800</v>
       </c>
       <c r="H76" s="3">
-        <v>11256100</v>
+        <v>10396700</v>
       </c>
       <c r="I76" s="3">
-        <v>11339800</v>
+        <v>10378900</v>
       </c>
       <c r="J76" s="3">
+        <v>10456000</v>
+      </c>
+      <c r="K76" s="3">
         <v>11118200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10437900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9648000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10681200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10156200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10233100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9690400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>851000</v>
+        <v>542400</v>
       </c>
       <c r="E81" s="3">
-        <v>527000</v>
+        <v>784600</v>
       </c>
       <c r="F81" s="3">
-        <v>882700</v>
+        <v>485900</v>
       </c>
       <c r="G81" s="3">
-        <v>713800</v>
+        <v>813900</v>
       </c>
       <c r="H81" s="3">
-        <v>955600</v>
+        <v>658100</v>
       </c>
       <c r="I81" s="3">
-        <v>1455500</v>
+        <v>881100</v>
       </c>
       <c r="J81" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1327600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1551100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1188300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2481400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1480800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1557100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2668300</v>
+        <v>2706900</v>
       </c>
       <c r="E89" s="3">
-        <v>3314700</v>
+        <v>2460400</v>
       </c>
       <c r="F89" s="3">
-        <v>2118100</v>
+        <v>3056300</v>
       </c>
       <c r="G89" s="3">
-        <v>2996200</v>
+        <v>1953000</v>
       </c>
       <c r="H89" s="3">
-        <v>2183200</v>
+        <v>2762600</v>
       </c>
       <c r="I89" s="3">
-        <v>3745600</v>
+        <v>2013000</v>
       </c>
       <c r="J89" s="3">
+        <v>3453700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2924100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3407200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2098000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2998900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2601500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3350100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2680400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-849400</v>
+        <v>-702500</v>
       </c>
       <c r="E91" s="3">
-        <v>-901300</v>
+        <v>-783200</v>
       </c>
       <c r="F91" s="3">
-        <v>-913000</v>
+        <v>-831100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1085000</v>
+        <v>-841800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1422100</v>
+        <v>-1000400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1273300</v>
+        <v>-1311300</v>
       </c>
       <c r="J91" s="3">
+        <v>-1174100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1494200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1516300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-972500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1136200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5108200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2295800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-602200</v>
+        <v>-1119800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1366300</v>
+        <v>-555200</v>
       </c>
       <c r="F94" s="3">
-        <v>-940100</v>
+        <v>-1259800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1104400</v>
+        <v>-866800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1697300</v>
+        <v>-1018300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1436900</v>
+        <v>-1565000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1324900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1594200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1842800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1183700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-301500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1244500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1639900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2490300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-737000</v>
+        <v>-679600</v>
       </c>
       <c r="E96" s="3">
-        <v>-737800</v>
+        <v>-679600</v>
       </c>
       <c r="F96" s="3">
-        <v>-737000</v>
+        <v>-680300</v>
       </c>
       <c r="G96" s="3">
-        <v>-737000</v>
+        <v>-679600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1013700</v>
+        <v>-679600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1013700</v>
+        <v>-934700</v>
       </c>
       <c r="J96" s="3">
+        <v>-934700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1427600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1360500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1256700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1274700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1339300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1330000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1354000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1422900</v>
+        <v>-1715000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2130500</v>
+        <v>-1312000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1076500</v>
+        <v>-1964400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1843700</v>
+        <v>-992600</v>
       </c>
       <c r="H100" s="3">
-        <v>-549500</v>
+        <v>-1700000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2283900</v>
+        <v>-506700</v>
       </c>
       <c r="J100" s="3">
+        <v>-2105900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1602700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1745300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2482200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1761200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-820700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1951100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3042400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26400</v>
+        <v>6400</v>
       </c>
       <c r="E101" s="3">
-        <v>-2300</v>
+        <v>-24300</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>-2100</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="I101" s="3">
-        <v>3100</v>
+        <v>2100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>42800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>616900</v>
+        <v>-121500</v>
       </c>
       <c r="E102" s="3">
-        <v>-184500</v>
+        <v>568800</v>
       </c>
       <c r="F102" s="3">
-        <v>103100</v>
+        <v>-170100</v>
       </c>
       <c r="G102" s="3">
-        <v>48800</v>
+        <v>95000</v>
       </c>
       <c r="H102" s="3">
-        <v>-61200</v>
+        <v>45000</v>
       </c>
       <c r="I102" s="3">
-        <v>27900</v>
+        <v>-56500</v>
       </c>
       <c r="J102" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-272800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-186100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1567200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>932100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>544100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-198100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2799400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7556200</v>
+        <v>7549800</v>
       </c>
       <c r="E8" s="3">
-        <v>7849200</v>
+        <v>7842600</v>
       </c>
       <c r="F8" s="3">
-        <v>8250800</v>
+        <v>8243800</v>
       </c>
       <c r="G8" s="3">
-        <v>8692400</v>
+        <v>8685100</v>
       </c>
       <c r="H8" s="3">
-        <v>9056100</v>
+        <v>9048500</v>
       </c>
       <c r="I8" s="3">
-        <v>8994000</v>
+        <v>8986400</v>
       </c>
       <c r="J8" s="3">
-        <v>9317700</v>
+        <v>9309800</v>
       </c>
       <c r="K8" s="3">
         <v>9927000</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2937000</v>
+        <v>2934500</v>
       </c>
       <c r="E9" s="3">
-        <v>3007000</v>
+        <v>3004500</v>
       </c>
       <c r="F9" s="3">
-        <v>3205000</v>
+        <v>3202300</v>
       </c>
       <c r="G9" s="3">
-        <v>3302900</v>
+        <v>3300100</v>
       </c>
       <c r="H9" s="3">
-        <v>3398600</v>
+        <v>3395800</v>
       </c>
       <c r="I9" s="3">
-        <v>3131400</v>
+        <v>3128700</v>
       </c>
       <c r="J9" s="3">
-        <v>3107800</v>
+        <v>3105200</v>
       </c>
       <c r="K9" s="3">
         <v>3091500</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4619200</v>
+        <v>4615300</v>
       </c>
       <c r="E10" s="3">
-        <v>4842100</v>
+        <v>4838100</v>
       </c>
       <c r="F10" s="3">
-        <v>5045800</v>
+        <v>5041600</v>
       </c>
       <c r="G10" s="3">
-        <v>5389500</v>
+        <v>5385000</v>
       </c>
       <c r="H10" s="3">
-        <v>5657500</v>
+        <v>5652700</v>
       </c>
       <c r="I10" s="3">
-        <v>5862600</v>
+        <v>5857700</v>
       </c>
       <c r="J10" s="3">
-        <v>6209900</v>
+        <v>6204700</v>
       </c>
       <c r="K10" s="3">
         <v>6835500</v>
@@ -998,22 +998,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>86500</v>
+        <v>86400</v>
       </c>
       <c r="E14" s="3">
-        <v>104300</v>
+        <v>104200</v>
       </c>
       <c r="F14" s="3">
-        <v>386600</v>
+        <v>386300</v>
       </c>
       <c r="G14" s="3">
-        <v>135800</v>
+        <v>135700</v>
       </c>
       <c r="H14" s="3">
-        <v>928300</v>
+        <v>927500</v>
       </c>
       <c r="I14" s="3">
-        <v>95800</v>
+        <v>95700</v>
       </c>
       <c r="J14" s="3">
         <v>26400</v>
@@ -1045,25 +1045,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1584300</v>
+        <v>1582900</v>
       </c>
       <c r="E15" s="3">
-        <v>1735800</v>
+        <v>1734300</v>
       </c>
       <c r="F15" s="3">
-        <v>1869400</v>
+        <v>1867800</v>
       </c>
       <c r="G15" s="3">
-        <v>1945100</v>
+        <v>1943500</v>
       </c>
       <c r="H15" s="3">
-        <v>1530000</v>
+        <v>1528700</v>
       </c>
       <c r="I15" s="3">
-        <v>1530000</v>
+        <v>1528700</v>
       </c>
       <c r="J15" s="3">
-        <v>1608600</v>
+        <v>1607200</v>
       </c>
       <c r="K15" s="3">
         <v>1719700</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6977400</v>
+        <v>6971500</v>
       </c>
       <c r="E17" s="3">
-        <v>7338200</v>
+        <v>7332100</v>
       </c>
       <c r="F17" s="3">
-        <v>8017100</v>
+        <v>8010400</v>
       </c>
       <c r="G17" s="3">
-        <v>8119300</v>
+        <v>8112500</v>
       </c>
       <c r="H17" s="3">
-        <v>8877500</v>
+        <v>8870000</v>
       </c>
       <c r="I17" s="3">
-        <v>8347200</v>
+        <v>8340200</v>
       </c>
       <c r="J17" s="3">
-        <v>8058500</v>
+        <v>8051800</v>
       </c>
       <c r="K17" s="3">
         <v>8923400</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>578800</v>
+        <v>578300</v>
       </c>
       <c r="E18" s="3">
-        <v>510900</v>
+        <v>510500</v>
       </c>
       <c r="F18" s="3">
-        <v>233700</v>
+        <v>233500</v>
       </c>
       <c r="G18" s="3">
-        <v>573100</v>
+        <v>572600</v>
       </c>
       <c r="H18" s="3">
-        <v>178700</v>
+        <v>178500</v>
       </c>
       <c r="I18" s="3">
-        <v>646700</v>
+        <v>646200</v>
       </c>
       <c r="J18" s="3">
-        <v>1259100</v>
+        <v>1258100</v>
       </c>
       <c r="K18" s="3">
         <v>1003600</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>397300</v>
+        <v>397000</v>
       </c>
       <c r="E20" s="3">
-        <v>647400</v>
+        <v>646900</v>
       </c>
       <c r="F20" s="3">
-        <v>807500</v>
+        <v>806800</v>
       </c>
       <c r="G20" s="3">
-        <v>905400</v>
+        <v>904600</v>
       </c>
       <c r="H20" s="3">
-        <v>972600</v>
+        <v>971800</v>
       </c>
       <c r="I20" s="3">
-        <v>888200</v>
+        <v>887500</v>
       </c>
       <c r="J20" s="3">
-        <v>803900</v>
+        <v>803300</v>
       </c>
       <c r="K20" s="3">
         <v>1272600</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>824600</v>
+        <v>824000</v>
       </c>
       <c r="E21" s="3">
-        <v>2894100</v>
+        <v>2891700</v>
       </c>
       <c r="F21" s="3">
-        <v>965400</v>
+        <v>964600</v>
       </c>
       <c r="G21" s="3">
-        <v>3423600</v>
+        <v>3420800</v>
       </c>
       <c r="H21" s="3">
-        <v>1151200</v>
+        <v>1150300</v>
       </c>
       <c r="I21" s="3">
-        <v>3064900</v>
+        <v>3062300</v>
       </c>
       <c r="J21" s="3">
-        <v>2085900</v>
+        <v>2084200</v>
       </c>
       <c r="K21" s="3">
         <v>3995900</v>
@@ -1315,25 +1315,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>185100</v>
+        <v>184900</v>
       </c>
       <c r="E22" s="3">
-        <v>205100</v>
+        <v>204900</v>
       </c>
       <c r="F22" s="3">
-        <v>240800</v>
+        <v>240600</v>
       </c>
       <c r="G22" s="3">
-        <v>280800</v>
+        <v>280600</v>
       </c>
       <c r="H22" s="3">
-        <v>240100</v>
+        <v>239900</v>
       </c>
       <c r="I22" s="3">
-        <v>250800</v>
+        <v>250600</v>
       </c>
       <c r="J22" s="3">
-        <v>235100</v>
+        <v>234900</v>
       </c>
       <c r="K22" s="3">
         <v>275900</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>791100</v>
+        <v>790400</v>
       </c>
       <c r="E23" s="3">
-        <v>953300</v>
+        <v>952500</v>
       </c>
       <c r="F23" s="3">
-        <v>800400</v>
+        <v>799700</v>
       </c>
       <c r="G23" s="3">
-        <v>1197700</v>
+        <v>1196700</v>
       </c>
       <c r="H23" s="3">
-        <v>911100</v>
+        <v>910400</v>
       </c>
       <c r="I23" s="3">
-        <v>1284100</v>
+        <v>1283100</v>
       </c>
       <c r="J23" s="3">
-        <v>1827900</v>
+        <v>1826400</v>
       </c>
       <c r="K23" s="3">
         <v>2000300</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>235800</v>
+        <v>235600</v>
       </c>
       <c r="E24" s="3">
-        <v>149400</v>
+        <v>149200</v>
       </c>
       <c r="F24" s="3">
-        <v>308000</v>
+        <v>307700</v>
       </c>
       <c r="G24" s="3">
-        <v>375900</v>
+        <v>375600</v>
       </c>
       <c r="H24" s="3">
-        <v>253000</v>
+        <v>252800</v>
       </c>
       <c r="I24" s="3">
-        <v>406600</v>
+        <v>406300</v>
       </c>
       <c r="J24" s="3">
-        <v>495200</v>
+        <v>494800</v>
       </c>
       <c r="K24" s="3">
         <v>689000</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>555200</v>
+        <v>554800</v>
       </c>
       <c r="E26" s="3">
-        <v>803900</v>
+        <v>803300</v>
       </c>
       <c r="F26" s="3">
-        <v>492400</v>
+        <v>491900</v>
       </c>
       <c r="G26" s="3">
-        <v>821800</v>
+        <v>821100</v>
       </c>
       <c r="H26" s="3">
-        <v>658100</v>
+        <v>657600</v>
       </c>
       <c r="I26" s="3">
-        <v>877500</v>
+        <v>876800</v>
       </c>
       <c r="J26" s="3">
-        <v>1332700</v>
+        <v>1331600</v>
       </c>
       <c r="K26" s="3">
         <v>1311300</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>542400</v>
+        <v>541900</v>
       </c>
       <c r="E27" s="3">
-        <v>784600</v>
+        <v>784000</v>
       </c>
       <c r="F27" s="3">
-        <v>485900</v>
+        <v>485500</v>
       </c>
       <c r="G27" s="3">
-        <v>813900</v>
+        <v>813200</v>
       </c>
       <c r="H27" s="3">
-        <v>658100</v>
+        <v>657600</v>
       </c>
       <c r="I27" s="3">
-        <v>881100</v>
+        <v>880400</v>
       </c>
       <c r="J27" s="3">
-        <v>1342000</v>
+        <v>1340900</v>
       </c>
       <c r="K27" s="3">
         <v>1327600</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-397300</v>
+        <v>-397000</v>
       </c>
       <c r="E32" s="3">
-        <v>-647400</v>
+        <v>-646900</v>
       </c>
       <c r="F32" s="3">
-        <v>-807500</v>
+        <v>-806800</v>
       </c>
       <c r="G32" s="3">
-        <v>-905400</v>
+        <v>-904600</v>
       </c>
       <c r="H32" s="3">
-        <v>-972600</v>
+        <v>-971800</v>
       </c>
       <c r="I32" s="3">
-        <v>-888200</v>
+        <v>-887500</v>
       </c>
       <c r="J32" s="3">
-        <v>-803900</v>
+        <v>-803300</v>
       </c>
       <c r="K32" s="3">
         <v>-1272600</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>542400</v>
+        <v>541900</v>
       </c>
       <c r="E33" s="3">
-        <v>784600</v>
+        <v>784000</v>
       </c>
       <c r="F33" s="3">
-        <v>485900</v>
+        <v>485500</v>
       </c>
       <c r="G33" s="3">
-        <v>813900</v>
+        <v>813200</v>
       </c>
       <c r="H33" s="3">
-        <v>658100</v>
+        <v>657600</v>
       </c>
       <c r="I33" s="3">
-        <v>881100</v>
+        <v>880400</v>
       </c>
       <c r="J33" s="3">
-        <v>1342000</v>
+        <v>1340900</v>
       </c>
       <c r="K33" s="3">
         <v>1327600</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>542400</v>
+        <v>541900</v>
       </c>
       <c r="E35" s="3">
-        <v>784600</v>
+        <v>784000</v>
       </c>
       <c r="F35" s="3">
-        <v>485900</v>
+        <v>485500</v>
       </c>
       <c r="G35" s="3">
-        <v>813900</v>
+        <v>813200</v>
       </c>
       <c r="H35" s="3">
-        <v>658100</v>
+        <v>657600</v>
       </c>
       <c r="I35" s="3">
-        <v>881100</v>
+        <v>880400</v>
       </c>
       <c r="J35" s="3">
-        <v>1342000</v>
+        <v>1340900</v>
       </c>
       <c r="K35" s="3">
         <v>1327600</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>803900</v>
+        <v>803300</v>
       </c>
       <c r="E41" s="3">
-        <v>925400</v>
+        <v>924600</v>
       </c>
       <c r="F41" s="3">
-        <v>356600</v>
+        <v>356300</v>
       </c>
       <c r="G41" s="3">
-        <v>538800</v>
+        <v>538400</v>
       </c>
       <c r="H41" s="3">
-        <v>431600</v>
+        <v>431300</v>
       </c>
       <c r="I41" s="3">
-        <v>386600</v>
+        <v>386300</v>
       </c>
       <c r="J41" s="3">
-        <v>449500</v>
+        <v>449100</v>
       </c>
       <c r="K41" s="3">
         <v>96900</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3274300</v>
+        <v>3271500</v>
       </c>
       <c r="E43" s="3">
-        <v>3282900</v>
+        <v>3280100</v>
       </c>
       <c r="F43" s="3">
-        <v>3660900</v>
+        <v>3657800</v>
       </c>
       <c r="G43" s="3">
-        <v>3790200</v>
+        <v>3787100</v>
       </c>
       <c r="H43" s="3">
-        <v>3858100</v>
+        <v>3854900</v>
       </c>
       <c r="I43" s="3">
-        <v>3914600</v>
+        <v>3911300</v>
       </c>
       <c r="J43" s="3">
-        <v>3997500</v>
+        <v>3994100</v>
       </c>
       <c r="K43" s="3">
         <v>4205200</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>275100</v>
+        <v>274900</v>
       </c>
       <c r="E44" s="3">
-        <v>329400</v>
+        <v>329200</v>
       </c>
       <c r="F44" s="3">
-        <v>298700</v>
+        <v>298500</v>
       </c>
       <c r="G44" s="3">
-        <v>532400</v>
+        <v>531900</v>
       </c>
       <c r="H44" s="3">
-        <v>320100</v>
+        <v>319900</v>
       </c>
       <c r="I44" s="3">
-        <v>621000</v>
+        <v>620500</v>
       </c>
       <c r="J44" s="3">
-        <v>351600</v>
+        <v>351300</v>
       </c>
       <c r="K44" s="3">
         <v>854100</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>730300</v>
+        <v>729700</v>
       </c>
       <c r="E45" s="3">
-        <v>739600</v>
+        <v>739000</v>
       </c>
       <c r="F45" s="3">
-        <v>353000</v>
+        <v>352700</v>
       </c>
       <c r="G45" s="3">
-        <v>479500</v>
+        <v>479100</v>
       </c>
       <c r="H45" s="3">
-        <v>608800</v>
+        <v>608300</v>
       </c>
       <c r="I45" s="3">
-        <v>395200</v>
+        <v>394800</v>
       </c>
       <c r="J45" s="3">
-        <v>410900</v>
+        <v>410600</v>
       </c>
       <c r="K45" s="3">
         <v>456500</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5083700</v>
+        <v>5079400</v>
       </c>
       <c r="E46" s="3">
-        <v>5277300</v>
+        <v>5272900</v>
       </c>
       <c r="F46" s="3">
-        <v>4669200</v>
+        <v>4665300</v>
       </c>
       <c r="G46" s="3">
-        <v>5340900</v>
+        <v>5336400</v>
       </c>
       <c r="H46" s="3">
-        <v>5218700</v>
+        <v>5214300</v>
       </c>
       <c r="I46" s="3">
-        <v>5317300</v>
+        <v>5312900</v>
       </c>
       <c r="J46" s="3">
-        <v>5209400</v>
+        <v>5205100</v>
       </c>
       <c r="K46" s="3">
         <v>5970600</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1572800</v>
+        <v>1571500</v>
       </c>
       <c r="E47" s="3">
-        <v>1658600</v>
+        <v>1657200</v>
       </c>
       <c r="F47" s="3">
-        <v>1676500</v>
+        <v>1675000</v>
       </c>
       <c r="G47" s="3">
-        <v>1809400</v>
+        <v>1807800</v>
       </c>
       <c r="H47" s="3">
-        <v>1502800</v>
+        <v>1501500</v>
       </c>
       <c r="I47" s="3">
-        <v>1545000</v>
+        <v>1543700</v>
       </c>
       <c r="J47" s="3">
-        <v>1431300</v>
+        <v>1430100</v>
       </c>
       <c r="K47" s="3">
         <v>1393500</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16946700</v>
+        <v>16932500</v>
       </c>
       <c r="E48" s="3">
-        <v>17117500</v>
+        <v>17103200</v>
       </c>
       <c r="F48" s="3">
-        <v>17528400</v>
+        <v>17513700</v>
       </c>
       <c r="G48" s="3">
-        <v>17795000</v>
+        <v>17780000</v>
       </c>
       <c r="H48" s="3">
-        <v>15958400</v>
+        <v>15945000</v>
       </c>
       <c r="I48" s="3">
-        <v>16135000</v>
+        <v>16121400</v>
       </c>
       <c r="J48" s="3">
-        <v>15798400</v>
+        <v>15785100</v>
       </c>
       <c r="K48" s="3">
         <v>16792700</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5095800</v>
+        <v>5091500</v>
       </c>
       <c r="E49" s="3">
-        <v>5082900</v>
+        <v>5078700</v>
       </c>
       <c r="F49" s="3">
-        <v>5296600</v>
+        <v>5292200</v>
       </c>
       <c r="G49" s="3">
-        <v>5143000</v>
+        <v>5138700</v>
       </c>
       <c r="H49" s="3">
-        <v>5152300</v>
+        <v>5147900</v>
       </c>
       <c r="I49" s="3">
-        <v>5590300</v>
+        <v>5585600</v>
       </c>
       <c r="J49" s="3">
-        <v>5661100</v>
+        <v>5656300</v>
       </c>
       <c r="K49" s="3">
         <v>7109900</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1689300</v>
+        <v>1687900</v>
       </c>
       <c r="E52" s="3">
-        <v>1850800</v>
+        <v>1849300</v>
       </c>
       <c r="F52" s="3">
-        <v>2559700</v>
+        <v>2557500</v>
       </c>
       <c r="G52" s="3">
-        <v>2466100</v>
+        <v>2464000</v>
       </c>
       <c r="H52" s="3">
-        <v>2601900</v>
+        <v>2599700</v>
       </c>
       <c r="I52" s="3">
-        <v>2656900</v>
+        <v>2654700</v>
       </c>
       <c r="J52" s="3">
-        <v>2429600</v>
+        <v>2427600</v>
       </c>
       <c r="K52" s="3">
         <v>1424500</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30388400</v>
+        <v>30362900</v>
       </c>
       <c r="E54" s="3">
-        <v>30987200</v>
+        <v>30961200</v>
       </c>
       <c r="F54" s="3">
-        <v>31730400</v>
+        <v>31703700</v>
       </c>
       <c r="G54" s="3">
-        <v>32554300</v>
+        <v>32527000</v>
       </c>
       <c r="H54" s="3">
-        <v>30434100</v>
+        <v>30408500</v>
       </c>
       <c r="I54" s="3">
-        <v>31244500</v>
+        <v>31218200</v>
       </c>
       <c r="J54" s="3">
-        <v>30529900</v>
+        <v>30504200</v>
       </c>
       <c r="K54" s="3">
         <v>32691100</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>860400</v>
+        <v>859700</v>
       </c>
       <c r="E57" s="3">
-        <v>768900</v>
+        <v>768300</v>
       </c>
       <c r="F57" s="3">
-        <v>706000</v>
+        <v>705400</v>
       </c>
       <c r="G57" s="3">
-        <v>718200</v>
+        <v>717600</v>
       </c>
       <c r="H57" s="3">
-        <v>3235700</v>
+        <v>3233000</v>
       </c>
       <c r="I57" s="3">
-        <v>3165700</v>
+        <v>3163000</v>
       </c>
       <c r="J57" s="3">
-        <v>3235700</v>
+        <v>3233000</v>
       </c>
       <c r="K57" s="3">
         <v>3261200</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2954200</v>
+        <v>2951700</v>
       </c>
       <c r="E58" s="3">
-        <v>2388900</v>
+        <v>2386900</v>
       </c>
       <c r="F58" s="3">
-        <v>2411100</v>
+        <v>2409000</v>
       </c>
       <c r="G58" s="3">
-        <v>2626900</v>
+        <v>2624700</v>
       </c>
       <c r="H58" s="3">
-        <v>1587800</v>
+        <v>1586500</v>
       </c>
       <c r="I58" s="3">
-        <v>825400</v>
+        <v>824700</v>
       </c>
       <c r="J58" s="3">
-        <v>1168400</v>
+        <v>1167400</v>
       </c>
       <c r="K58" s="3">
         <v>2170000</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3634500</v>
+        <v>3631400</v>
       </c>
       <c r="E59" s="3">
-        <v>3718100</v>
+        <v>3714900</v>
       </c>
       <c r="F59" s="3">
-        <v>4096100</v>
+        <v>4092600</v>
       </c>
       <c r="G59" s="3">
-        <v>3843800</v>
+        <v>3840600</v>
       </c>
       <c r="H59" s="3">
-        <v>2003000</v>
+        <v>2001300</v>
       </c>
       <c r="I59" s="3">
-        <v>1767900</v>
+        <v>1766400</v>
       </c>
       <c r="J59" s="3">
-        <v>2750500</v>
+        <v>2748200</v>
       </c>
       <c r="K59" s="3">
         <v>1829800</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7449000</v>
+        <v>7442700</v>
       </c>
       <c r="E60" s="3">
-        <v>6875900</v>
+        <v>6870100</v>
       </c>
       <c r="F60" s="3">
-        <v>7213200</v>
+        <v>7207100</v>
       </c>
       <c r="G60" s="3">
-        <v>7188900</v>
+        <v>7182800</v>
       </c>
       <c r="H60" s="3">
-        <v>6826600</v>
+        <v>6820800</v>
       </c>
       <c r="I60" s="3">
-        <v>5759000</v>
+        <v>5754100</v>
       </c>
       <c r="J60" s="3">
-        <v>6277800</v>
+        <v>6272500</v>
       </c>
       <c r="K60" s="3">
         <v>7261000</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9509200</v>
+        <v>9501200</v>
       </c>
       <c r="E61" s="3">
-        <v>10804800</v>
+        <v>10795700</v>
       </c>
       <c r="F61" s="3">
-        <v>11257100</v>
+        <v>11247600</v>
       </c>
       <c r="G61" s="3">
-        <v>11890900</v>
+        <v>11881000</v>
       </c>
       <c r="H61" s="3">
-        <v>10741200</v>
+        <v>10732100</v>
       </c>
       <c r="I61" s="3">
-        <v>12239700</v>
+        <v>12229400</v>
       </c>
       <c r="J61" s="3">
-        <v>10944800</v>
+        <v>10935600</v>
       </c>
       <c r="K61" s="3">
         <v>11484700</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2514700</v>
+        <v>2512600</v>
       </c>
       <c r="E62" s="3">
-        <v>2455400</v>
+        <v>2453300</v>
       </c>
       <c r="F62" s="3">
-        <v>2436100</v>
+        <v>2434000</v>
       </c>
       <c r="G62" s="3">
-        <v>2474700</v>
+        <v>2472600</v>
       </c>
       <c r="H62" s="3">
-        <v>2483200</v>
+        <v>2481200</v>
       </c>
       <c r="I62" s="3">
-        <v>2880600</v>
+        <v>2878100</v>
       </c>
       <c r="J62" s="3">
-        <v>3798100</v>
+        <v>3794900</v>
       </c>
       <c r="K62" s="3">
         <v>2826400</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19963800</v>
+        <v>19947000</v>
       </c>
       <c r="E66" s="3">
-        <v>20624800</v>
+        <v>20607500</v>
       </c>
       <c r="F66" s="3">
-        <v>21388000</v>
+        <v>21370000</v>
       </c>
       <c r="G66" s="3">
-        <v>22042600</v>
+        <v>22024000</v>
       </c>
       <c r="H66" s="3">
-        <v>20037400</v>
+        <v>20020600</v>
       </c>
       <c r="I66" s="3">
-        <v>20865600</v>
+        <v>20848100</v>
       </c>
       <c r="J66" s="3">
-        <v>20073800</v>
+        <v>20057000</v>
       </c>
       <c r="K66" s="3">
         <v>21572900</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7254600</v>
+        <v>7248500</v>
       </c>
       <c r="E72" s="3">
-        <v>7199600</v>
+        <v>7193600</v>
       </c>
       <c r="F72" s="3">
-        <v>7161700</v>
+        <v>7155700</v>
       </c>
       <c r="G72" s="3">
-        <v>7339700</v>
+        <v>7333500</v>
       </c>
       <c r="H72" s="3">
-        <v>7218900</v>
+        <v>7212800</v>
       </c>
       <c r="I72" s="3">
-        <v>7208900</v>
+        <v>7202800</v>
       </c>
       <c r="J72" s="3">
-        <v>7291800</v>
+        <v>7285700</v>
       </c>
       <c r="K72" s="3">
         <v>7691100</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10424600</v>
+        <v>10415800</v>
       </c>
       <c r="E76" s="3">
-        <v>10362400</v>
+        <v>10353700</v>
       </c>
       <c r="F76" s="3">
-        <v>10342400</v>
+        <v>10333700</v>
       </c>
       <c r="G76" s="3">
-        <v>10511800</v>
+        <v>10502900</v>
       </c>
       <c r="H76" s="3">
-        <v>10396700</v>
+        <v>10388000</v>
       </c>
       <c r="I76" s="3">
-        <v>10378900</v>
+        <v>10370100</v>
       </c>
       <c r="J76" s="3">
-        <v>10456000</v>
+        <v>10447200</v>
       </c>
       <c r="K76" s="3">
         <v>11118200</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>542400</v>
+        <v>541900</v>
       </c>
       <c r="E81" s="3">
-        <v>784600</v>
+        <v>784000</v>
       </c>
       <c r="F81" s="3">
-        <v>485900</v>
+        <v>485500</v>
       </c>
       <c r="G81" s="3">
-        <v>813900</v>
+        <v>813200</v>
       </c>
       <c r="H81" s="3">
-        <v>658100</v>
+        <v>657600</v>
       </c>
       <c r="I81" s="3">
-        <v>881100</v>
+        <v>880400</v>
       </c>
       <c r="J81" s="3">
-        <v>1342000</v>
+        <v>1340900</v>
       </c>
       <c r="K81" s="3">
         <v>1327600</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2706900</v>
+        <v>2704600</v>
       </c>
       <c r="E89" s="3">
-        <v>2460400</v>
+        <v>2458300</v>
       </c>
       <c r="F89" s="3">
-        <v>3056300</v>
+        <v>3053800</v>
       </c>
       <c r="G89" s="3">
-        <v>1953000</v>
+        <v>1951400</v>
       </c>
       <c r="H89" s="3">
-        <v>2762600</v>
+        <v>2760300</v>
       </c>
       <c r="I89" s="3">
-        <v>2013000</v>
+        <v>2011300</v>
       </c>
       <c r="J89" s="3">
-        <v>3453700</v>
+        <v>3450800</v>
       </c>
       <c r="K89" s="3">
         <v>2924100</v>
@@ -4184,25 +4184,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-702500</v>
+        <v>-701900</v>
       </c>
       <c r="E91" s="3">
-        <v>-783200</v>
+        <v>-782500</v>
       </c>
       <c r="F91" s="3">
-        <v>-831100</v>
+        <v>-830400</v>
       </c>
       <c r="G91" s="3">
-        <v>-841800</v>
+        <v>-841100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1000400</v>
+        <v>-999600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1311300</v>
+        <v>-1310200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1174100</v>
+        <v>-1173100</v>
       </c>
       <c r="K91" s="3">
         <v>-1494200</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1119800</v>
+        <v>-1118800</v>
       </c>
       <c r="E94" s="3">
-        <v>-555200</v>
+        <v>-554800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1259800</v>
+        <v>-1258800</v>
       </c>
       <c r="G94" s="3">
-        <v>-866800</v>
+        <v>-866100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1018300</v>
+        <v>-1017500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1565000</v>
+        <v>-1563700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1324900</v>
+        <v>-1323800</v>
       </c>
       <c r="K94" s="3">
         <v>-1594200</v>
@@ -4391,25 +4391,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-679600</v>
+        <v>-679000</v>
       </c>
       <c r="E96" s="3">
-        <v>-679600</v>
+        <v>-679000</v>
       </c>
       <c r="F96" s="3">
-        <v>-680300</v>
+        <v>-679700</v>
       </c>
       <c r="G96" s="3">
-        <v>-679600</v>
+        <v>-679000</v>
       </c>
       <c r="H96" s="3">
-        <v>-679600</v>
+        <v>-679000</v>
       </c>
       <c r="I96" s="3">
-        <v>-934700</v>
+        <v>-933900</v>
       </c>
       <c r="J96" s="3">
-        <v>-934700</v>
+        <v>-933900</v>
       </c>
       <c r="K96" s="3">
         <v>-1427600</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1715000</v>
+        <v>-1713600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1312000</v>
+        <v>-1310900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1964400</v>
+        <v>-1962800</v>
       </c>
       <c r="G100" s="3">
-        <v>-992600</v>
+        <v>-991700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1700000</v>
+        <v>-1698600</v>
       </c>
       <c r="I100" s="3">
-        <v>-506700</v>
+        <v>-506200</v>
       </c>
       <c r="J100" s="3">
-        <v>-2105900</v>
+        <v>-2104200</v>
       </c>
       <c r="K100" s="3">
         <v>-1602700</v>
@@ -4673,13 +4673,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-121500</v>
+        <v>-121400</v>
       </c>
       <c r="E102" s="3">
-        <v>568800</v>
+        <v>568300</v>
       </c>
       <c r="F102" s="3">
-        <v>-170100</v>
+        <v>-169900</v>
       </c>
       <c r="G102" s="3">
         <v>95000</v>
@@ -4688,7 +4688,7 @@
         <v>45000</v>
       </c>
       <c r="I102" s="3">
-        <v>-56500</v>
+        <v>-56400</v>
       </c>
       <c r="J102" s="3">
         <v>25700</v>

--- a/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TLSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7549800</v>
+        <v>7656700</v>
       </c>
       <c r="E8" s="3">
-        <v>7842600</v>
+        <v>7708400</v>
       </c>
       <c r="F8" s="3">
-        <v>8243800</v>
+        <v>8007300</v>
       </c>
       <c r="G8" s="3">
-        <v>8685100</v>
+        <v>8417000</v>
       </c>
       <c r="H8" s="3">
-        <v>9048500</v>
+        <v>8867600</v>
       </c>
       <c r="I8" s="3">
-        <v>8986400</v>
+        <v>9238600</v>
       </c>
       <c r="J8" s="3">
+        <v>9175200</v>
+      </c>
+      <c r="K8" s="3">
         <v>9309800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9927000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9754700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8496800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8230800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9402000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9293500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9229600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2934500</v>
+        <v>3023900</v>
       </c>
       <c r="E9" s="3">
-        <v>3004500</v>
+        <v>2996200</v>
       </c>
       <c r="F9" s="3">
-        <v>3202300</v>
+        <v>3067600</v>
       </c>
       <c r="G9" s="3">
-        <v>3300100</v>
+        <v>3269600</v>
       </c>
       <c r="H9" s="3">
-        <v>3395800</v>
+        <v>3369400</v>
       </c>
       <c r="I9" s="3">
-        <v>3128700</v>
+        <v>3467100</v>
       </c>
       <c r="J9" s="3">
+        <v>3194500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3105200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3091500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2938200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2450300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2239100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2757100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2599800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2366900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4615300</v>
+        <v>4632800</v>
       </c>
       <c r="E10" s="3">
-        <v>4838100</v>
+        <v>4712300</v>
       </c>
       <c r="F10" s="3">
-        <v>5041600</v>
+        <v>4939700</v>
       </c>
       <c r="G10" s="3">
-        <v>5385000</v>
+        <v>5147500</v>
       </c>
       <c r="H10" s="3">
-        <v>5652700</v>
+        <v>5498100</v>
       </c>
       <c r="I10" s="3">
-        <v>5857700</v>
+        <v>5771500</v>
       </c>
       <c r="J10" s="3">
+        <v>5980700</v>
+      </c>
+      <c r="K10" s="3">
         <v>6204700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6835500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6816500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6046500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5991700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6644800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6693700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6862700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,43 +1009,46 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>86400</v>
+        <v>196800</v>
       </c>
       <c r="E14" s="3">
-        <v>104200</v>
+        <v>88200</v>
       </c>
       <c r="F14" s="3">
-        <v>386300</v>
+        <v>106400</v>
       </c>
       <c r="G14" s="3">
-        <v>135700</v>
+        <v>394400</v>
       </c>
       <c r="H14" s="3">
-        <v>927500</v>
+        <v>138500</v>
       </c>
       <c r="I14" s="3">
-        <v>95700</v>
+        <v>947000</v>
       </c>
       <c r="J14" s="3">
+        <v>97700</v>
+      </c>
+      <c r="K14" s="3">
         <v>26400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>344100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>203900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>110100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1039,55 +1059,61 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1582900</v>
+        <v>1595800</v>
       </c>
       <c r="E15" s="3">
-        <v>1734300</v>
+        <v>1616200</v>
       </c>
       <c r="F15" s="3">
-        <v>1867800</v>
+        <v>1770700</v>
       </c>
       <c r="G15" s="3">
-        <v>1943500</v>
+        <v>1907100</v>
       </c>
       <c r="H15" s="3">
-        <v>1528700</v>
+        <v>1984300</v>
       </c>
       <c r="I15" s="3">
-        <v>1528700</v>
+        <v>1560800</v>
       </c>
       <c r="J15" s="3">
+        <v>1560800</v>
+      </c>
+      <c r="K15" s="3">
         <v>1607200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1719700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1619700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1491500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1424700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1436900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1440300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1443200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6971500</v>
+        <v>7001300</v>
       </c>
       <c r="E17" s="3">
-        <v>7332100</v>
+        <v>7118000</v>
       </c>
       <c r="F17" s="3">
-        <v>8010400</v>
+        <v>7486100</v>
       </c>
       <c r="G17" s="3">
-        <v>8112500</v>
+        <v>8178700</v>
       </c>
       <c r="H17" s="3">
-        <v>8870000</v>
+        <v>8282900</v>
       </c>
       <c r="I17" s="3">
-        <v>8340200</v>
+        <v>9056400</v>
       </c>
       <c r="J17" s="3">
+        <v>8515400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8051800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8923400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8277500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7140600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6674800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7471200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7372800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6814800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>578300</v>
+        <v>655400</v>
       </c>
       <c r="E18" s="3">
-        <v>510500</v>
+        <v>590500</v>
       </c>
       <c r="F18" s="3">
-        <v>233500</v>
+        <v>521200</v>
       </c>
       <c r="G18" s="3">
-        <v>572600</v>
+        <v>238400</v>
       </c>
       <c r="H18" s="3">
-        <v>178500</v>
+        <v>584700</v>
       </c>
       <c r="I18" s="3">
-        <v>646200</v>
+        <v>182300</v>
       </c>
       <c r="J18" s="3">
+        <v>659700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1258100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1003600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1477200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1356200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1556000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1930800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1920700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2414800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,243 +1248,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>397000</v>
+        <v>288000</v>
       </c>
       <c r="E20" s="3">
-        <v>646900</v>
+        <v>405300</v>
       </c>
       <c r="F20" s="3">
-        <v>806800</v>
+        <v>660500</v>
       </c>
       <c r="G20" s="3">
-        <v>904600</v>
+        <v>823800</v>
       </c>
       <c r="H20" s="3">
-        <v>971800</v>
+        <v>923600</v>
       </c>
       <c r="I20" s="3">
-        <v>887500</v>
+        <v>992200</v>
       </c>
       <c r="J20" s="3">
+        <v>906100</v>
+      </c>
+      <c r="K20" s="3">
         <v>803300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1272600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>989700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>664800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>452300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>405400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>468700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>824000</v>
+        <v>2539100</v>
       </c>
       <c r="E21" s="3">
-        <v>2891700</v>
+        <v>841300</v>
       </c>
       <c r="F21" s="3">
-        <v>964600</v>
+        <v>2952500</v>
       </c>
       <c r="G21" s="3">
-        <v>3420800</v>
+        <v>984900</v>
       </c>
       <c r="H21" s="3">
-        <v>1150300</v>
+        <v>3492600</v>
       </c>
       <c r="I21" s="3">
-        <v>3062300</v>
+        <v>1174400</v>
       </c>
       <c r="J21" s="3">
+        <v>3126700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2084200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3995900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2426300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3512600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2061400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3778100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2386500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3901600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>184900</v>
+        <v>185900</v>
       </c>
       <c r="E22" s="3">
-        <v>204900</v>
+        <v>188800</v>
       </c>
       <c r="F22" s="3">
-        <v>240600</v>
+        <v>209200</v>
       </c>
       <c r="G22" s="3">
-        <v>280600</v>
+        <v>245700</v>
       </c>
       <c r="H22" s="3">
-        <v>239900</v>
+        <v>286500</v>
       </c>
       <c r="I22" s="3">
-        <v>250600</v>
+        <v>244900</v>
       </c>
       <c r="J22" s="3">
+        <v>255900</v>
+      </c>
+      <c r="K22" s="3">
         <v>234900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>275900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>259200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>257400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>280000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>288000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>296000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>299700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>790400</v>
+        <v>757400</v>
       </c>
       <c r="E23" s="3">
-        <v>952500</v>
+        <v>807000</v>
       </c>
       <c r="F23" s="3">
-        <v>799700</v>
+        <v>972500</v>
       </c>
       <c r="G23" s="3">
-        <v>1196700</v>
+        <v>816500</v>
       </c>
       <c r="H23" s="3">
-        <v>910400</v>
+        <v>1221800</v>
       </c>
       <c r="I23" s="3">
-        <v>1283100</v>
+        <v>929500</v>
       </c>
       <c r="J23" s="3">
+        <v>1310000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1826400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2207700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1763600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1728300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2048200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2093400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2158700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>235600</v>
+        <v>215800</v>
       </c>
       <c r="E24" s="3">
-        <v>149200</v>
+        <v>240600</v>
       </c>
       <c r="F24" s="3">
-        <v>307700</v>
+        <v>152400</v>
       </c>
       <c r="G24" s="3">
-        <v>375600</v>
+        <v>314200</v>
       </c>
       <c r="H24" s="3">
-        <v>252800</v>
+        <v>383500</v>
       </c>
       <c r="I24" s="3">
-        <v>406300</v>
+        <v>258100</v>
       </c>
       <c r="J24" s="3">
+        <v>414800</v>
+      </c>
+      <c r="K24" s="3">
         <v>494800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>689000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>664700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>579200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>580800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>616900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>631300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>635600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>554800</v>
+        <v>541600</v>
       </c>
       <c r="E26" s="3">
-        <v>803300</v>
+        <v>566400</v>
       </c>
       <c r="F26" s="3">
-        <v>491900</v>
+        <v>820100</v>
       </c>
       <c r="G26" s="3">
-        <v>821100</v>
+        <v>502300</v>
       </c>
       <c r="H26" s="3">
-        <v>657600</v>
+        <v>838400</v>
       </c>
       <c r="I26" s="3">
-        <v>876800</v>
+        <v>671400</v>
       </c>
       <c r="J26" s="3">
+        <v>895200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1331600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1311300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1542900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1184300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1147500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1431300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1462100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1523000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>541900</v>
+        <v>508800</v>
       </c>
       <c r="E27" s="3">
-        <v>784000</v>
+        <v>553300</v>
       </c>
       <c r="F27" s="3">
-        <v>485500</v>
+        <v>800400</v>
       </c>
       <c r="G27" s="3">
-        <v>813200</v>
+        <v>495700</v>
       </c>
       <c r="H27" s="3">
-        <v>657600</v>
+        <v>830300</v>
       </c>
       <c r="I27" s="3">
-        <v>880400</v>
+        <v>671400</v>
       </c>
       <c r="J27" s="3">
+        <v>898900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1340900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1327600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1551100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1188300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1129300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1401600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1432300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1499100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1667,26 +1728,29 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1352100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>79200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>124800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-397000</v>
+        <v>-288000</v>
       </c>
       <c r="E32" s="3">
-        <v>-646900</v>
+        <v>-405300</v>
       </c>
       <c r="F32" s="3">
-        <v>-806800</v>
+        <v>-660500</v>
       </c>
       <c r="G32" s="3">
-        <v>-904600</v>
+        <v>-823800</v>
       </c>
       <c r="H32" s="3">
-        <v>-971800</v>
+        <v>-923600</v>
       </c>
       <c r="I32" s="3">
-        <v>-887500</v>
+        <v>-992200</v>
       </c>
       <c r="J32" s="3">
+        <v>-906100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-803300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1272600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-989700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-664800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-452300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-405400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-468700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-43500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>541900</v>
+        <v>508800</v>
       </c>
       <c r="E33" s="3">
-        <v>784000</v>
+        <v>553300</v>
       </c>
       <c r="F33" s="3">
-        <v>485500</v>
+        <v>800400</v>
       </c>
       <c r="G33" s="3">
-        <v>813200</v>
+        <v>495700</v>
       </c>
       <c r="H33" s="3">
-        <v>657600</v>
+        <v>830300</v>
       </c>
       <c r="I33" s="3">
-        <v>880400</v>
+        <v>671400</v>
       </c>
       <c r="J33" s="3">
+        <v>898900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1340900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1327600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1551100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1188300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2481400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1480800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1557100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>541900</v>
+        <v>508800</v>
       </c>
       <c r="E35" s="3">
-        <v>784000</v>
+        <v>553300</v>
       </c>
       <c r="F35" s="3">
-        <v>485500</v>
+        <v>800400</v>
       </c>
       <c r="G35" s="3">
-        <v>813200</v>
+        <v>495700</v>
       </c>
       <c r="H35" s="3">
-        <v>657600</v>
+        <v>830300</v>
       </c>
       <c r="I35" s="3">
-        <v>880400</v>
+        <v>671400</v>
       </c>
       <c r="J35" s="3">
+        <v>898900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1340900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1327600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1551100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1188300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2481400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1480800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1557100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2143,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>803300</v>
+        <v>1203600</v>
       </c>
       <c r="E41" s="3">
-        <v>924600</v>
+        <v>820100</v>
       </c>
       <c r="F41" s="3">
-        <v>356300</v>
+        <v>944100</v>
       </c>
       <c r="G41" s="3">
-        <v>538400</v>
+        <v>363800</v>
       </c>
       <c r="H41" s="3">
-        <v>431300</v>
+        <v>549700</v>
       </c>
       <c r="I41" s="3">
-        <v>386300</v>
+        <v>440300</v>
       </c>
       <c r="J41" s="3">
+        <v>394400</v>
+      </c>
+      <c r="K41" s="3">
         <v>449100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>96900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>849400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>160600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>181000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>450700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>421600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>243100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2131,357 +2221,381 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>358100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>536200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>627700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2208100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1085300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>591400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3271500</v>
+        <v>3131100</v>
       </c>
       <c r="E43" s="3">
-        <v>3280100</v>
+        <v>3340300</v>
       </c>
       <c r="F43" s="3">
-        <v>3657800</v>
+        <v>3349000</v>
       </c>
       <c r="G43" s="3">
-        <v>3787100</v>
+        <v>3734700</v>
       </c>
       <c r="H43" s="3">
-        <v>3854900</v>
+        <v>3866600</v>
       </c>
       <c r="I43" s="3">
-        <v>3911300</v>
+        <v>3935900</v>
       </c>
       <c r="J43" s="3">
+        <v>3993500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3994100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4205200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4506200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3457500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3193400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3572200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3432100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3365300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>274900</v>
+        <v>332400</v>
       </c>
       <c r="E44" s="3">
-        <v>329200</v>
+        <v>280700</v>
       </c>
       <c r="F44" s="3">
-        <v>298500</v>
+        <v>336100</v>
       </c>
       <c r="G44" s="3">
-        <v>531900</v>
+        <v>304700</v>
       </c>
       <c r="H44" s="3">
-        <v>319900</v>
+        <v>543100</v>
       </c>
       <c r="I44" s="3">
-        <v>620500</v>
+        <v>326600</v>
       </c>
       <c r="J44" s="3">
+        <v>633500</v>
+      </c>
+      <c r="K44" s="3">
         <v>351300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>854100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>346400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>581200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>374900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>501600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>356300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>729700</v>
+        <v>688200</v>
       </c>
       <c r="E45" s="3">
-        <v>739000</v>
+        <v>745000</v>
       </c>
       <c r="F45" s="3">
-        <v>352700</v>
+        <v>754500</v>
       </c>
       <c r="G45" s="3">
-        <v>479100</v>
+        <v>360100</v>
       </c>
       <c r="H45" s="3">
-        <v>608300</v>
+        <v>489200</v>
       </c>
       <c r="I45" s="3">
-        <v>394800</v>
+        <v>621100</v>
       </c>
       <c r="J45" s="3">
+        <v>403100</v>
+      </c>
+      <c r="K45" s="3">
         <v>410600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>456500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>398100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>383500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>328400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>314800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>256100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5079400</v>
+        <v>5355200</v>
       </c>
       <c r="E46" s="3">
-        <v>5272900</v>
+        <v>5186100</v>
       </c>
       <c r="F46" s="3">
-        <v>4665300</v>
+        <v>5383700</v>
       </c>
       <c r="G46" s="3">
-        <v>5336400</v>
+        <v>4763300</v>
       </c>
       <c r="H46" s="3">
-        <v>5214300</v>
+        <v>5448500</v>
       </c>
       <c r="I46" s="3">
-        <v>5312900</v>
+        <v>5323900</v>
       </c>
       <c r="J46" s="3">
+        <v>5424500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5205100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5970600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5943500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5210500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6285800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5924600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5057400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5277300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1571500</v>
+        <v>1360300</v>
       </c>
       <c r="E47" s="3">
-        <v>1657200</v>
+        <v>1604500</v>
       </c>
       <c r="F47" s="3">
-        <v>1675000</v>
+        <v>1692000</v>
       </c>
       <c r="G47" s="3">
-        <v>1807800</v>
+        <v>1710200</v>
       </c>
       <c r="H47" s="3">
-        <v>1501500</v>
+        <v>1845800</v>
       </c>
       <c r="I47" s="3">
-        <v>1543700</v>
+        <v>1533100</v>
       </c>
       <c r="J47" s="3">
+        <v>1576100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1430100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1393500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1076100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1204300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1250400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1098000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1094900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16932500</v>
+        <v>17327600</v>
       </c>
       <c r="E48" s="3">
-        <v>17103200</v>
+        <v>17288200</v>
       </c>
       <c r="F48" s="3">
-        <v>17513700</v>
+        <v>17462500</v>
       </c>
       <c r="G48" s="3">
-        <v>17780000</v>
+        <v>17881600</v>
       </c>
       <c r="H48" s="3">
-        <v>15945000</v>
+        <v>18153600</v>
       </c>
       <c r="I48" s="3">
-        <v>16121400</v>
+        <v>16280000</v>
       </c>
       <c r="J48" s="3">
+        <v>16460100</v>
+      </c>
+      <c r="K48" s="3">
         <v>15785100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16792700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15769100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13792800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13851000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14603500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14838500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14308100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5091500</v>
+        <v>5708800</v>
       </c>
       <c r="E49" s="3">
-        <v>5078700</v>
+        <v>5198500</v>
       </c>
       <c r="F49" s="3">
-        <v>5292200</v>
+        <v>5185400</v>
       </c>
       <c r="G49" s="3">
-        <v>5138700</v>
+        <v>5403300</v>
       </c>
       <c r="H49" s="3">
-        <v>5147900</v>
+        <v>5246600</v>
       </c>
       <c r="I49" s="3">
-        <v>5585600</v>
+        <v>5256100</v>
       </c>
       <c r="J49" s="3">
+        <v>5703000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5656300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7109900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6142900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6066400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6211100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6729000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6771300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6045700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1687900</v>
+        <v>1487900</v>
       </c>
       <c r="E52" s="3">
-        <v>1849300</v>
+        <v>1723400</v>
       </c>
       <c r="F52" s="3">
-        <v>2557500</v>
+        <v>1888100</v>
       </c>
       <c r="G52" s="3">
-        <v>2464000</v>
+        <v>2611300</v>
       </c>
       <c r="H52" s="3">
-        <v>2599700</v>
+        <v>2515800</v>
       </c>
       <c r="I52" s="3">
-        <v>2654700</v>
+        <v>2654300</v>
       </c>
       <c r="J52" s="3">
+        <v>2710400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2427600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1424500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2093900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1429800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1533100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1693000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1584700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1421500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30362900</v>
+        <v>31239800</v>
       </c>
       <c r="E54" s="3">
-        <v>30961200</v>
+        <v>31000700</v>
       </c>
       <c r="F54" s="3">
-        <v>31703700</v>
+        <v>31611600</v>
       </c>
       <c r="G54" s="3">
-        <v>32527000</v>
+        <v>32369800</v>
       </c>
       <c r="H54" s="3">
-        <v>30408500</v>
+        <v>33210300</v>
       </c>
       <c r="I54" s="3">
-        <v>31218200</v>
+        <v>31047400</v>
       </c>
       <c r="J54" s="3">
+        <v>31874100</v>
+      </c>
+      <c r="K54" s="3">
         <v>30504200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32691100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31025600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27703800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29131500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30048200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29346900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28035000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>859700</v>
+        <v>2518700</v>
       </c>
       <c r="E57" s="3">
-        <v>768300</v>
+        <v>877700</v>
       </c>
       <c r="F57" s="3">
-        <v>705400</v>
+        <v>784400</v>
       </c>
       <c r="G57" s="3">
-        <v>717600</v>
+        <v>720300</v>
       </c>
       <c r="H57" s="3">
+        <v>732600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3300900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3229500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3233000</v>
       </c>
-      <c r="I57" s="3">
-        <v>3163000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3233000</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3261200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2913000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2557800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2657000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2866800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2960400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2699200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2951700</v>
+        <v>3424100</v>
       </c>
       <c r="E58" s="3">
-        <v>2386900</v>
+        <v>3013700</v>
       </c>
       <c r="F58" s="3">
-        <v>2409000</v>
+        <v>2437000</v>
       </c>
       <c r="G58" s="3">
-        <v>2624700</v>
+        <v>2459600</v>
       </c>
       <c r="H58" s="3">
-        <v>1586500</v>
+        <v>2679800</v>
       </c>
       <c r="I58" s="3">
-        <v>824700</v>
+        <v>1619800</v>
       </c>
       <c r="J58" s="3">
+        <v>842000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1167400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2170000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1828800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2478800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1786800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1335800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1085500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1779200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3631400</v>
+        <v>1827600</v>
       </c>
       <c r="E59" s="3">
-        <v>3714900</v>
+        <v>3707700</v>
       </c>
       <c r="F59" s="3">
-        <v>4092600</v>
+        <v>3793000</v>
       </c>
       <c r="G59" s="3">
-        <v>3840600</v>
+        <v>4178600</v>
       </c>
       <c r="H59" s="3">
-        <v>2001300</v>
+        <v>3921300</v>
       </c>
       <c r="I59" s="3">
-        <v>1766400</v>
+        <v>2043400</v>
       </c>
       <c r="J59" s="3">
+        <v>1803500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2748200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1829800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2878300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1613600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1739700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1790000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1852500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1736400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7442700</v>
+        <v>7770400</v>
       </c>
       <c r="E60" s="3">
-        <v>6870100</v>
+        <v>7599100</v>
       </c>
       <c r="F60" s="3">
-        <v>7207100</v>
+        <v>7014400</v>
       </c>
       <c r="G60" s="3">
-        <v>7182800</v>
+        <v>7358500</v>
       </c>
       <c r="H60" s="3">
-        <v>6820800</v>
+        <v>7333700</v>
       </c>
       <c r="I60" s="3">
-        <v>5754100</v>
+        <v>6964100</v>
       </c>
       <c r="J60" s="3">
+        <v>5875000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6272500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7261000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6707200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6650300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6183500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5992500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5898400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6214800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9501200</v>
+        <v>7968000</v>
       </c>
       <c r="E61" s="3">
-        <v>10795700</v>
+        <v>9700800</v>
       </c>
       <c r="F61" s="3">
-        <v>11247600</v>
+        <v>11022500</v>
       </c>
       <c r="G61" s="3">
-        <v>11881000</v>
+        <v>11483900</v>
       </c>
       <c r="H61" s="3">
-        <v>10732100</v>
+        <v>12130600</v>
       </c>
       <c r="I61" s="3">
-        <v>12229400</v>
+        <v>10957600</v>
       </c>
       <c r="J61" s="3">
+        <v>12486300</v>
+      </c>
+      <c r="K61" s="3">
         <v>10935600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11484700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10937200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8940000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9857400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10966300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10258500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9559800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2512600</v>
+        <v>2773800</v>
       </c>
       <c r="E62" s="3">
-        <v>2453300</v>
+        <v>2565400</v>
       </c>
       <c r="F62" s="3">
-        <v>2434000</v>
+        <v>2504800</v>
       </c>
       <c r="G62" s="3">
-        <v>2472600</v>
+        <v>2485200</v>
       </c>
       <c r="H62" s="3">
-        <v>2481200</v>
+        <v>2524500</v>
       </c>
       <c r="I62" s="3">
-        <v>2878100</v>
+        <v>2533300</v>
       </c>
       <c r="J62" s="3">
+        <v>2938600</v>
+      </c>
+      <c r="K62" s="3">
         <v>3794900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2826400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3786800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2447000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2385100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2604300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2661500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2353800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19947000</v>
+        <v>19568500</v>
       </c>
       <c r="E66" s="3">
-        <v>20607500</v>
+        <v>20366100</v>
       </c>
       <c r="F66" s="3">
-        <v>21370000</v>
+        <v>21040400</v>
       </c>
       <c r="G66" s="3">
-        <v>22024000</v>
+        <v>21819000</v>
       </c>
       <c r="H66" s="3">
-        <v>20020600</v>
+        <v>22486700</v>
       </c>
       <c r="I66" s="3">
-        <v>20848100</v>
+        <v>20441200</v>
       </c>
       <c r="J66" s="3">
+        <v>21286100</v>
+      </c>
+      <c r="K66" s="3">
         <v>20057000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21572900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20587700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18055800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18450300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19892100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19113800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18344600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7248500</v>
+        <v>8850800</v>
       </c>
       <c r="E72" s="3">
-        <v>7193600</v>
+        <v>7400800</v>
       </c>
       <c r="F72" s="3">
-        <v>7155700</v>
+        <v>7344700</v>
       </c>
       <c r="G72" s="3">
-        <v>7333500</v>
+        <v>7306000</v>
       </c>
       <c r="H72" s="3">
-        <v>7212800</v>
+        <v>7487600</v>
       </c>
       <c r="I72" s="3">
-        <v>7202800</v>
+        <v>7364400</v>
       </c>
       <c r="J72" s="3">
+        <v>7354200</v>
+      </c>
+      <c r="K72" s="3">
         <v>7285700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7691100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7169600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6583200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7160700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6362500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6415800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5968100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10415800</v>
+        <v>11671300</v>
       </c>
       <c r="E76" s="3">
-        <v>10353700</v>
+        <v>10634700</v>
       </c>
       <c r="F76" s="3">
-        <v>10333700</v>
+        <v>10571200</v>
       </c>
       <c r="G76" s="3">
-        <v>10502900</v>
+        <v>10550800</v>
       </c>
       <c r="H76" s="3">
-        <v>10388000</v>
+        <v>10723600</v>
       </c>
       <c r="I76" s="3">
-        <v>10370100</v>
+        <v>10606200</v>
       </c>
       <c r="J76" s="3">
+        <v>10588000</v>
+      </c>
+      <c r="K76" s="3">
         <v>10447200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11118200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10437900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9648000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10681200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10156200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10233100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9690400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>541900</v>
+        <v>508800</v>
       </c>
       <c r="E81" s="3">
-        <v>784000</v>
+        <v>553300</v>
       </c>
       <c r="F81" s="3">
-        <v>485500</v>
+        <v>800400</v>
       </c>
       <c r="G81" s="3">
-        <v>813200</v>
+        <v>495700</v>
       </c>
       <c r="H81" s="3">
-        <v>657600</v>
+        <v>830300</v>
       </c>
       <c r="I81" s="3">
-        <v>880400</v>
+        <v>671400</v>
       </c>
       <c r="J81" s="3">
+        <v>898900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1340900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1327600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1551100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1188300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2481400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1480800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1557100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2704600</v>
+        <v>2366300</v>
       </c>
       <c r="E89" s="3">
-        <v>2458300</v>
+        <v>2761500</v>
       </c>
       <c r="F89" s="3">
-        <v>3053800</v>
+        <v>2509900</v>
       </c>
       <c r="G89" s="3">
-        <v>1951400</v>
+        <v>3117900</v>
       </c>
       <c r="H89" s="3">
-        <v>2760300</v>
+        <v>1992400</v>
       </c>
       <c r="I89" s="3">
-        <v>2011300</v>
+        <v>2818300</v>
       </c>
       <c r="J89" s="3">
+        <v>2053600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3450800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2924100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3407200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2098000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2998900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2601500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3350100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2680400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-701900</v>
+        <v>-882100</v>
       </c>
       <c r="E91" s="3">
-        <v>-782500</v>
+        <v>-716600</v>
       </c>
       <c r="F91" s="3">
-        <v>-830400</v>
+        <v>-799000</v>
       </c>
       <c r="G91" s="3">
-        <v>-841100</v>
+        <v>-847800</v>
       </c>
       <c r="H91" s="3">
-        <v>-999600</v>
+        <v>-858800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1310200</v>
+        <v>-1020600</v>
       </c>
       <c r="J91" s="3">
+        <v>-1337700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1173100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1494200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1516300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-972500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1136200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5108200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2295800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1118800</v>
+        <v>-1401100</v>
       </c>
       <c r="E94" s="3">
-        <v>-554800</v>
+        <v>-1142300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1258800</v>
+        <v>-566400</v>
       </c>
       <c r="G94" s="3">
-        <v>-866100</v>
+        <v>-1285200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1017500</v>
+        <v>-884300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1563700</v>
+        <v>-1038800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1596500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1323800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1594200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1842800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1183700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-301500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1244500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1639900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2490300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-679000</v>
+        <v>-693300</v>
       </c>
       <c r="E96" s="3">
-        <v>-679000</v>
+        <v>-693300</v>
       </c>
       <c r="F96" s="3">
-        <v>-679700</v>
+        <v>-693300</v>
       </c>
       <c r="G96" s="3">
-        <v>-679000</v>
+        <v>-694000</v>
       </c>
       <c r="H96" s="3">
-        <v>-679000</v>
+        <v>-693300</v>
       </c>
       <c r="I96" s="3">
+        <v>-693300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-953500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-933900</v>
       </c>
-      <c r="J96" s="3">
-        <v>-933900</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1427600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1360500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1256700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1274700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1339300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1330000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1354000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1713600</v>
+        <v>-594100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1310900</v>
+        <v>-1749600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1962800</v>
+        <v>-1338400</v>
       </c>
       <c r="G100" s="3">
-        <v>-991700</v>
+        <v>-2004000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1698600</v>
+        <v>-1012600</v>
       </c>
       <c r="I100" s="3">
-        <v>-506200</v>
+        <v>-1734300</v>
       </c>
       <c r="J100" s="3">
+        <v>-516900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2104200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1602700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1745300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2482200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1761200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-820700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1951100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3042400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6400</v>
+        <v>10200</v>
       </c>
       <c r="E101" s="3">
-        <v>-24300</v>
+        <v>6600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2100</v>
+        <v>-24800</v>
       </c>
       <c r="G101" s="3">
-        <v>1400</v>
+        <v>-2200</v>
       </c>
       <c r="H101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
-        <v>2100</v>
-      </c>
       <c r="J101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K101" s="3">
         <v>2900</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-5200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>42800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-121400</v>
+        <v>381300</v>
       </c>
       <c r="E102" s="3">
-        <v>568300</v>
+        <v>-123900</v>
       </c>
       <c r="F102" s="3">
-        <v>-169900</v>
+        <v>580300</v>
       </c>
       <c r="G102" s="3">
-        <v>95000</v>
+        <v>-173500</v>
       </c>
       <c r="H102" s="3">
-        <v>45000</v>
+        <v>97000</v>
       </c>
       <c r="I102" s="3">
-        <v>-56400</v>
+        <v>45900</v>
       </c>
       <c r="J102" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="K102" s="3">
         <v>25700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-272800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-186100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1567200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>932100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>544100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-198100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2799400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7656700</v>
+        <v>7198800</v>
       </c>
       <c r="E8" s="3">
-        <v>7708400</v>
+        <v>7247400</v>
       </c>
       <c r="F8" s="3">
-        <v>8007300</v>
+        <v>7528400</v>
       </c>
       <c r="G8" s="3">
-        <v>8417000</v>
+        <v>7913600</v>
       </c>
       <c r="H8" s="3">
-        <v>8867600</v>
+        <v>8337200</v>
       </c>
       <c r="I8" s="3">
-        <v>9238600</v>
+        <v>8686100</v>
       </c>
       <c r="J8" s="3">
-        <v>9175200</v>
+        <v>8626400</v>
       </c>
       <c r="K8" s="3">
         <v>9309800</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3023900</v>
+        <v>2843000</v>
       </c>
       <c r="E9" s="3">
-        <v>2996200</v>
+        <v>2817000</v>
       </c>
       <c r="F9" s="3">
-        <v>3067600</v>
+        <v>2884200</v>
       </c>
       <c r="G9" s="3">
-        <v>3269600</v>
+        <v>3074000</v>
       </c>
       <c r="H9" s="3">
-        <v>3369400</v>
+        <v>3167900</v>
       </c>
       <c r="I9" s="3">
-        <v>3467100</v>
+        <v>3259800</v>
       </c>
       <c r="J9" s="3">
-        <v>3194500</v>
+        <v>3003400</v>
       </c>
       <c r="K9" s="3">
         <v>3105200</v>
@@ -848,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4632800</v>
+        <v>4355700</v>
       </c>
       <c r="E10" s="3">
-        <v>4712300</v>
+        <v>4430400</v>
       </c>
       <c r="F10" s="3">
-        <v>4939700</v>
+        <v>4644300</v>
       </c>
       <c r="G10" s="3">
-        <v>5147500</v>
+        <v>4839600</v>
       </c>
       <c r="H10" s="3">
-        <v>5498100</v>
+        <v>5169300</v>
       </c>
       <c r="I10" s="3">
-        <v>5771500</v>
+        <v>5426300</v>
       </c>
       <c r="J10" s="3">
-        <v>5980700</v>
+        <v>5623000</v>
       </c>
       <c r="K10" s="3">
         <v>6204700</v>
@@ -1018,25 +1018,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>196800</v>
+        <v>185100</v>
       </c>
       <c r="E14" s="3">
-        <v>88200</v>
+        <v>82900</v>
       </c>
       <c r="F14" s="3">
-        <v>106400</v>
+        <v>100100</v>
       </c>
       <c r="G14" s="3">
-        <v>394400</v>
+        <v>370800</v>
       </c>
       <c r="H14" s="3">
-        <v>138500</v>
+        <v>130200</v>
       </c>
       <c r="I14" s="3">
-        <v>947000</v>
+        <v>890300</v>
       </c>
       <c r="J14" s="3">
-        <v>97700</v>
+        <v>91800</v>
       </c>
       <c r="K14" s="3">
         <v>26400</v>
@@ -1068,25 +1068,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1595800</v>
+        <v>1500300</v>
       </c>
       <c r="E15" s="3">
-        <v>1616200</v>
+        <v>1519500</v>
       </c>
       <c r="F15" s="3">
-        <v>1770700</v>
+        <v>1664800</v>
       </c>
       <c r="G15" s="3">
-        <v>1907100</v>
+        <v>1793000</v>
       </c>
       <c r="H15" s="3">
-        <v>1984300</v>
+        <v>1865700</v>
       </c>
       <c r="I15" s="3">
-        <v>1560800</v>
+        <v>1467400</v>
       </c>
       <c r="J15" s="3">
-        <v>1560800</v>
+        <v>1467400</v>
       </c>
       <c r="K15" s="3">
         <v>1607200</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7001300</v>
+        <v>6582600</v>
       </c>
       <c r="E17" s="3">
-        <v>7118000</v>
+        <v>6692200</v>
       </c>
       <c r="F17" s="3">
-        <v>7486100</v>
+        <v>7038400</v>
       </c>
       <c r="G17" s="3">
-        <v>8178700</v>
+        <v>7689500</v>
       </c>
       <c r="H17" s="3">
-        <v>8282900</v>
+        <v>7787500</v>
       </c>
       <c r="I17" s="3">
-        <v>9056400</v>
+        <v>8514700</v>
       </c>
       <c r="J17" s="3">
-        <v>8515400</v>
+        <v>8006200</v>
       </c>
       <c r="K17" s="3">
         <v>8051800</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>655400</v>
+        <v>616200</v>
       </c>
       <c r="E18" s="3">
-        <v>590500</v>
+        <v>555200</v>
       </c>
       <c r="F18" s="3">
-        <v>521200</v>
+        <v>490100</v>
       </c>
       <c r="G18" s="3">
-        <v>238400</v>
+        <v>224100</v>
       </c>
       <c r="H18" s="3">
-        <v>584700</v>
+        <v>549700</v>
       </c>
       <c r="I18" s="3">
-        <v>182300</v>
+        <v>171400</v>
       </c>
       <c r="J18" s="3">
-        <v>659700</v>
+        <v>620300</v>
       </c>
       <c r="K18" s="3">
         <v>1258100</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>288000</v>
+        <v>270700</v>
       </c>
       <c r="E20" s="3">
-        <v>405300</v>
+        <v>381100</v>
       </c>
       <c r="F20" s="3">
-        <v>660500</v>
+        <v>621000</v>
       </c>
       <c r="G20" s="3">
-        <v>823800</v>
+        <v>774500</v>
       </c>
       <c r="H20" s="3">
-        <v>923600</v>
+        <v>868400</v>
       </c>
       <c r="I20" s="3">
-        <v>992200</v>
+        <v>932800</v>
       </c>
       <c r="J20" s="3">
-        <v>906100</v>
+        <v>852000</v>
       </c>
       <c r="K20" s="3">
         <v>803300</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2539100</v>
+        <v>2387200</v>
       </c>
       <c r="E21" s="3">
-        <v>841300</v>
+        <v>791000</v>
       </c>
       <c r="F21" s="3">
-        <v>2952500</v>
+        <v>2775900</v>
       </c>
       <c r="G21" s="3">
-        <v>984900</v>
+        <v>926000</v>
       </c>
       <c r="H21" s="3">
-        <v>3492600</v>
+        <v>3283800</v>
       </c>
       <c r="I21" s="3">
-        <v>1174400</v>
+        <v>1104200</v>
       </c>
       <c r="J21" s="3">
-        <v>3126700</v>
+        <v>2939700</v>
       </c>
       <c r="K21" s="3">
         <v>2084200</v>
@@ -1355,25 +1355,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>185900</v>
+        <v>174800</v>
       </c>
       <c r="E22" s="3">
-        <v>188800</v>
+        <v>177500</v>
       </c>
       <c r="F22" s="3">
-        <v>209200</v>
+        <v>196700</v>
       </c>
       <c r="G22" s="3">
-        <v>245700</v>
+        <v>231000</v>
       </c>
       <c r="H22" s="3">
-        <v>286500</v>
+        <v>269400</v>
       </c>
       <c r="I22" s="3">
-        <v>244900</v>
+        <v>230300</v>
       </c>
       <c r="J22" s="3">
-        <v>255900</v>
+        <v>240600</v>
       </c>
       <c r="K22" s="3">
         <v>234900</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>757400</v>
+        <v>712100</v>
       </c>
       <c r="E23" s="3">
-        <v>807000</v>
+        <v>758700</v>
       </c>
       <c r="F23" s="3">
-        <v>972500</v>
+        <v>914300</v>
       </c>
       <c r="G23" s="3">
-        <v>816500</v>
+        <v>767600</v>
       </c>
       <c r="H23" s="3">
-        <v>1221800</v>
+        <v>1148700</v>
       </c>
       <c r="I23" s="3">
-        <v>929500</v>
+        <v>873900</v>
       </c>
       <c r="J23" s="3">
-        <v>1310000</v>
+        <v>1231700</v>
       </c>
       <c r="K23" s="3">
         <v>1826400</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>215800</v>
+        <v>202900</v>
       </c>
       <c r="E24" s="3">
-        <v>240600</v>
+        <v>226200</v>
       </c>
       <c r="F24" s="3">
-        <v>152400</v>
+        <v>143200</v>
       </c>
       <c r="G24" s="3">
-        <v>314200</v>
+        <v>295400</v>
       </c>
       <c r="H24" s="3">
-        <v>383500</v>
+        <v>360500</v>
       </c>
       <c r="I24" s="3">
-        <v>258100</v>
+        <v>242600</v>
       </c>
       <c r="J24" s="3">
-        <v>414800</v>
+        <v>390000</v>
       </c>
       <c r="K24" s="3">
         <v>494800</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>541600</v>
+        <v>509300</v>
       </c>
       <c r="E26" s="3">
-        <v>566400</v>
+        <v>532600</v>
       </c>
       <c r="F26" s="3">
-        <v>820100</v>
+        <v>771100</v>
       </c>
       <c r="G26" s="3">
-        <v>502300</v>
+        <v>472200</v>
       </c>
       <c r="H26" s="3">
-        <v>838400</v>
+        <v>788200</v>
       </c>
       <c r="I26" s="3">
-        <v>671400</v>
+        <v>631300</v>
       </c>
       <c r="J26" s="3">
-        <v>895200</v>
+        <v>841700</v>
       </c>
       <c r="K26" s="3">
         <v>1331600</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>508800</v>
+        <v>478400</v>
       </c>
       <c r="E27" s="3">
-        <v>553300</v>
+        <v>520200</v>
       </c>
       <c r="F27" s="3">
-        <v>800400</v>
+        <v>752600</v>
       </c>
       <c r="G27" s="3">
-        <v>495700</v>
+        <v>466100</v>
       </c>
       <c r="H27" s="3">
-        <v>830300</v>
+        <v>780700</v>
       </c>
       <c r="I27" s="3">
-        <v>671400</v>
+        <v>631300</v>
       </c>
       <c r="J27" s="3">
-        <v>898900</v>
+        <v>845100</v>
       </c>
       <c r="K27" s="3">
         <v>1340900</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-288000</v>
+        <v>-270700</v>
       </c>
       <c r="E32" s="3">
-        <v>-405300</v>
+        <v>-381100</v>
       </c>
       <c r="F32" s="3">
-        <v>-660500</v>
+        <v>-621000</v>
       </c>
       <c r="G32" s="3">
-        <v>-823800</v>
+        <v>-774500</v>
       </c>
       <c r="H32" s="3">
-        <v>-923600</v>
+        <v>-868400</v>
       </c>
       <c r="I32" s="3">
-        <v>-992200</v>
+        <v>-932800</v>
       </c>
       <c r="J32" s="3">
-        <v>-906100</v>
+        <v>-852000</v>
       </c>
       <c r="K32" s="3">
         <v>-803300</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>508800</v>
+        <v>478400</v>
       </c>
       <c r="E33" s="3">
-        <v>553300</v>
+        <v>520200</v>
       </c>
       <c r="F33" s="3">
-        <v>800400</v>
+        <v>752600</v>
       </c>
       <c r="G33" s="3">
-        <v>495700</v>
+        <v>466100</v>
       </c>
       <c r="H33" s="3">
-        <v>830300</v>
+        <v>780700</v>
       </c>
       <c r="I33" s="3">
-        <v>671400</v>
+        <v>631300</v>
       </c>
       <c r="J33" s="3">
-        <v>898900</v>
+        <v>845100</v>
       </c>
       <c r="K33" s="3">
         <v>1340900</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>508800</v>
+        <v>478400</v>
       </c>
       <c r="E35" s="3">
-        <v>553300</v>
+        <v>520200</v>
       </c>
       <c r="F35" s="3">
-        <v>800400</v>
+        <v>752600</v>
       </c>
       <c r="G35" s="3">
-        <v>495700</v>
+        <v>466100</v>
       </c>
       <c r="H35" s="3">
-        <v>830300</v>
+        <v>780700</v>
       </c>
       <c r="I35" s="3">
-        <v>671400</v>
+        <v>631300</v>
       </c>
       <c r="J35" s="3">
-        <v>898900</v>
+        <v>845100</v>
       </c>
       <c r="K35" s="3">
         <v>1340900</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1203600</v>
+        <v>1131600</v>
       </c>
       <c r="E41" s="3">
-        <v>820100</v>
+        <v>771100</v>
       </c>
       <c r="F41" s="3">
-        <v>944100</v>
+        <v>887600</v>
       </c>
       <c r="G41" s="3">
-        <v>363800</v>
+        <v>342000</v>
       </c>
       <c r="H41" s="3">
-        <v>549700</v>
+        <v>516800</v>
       </c>
       <c r="I41" s="3">
-        <v>440300</v>
+        <v>414000</v>
       </c>
       <c r="J41" s="3">
-        <v>394400</v>
+        <v>370800</v>
       </c>
       <c r="K41" s="3">
         <v>449100</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3131100</v>
+        <v>2943800</v>
       </c>
       <c r="E43" s="3">
-        <v>3340300</v>
+        <v>3140500</v>
       </c>
       <c r="F43" s="3">
-        <v>3349000</v>
+        <v>3148700</v>
       </c>
       <c r="G43" s="3">
-        <v>3734700</v>
+        <v>3511300</v>
       </c>
       <c r="H43" s="3">
-        <v>3866600</v>
+        <v>3635400</v>
       </c>
       <c r="I43" s="3">
-        <v>3935900</v>
+        <v>3700500</v>
       </c>
       <c r="J43" s="3">
-        <v>3993500</v>
+        <v>3754600</v>
       </c>
       <c r="K43" s="3">
         <v>3994100</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>332400</v>
+        <v>312500</v>
       </c>
       <c r="E44" s="3">
-        <v>280700</v>
+        <v>263900</v>
       </c>
       <c r="F44" s="3">
-        <v>336100</v>
+        <v>316000</v>
       </c>
       <c r="G44" s="3">
-        <v>304700</v>
+        <v>286500</v>
       </c>
       <c r="H44" s="3">
-        <v>543100</v>
+        <v>510600</v>
       </c>
       <c r="I44" s="3">
-        <v>326600</v>
+        <v>307100</v>
       </c>
       <c r="J44" s="3">
-        <v>633500</v>
+        <v>595600</v>
       </c>
       <c r="K44" s="3">
         <v>351300</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>688200</v>
+        <v>647000</v>
       </c>
       <c r="E45" s="3">
-        <v>745000</v>
+        <v>700500</v>
       </c>
       <c r="F45" s="3">
-        <v>754500</v>
+        <v>709400</v>
       </c>
       <c r="G45" s="3">
-        <v>360100</v>
+        <v>338600</v>
       </c>
       <c r="H45" s="3">
-        <v>489200</v>
+        <v>459900</v>
       </c>
       <c r="I45" s="3">
-        <v>621100</v>
+        <v>584000</v>
       </c>
       <c r="J45" s="3">
-        <v>403100</v>
+        <v>379000</v>
       </c>
       <c r="K45" s="3">
         <v>410600</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5355200</v>
+        <v>5034900</v>
       </c>
       <c r="E46" s="3">
-        <v>5186100</v>
+        <v>4875900</v>
       </c>
       <c r="F46" s="3">
-        <v>5383700</v>
+        <v>5061700</v>
       </c>
       <c r="G46" s="3">
-        <v>4763300</v>
+        <v>4478400</v>
       </c>
       <c r="H46" s="3">
-        <v>5448500</v>
+        <v>5122700</v>
       </c>
       <c r="I46" s="3">
-        <v>5323900</v>
+        <v>5005500</v>
       </c>
       <c r="J46" s="3">
-        <v>5424500</v>
+        <v>5100100</v>
       </c>
       <c r="K46" s="3">
         <v>5205100</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1360300</v>
+        <v>1279000</v>
       </c>
       <c r="E47" s="3">
-        <v>1604500</v>
+        <v>1508600</v>
       </c>
       <c r="F47" s="3">
-        <v>1692000</v>
+        <v>1590800</v>
       </c>
       <c r="G47" s="3">
-        <v>1710200</v>
+        <v>1607900</v>
       </c>
       <c r="H47" s="3">
-        <v>1845800</v>
+        <v>1735400</v>
       </c>
       <c r="I47" s="3">
-        <v>1533100</v>
+        <v>1441400</v>
       </c>
       <c r="J47" s="3">
-        <v>1576100</v>
+        <v>1481800</v>
       </c>
       <c r="K47" s="3">
         <v>1430100</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17327600</v>
+        <v>16291300</v>
       </c>
       <c r="E48" s="3">
-        <v>17288200</v>
+        <v>16254300</v>
       </c>
       <c r="F48" s="3">
-        <v>17462500</v>
+        <v>16418100</v>
       </c>
       <c r="G48" s="3">
-        <v>17881600</v>
+        <v>16812200</v>
       </c>
       <c r="H48" s="3">
-        <v>18153600</v>
+        <v>17067800</v>
       </c>
       <c r="I48" s="3">
-        <v>16280000</v>
+        <v>15306400</v>
       </c>
       <c r="J48" s="3">
-        <v>16460100</v>
+        <v>15475600</v>
       </c>
       <c r="K48" s="3">
         <v>15785100</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5708800</v>
+        <v>5367400</v>
       </c>
       <c r="E49" s="3">
-        <v>5198500</v>
+        <v>4887600</v>
       </c>
       <c r="F49" s="3">
-        <v>5185400</v>
+        <v>4875300</v>
       </c>
       <c r="G49" s="3">
-        <v>5403300</v>
+        <v>5080200</v>
       </c>
       <c r="H49" s="3">
-        <v>5246600</v>
+        <v>4932800</v>
       </c>
       <c r="I49" s="3">
-        <v>5256100</v>
+        <v>4941700</v>
       </c>
       <c r="J49" s="3">
-        <v>5703000</v>
+        <v>5361900</v>
       </c>
       <c r="K49" s="3">
         <v>5656300</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1487900</v>
+        <v>1398900</v>
       </c>
       <c r="E52" s="3">
-        <v>1723400</v>
+        <v>1620300</v>
       </c>
       <c r="F52" s="3">
-        <v>1888100</v>
+        <v>1775200</v>
       </c>
       <c r="G52" s="3">
-        <v>2611300</v>
+        <v>2455100</v>
       </c>
       <c r="H52" s="3">
-        <v>2515800</v>
+        <v>2365300</v>
       </c>
       <c r="I52" s="3">
-        <v>2654300</v>
+        <v>2495500</v>
       </c>
       <c r="J52" s="3">
-        <v>2710400</v>
+        <v>2548300</v>
       </c>
       <c r="K52" s="3">
         <v>2427600</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31239800</v>
+        <v>29371400</v>
       </c>
       <c r="E54" s="3">
-        <v>31000700</v>
+        <v>29146600</v>
       </c>
       <c r="F54" s="3">
-        <v>31611600</v>
+        <v>29721000</v>
       </c>
       <c r="G54" s="3">
-        <v>32369800</v>
+        <v>30433800</v>
       </c>
       <c r="H54" s="3">
-        <v>33210300</v>
+        <v>31224100</v>
       </c>
       <c r="I54" s="3">
-        <v>31047400</v>
+        <v>29190500</v>
       </c>
       <c r="J54" s="3">
-        <v>31874100</v>
+        <v>29967700</v>
       </c>
       <c r="K54" s="3">
         <v>30504200</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2518700</v>
+        <v>2368100</v>
       </c>
       <c r="E57" s="3">
-        <v>877700</v>
+        <v>825200</v>
       </c>
       <c r="F57" s="3">
-        <v>784400</v>
+        <v>737500</v>
       </c>
       <c r="G57" s="3">
-        <v>720300</v>
+        <v>677200</v>
       </c>
       <c r="H57" s="3">
-        <v>732600</v>
+        <v>688800</v>
       </c>
       <c r="I57" s="3">
-        <v>3300900</v>
+        <v>3103500</v>
       </c>
       <c r="J57" s="3">
-        <v>3229500</v>
+        <v>3036300</v>
       </c>
       <c r="K57" s="3">
         <v>3233000</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3424100</v>
+        <v>3219300</v>
       </c>
       <c r="E58" s="3">
-        <v>3013700</v>
+        <v>2833400</v>
       </c>
       <c r="F58" s="3">
-        <v>2437000</v>
+        <v>2291300</v>
       </c>
       <c r="G58" s="3">
-        <v>2459600</v>
+        <v>2312500</v>
       </c>
       <c r="H58" s="3">
-        <v>2679800</v>
+        <v>2519500</v>
       </c>
       <c r="I58" s="3">
-        <v>1619800</v>
+        <v>1523000</v>
       </c>
       <c r="J58" s="3">
-        <v>842000</v>
+        <v>791600</v>
       </c>
       <c r="K58" s="3">
         <v>1167400</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1827600</v>
+        <v>1718300</v>
       </c>
       <c r="E59" s="3">
-        <v>3707700</v>
+        <v>3485900</v>
       </c>
       <c r="F59" s="3">
-        <v>3793000</v>
+        <v>3566100</v>
       </c>
       <c r="G59" s="3">
-        <v>4178600</v>
+        <v>3928700</v>
       </c>
       <c r="H59" s="3">
-        <v>3921300</v>
+        <v>3686800</v>
       </c>
       <c r="I59" s="3">
-        <v>2043400</v>
+        <v>1921200</v>
       </c>
       <c r="J59" s="3">
-        <v>1803500</v>
+        <v>1695700</v>
       </c>
       <c r="K59" s="3">
         <v>2748200</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7770400</v>
+        <v>7305700</v>
       </c>
       <c r="E60" s="3">
-        <v>7599100</v>
+        <v>7144600</v>
       </c>
       <c r="F60" s="3">
-        <v>7014400</v>
+        <v>6594900</v>
       </c>
       <c r="G60" s="3">
-        <v>7358500</v>
+        <v>6918400</v>
       </c>
       <c r="H60" s="3">
-        <v>7333700</v>
+        <v>6895100</v>
       </c>
       <c r="I60" s="3">
-        <v>6964100</v>
+        <v>6547600</v>
       </c>
       <c r="J60" s="3">
-        <v>5875000</v>
+        <v>5523600</v>
       </c>
       <c r="K60" s="3">
         <v>6272500</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7968000</v>
+        <v>7491400</v>
       </c>
       <c r="E61" s="3">
-        <v>9700800</v>
+        <v>9120600</v>
       </c>
       <c r="F61" s="3">
-        <v>11022500</v>
+        <v>10363200</v>
       </c>
       <c r="G61" s="3">
-        <v>11483900</v>
+        <v>10797100</v>
       </c>
       <c r="H61" s="3">
-        <v>12130600</v>
+        <v>11405100</v>
       </c>
       <c r="I61" s="3">
-        <v>10957600</v>
+        <v>10302200</v>
       </c>
       <c r="J61" s="3">
-        <v>12486300</v>
+        <v>11739500</v>
       </c>
       <c r="K61" s="3">
         <v>10935600</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2773800</v>
+        <v>2607900</v>
       </c>
       <c r="E62" s="3">
-        <v>2565400</v>
+        <v>2411900</v>
       </c>
       <c r="F62" s="3">
-        <v>2504800</v>
+        <v>2355000</v>
       </c>
       <c r="G62" s="3">
-        <v>2485200</v>
+        <v>2336500</v>
       </c>
       <c r="H62" s="3">
-        <v>2524500</v>
+        <v>2373500</v>
       </c>
       <c r="I62" s="3">
-        <v>2533300</v>
+        <v>2381800</v>
       </c>
       <c r="J62" s="3">
-        <v>2938600</v>
+        <v>2762800</v>
       </c>
       <c r="K62" s="3">
         <v>3794900</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19568500</v>
+        <v>18398200</v>
       </c>
       <c r="E66" s="3">
-        <v>20366100</v>
+        <v>19148000</v>
       </c>
       <c r="F66" s="3">
-        <v>21040400</v>
+        <v>19782000</v>
       </c>
       <c r="G66" s="3">
-        <v>21819000</v>
+        <v>20514000</v>
       </c>
       <c r="H66" s="3">
-        <v>22486700</v>
+        <v>21141800</v>
       </c>
       <c r="I66" s="3">
-        <v>20441200</v>
+        <v>19218600</v>
       </c>
       <c r="J66" s="3">
-        <v>21286100</v>
+        <v>20013000</v>
       </c>
       <c r="K66" s="3">
         <v>20057000</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8850800</v>
+        <v>8321400</v>
       </c>
       <c r="E72" s="3">
-        <v>7400800</v>
+        <v>6958200</v>
       </c>
       <c r="F72" s="3">
-        <v>7344700</v>
+        <v>6905400</v>
       </c>
       <c r="G72" s="3">
-        <v>7306000</v>
+        <v>6869100</v>
       </c>
       <c r="H72" s="3">
-        <v>7487600</v>
+        <v>7039700</v>
       </c>
       <c r="I72" s="3">
-        <v>7364400</v>
+        <v>6923900</v>
       </c>
       <c r="J72" s="3">
-        <v>7354200</v>
+        <v>6914300</v>
       </c>
       <c r="K72" s="3">
         <v>7285700</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11671300</v>
+        <v>10973300</v>
       </c>
       <c r="E76" s="3">
-        <v>10634700</v>
+        <v>9998600</v>
       </c>
       <c r="F76" s="3">
-        <v>10571200</v>
+        <v>9939000</v>
       </c>
       <c r="G76" s="3">
-        <v>10550800</v>
+        <v>9919800</v>
       </c>
       <c r="H76" s="3">
-        <v>10723600</v>
+        <v>10082200</v>
       </c>
       <c r="I76" s="3">
-        <v>10606200</v>
+        <v>9971900</v>
       </c>
       <c r="J76" s="3">
-        <v>10588000</v>
+        <v>9954700</v>
       </c>
       <c r="K76" s="3">
         <v>10447200</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>508800</v>
+        <v>478400</v>
       </c>
       <c r="E81" s="3">
-        <v>553300</v>
+        <v>520200</v>
       </c>
       <c r="F81" s="3">
-        <v>800400</v>
+        <v>752600</v>
       </c>
       <c r="G81" s="3">
-        <v>495700</v>
+        <v>466100</v>
       </c>
       <c r="H81" s="3">
-        <v>830300</v>
+        <v>780700</v>
       </c>
       <c r="I81" s="3">
-        <v>671400</v>
+        <v>631300</v>
       </c>
       <c r="J81" s="3">
-        <v>898900</v>
+        <v>845100</v>
       </c>
       <c r="K81" s="3">
         <v>1340900</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2366300</v>
+        <v>2224800</v>
       </c>
       <c r="E89" s="3">
-        <v>2761500</v>
+        <v>2596300</v>
       </c>
       <c r="F89" s="3">
-        <v>2509900</v>
+        <v>2359800</v>
       </c>
       <c r="G89" s="3">
-        <v>3117900</v>
+        <v>2931500</v>
       </c>
       <c r="H89" s="3">
-        <v>1992400</v>
+        <v>1873200</v>
       </c>
       <c r="I89" s="3">
-        <v>2818300</v>
+        <v>2649800</v>
       </c>
       <c r="J89" s="3">
-        <v>2053600</v>
+        <v>1930800</v>
       </c>
       <c r="K89" s="3">
         <v>3450800</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-882100</v>
+        <v>-829300</v>
       </c>
       <c r="E91" s="3">
-        <v>-716600</v>
+        <v>-673700</v>
       </c>
       <c r="F91" s="3">
-        <v>-799000</v>
+        <v>-751200</v>
       </c>
       <c r="G91" s="3">
-        <v>-847800</v>
+        <v>-797100</v>
       </c>
       <c r="H91" s="3">
-        <v>-858800</v>
+        <v>-807400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1020600</v>
+        <v>-959600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1337700</v>
+        <v>-1257700</v>
       </c>
       <c r="K91" s="3">
         <v>-1173100</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1401100</v>
+        <v>-1317300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1142300</v>
+        <v>-1074000</v>
       </c>
       <c r="F94" s="3">
-        <v>-566400</v>
+        <v>-532600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1285200</v>
+        <v>-1208400</v>
       </c>
       <c r="H94" s="3">
-        <v>-884300</v>
+        <v>-831400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1038800</v>
+        <v>-976700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1596500</v>
+        <v>-1501000</v>
       </c>
       <c r="K94" s="3">
         <v>-1323800</v>
@@ -4625,25 +4625,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-693300</v>
+        <v>-651800</v>
       </c>
       <c r="E96" s="3">
-        <v>-693300</v>
+        <v>-651800</v>
       </c>
       <c r="F96" s="3">
-        <v>-693300</v>
+        <v>-651800</v>
       </c>
       <c r="G96" s="3">
-        <v>-694000</v>
+        <v>-652500</v>
       </c>
       <c r="H96" s="3">
-        <v>-693300</v>
+        <v>-651800</v>
       </c>
       <c r="I96" s="3">
-        <v>-693300</v>
+        <v>-651800</v>
       </c>
       <c r="J96" s="3">
-        <v>-953500</v>
+        <v>-896500</v>
       </c>
       <c r="K96" s="3">
         <v>-933900</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-594100</v>
+        <v>-558600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1749600</v>
+        <v>-1645000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1338400</v>
+        <v>-1258400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2004000</v>
+        <v>-1884200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1012600</v>
+        <v>-952000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1734300</v>
+        <v>-1630600</v>
       </c>
       <c r="J100" s="3">
-        <v>-516900</v>
+        <v>-485900</v>
       </c>
       <c r="K100" s="3">
         <v>-2104200</v>
@@ -4875,25 +4875,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="E101" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="F101" s="3">
-        <v>-24800</v>
+        <v>-23300</v>
       </c>
       <c r="G101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I101" s="3">
         <v>700</v>
       </c>
       <c r="J101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K101" s="3">
         <v>2900</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>381300</v>
+        <v>358500</v>
       </c>
       <c r="E102" s="3">
-        <v>-123900</v>
+        <v>-116500</v>
       </c>
       <c r="F102" s="3">
-        <v>580300</v>
+        <v>545600</v>
       </c>
       <c r="G102" s="3">
-        <v>-173500</v>
+        <v>-163100</v>
       </c>
       <c r="H102" s="3">
-        <v>97000</v>
+        <v>91200</v>
       </c>
       <c r="I102" s="3">
-        <v>45900</v>
+        <v>43200</v>
       </c>
       <c r="J102" s="3">
-        <v>-57600</v>
+        <v>-54100</v>
       </c>
       <c r="K102" s="3">
         <v>25700</v>

--- a/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TLSYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7198800</v>
+        <v>7520300</v>
       </c>
       <c r="E8" s="3">
-        <v>7247400</v>
+        <v>7331100</v>
       </c>
       <c r="F8" s="3">
-        <v>7528400</v>
+        <v>7380700</v>
       </c>
       <c r="G8" s="3">
-        <v>7913600</v>
+        <v>7666800</v>
       </c>
       <c r="H8" s="3">
-        <v>8337200</v>
+        <v>8059100</v>
       </c>
       <c r="I8" s="3">
-        <v>8686100</v>
+        <v>8490500</v>
       </c>
       <c r="J8" s="3">
+        <v>8845800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8626400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9309800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9927000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9754700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8496800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8230800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9402000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9293500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9229600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2843000</v>
+        <v>2847800</v>
       </c>
       <c r="E9" s="3">
-        <v>2817000</v>
+        <v>2895300</v>
       </c>
       <c r="F9" s="3">
-        <v>2884200</v>
+        <v>2868800</v>
       </c>
       <c r="G9" s="3">
-        <v>3074000</v>
+        <v>2937200</v>
       </c>
       <c r="H9" s="3">
-        <v>3167900</v>
+        <v>3130500</v>
       </c>
       <c r="I9" s="3">
-        <v>3259800</v>
+        <v>3226200</v>
       </c>
       <c r="J9" s="3">
+        <v>3319700</v>
+      </c>
+      <c r="K9" s="3">
         <v>3003400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3105200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3091500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2938200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2450300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2239100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2757100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2599800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2366900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4355700</v>
+        <v>4672400</v>
       </c>
       <c r="E10" s="3">
-        <v>4430400</v>
+        <v>4435800</v>
       </c>
       <c r="F10" s="3">
-        <v>4644300</v>
+        <v>4511900</v>
       </c>
       <c r="G10" s="3">
-        <v>4839600</v>
+        <v>4729600</v>
       </c>
       <c r="H10" s="3">
-        <v>5169300</v>
+        <v>4928600</v>
       </c>
       <c r="I10" s="3">
-        <v>5426300</v>
+        <v>5264300</v>
       </c>
       <c r="J10" s="3">
+        <v>5526100</v>
+      </c>
+      <c r="K10" s="3">
         <v>5623000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6204700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6835500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6816500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6046500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5991700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6644800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6693700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6862700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,46 +1029,49 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>185100</v>
+        <v>-110300</v>
       </c>
       <c r="E14" s="3">
-        <v>82900</v>
+        <v>188500</v>
       </c>
       <c r="F14" s="3">
-        <v>100100</v>
+        <v>84500</v>
       </c>
       <c r="G14" s="3">
-        <v>370800</v>
+        <v>101900</v>
       </c>
       <c r="H14" s="3">
-        <v>130200</v>
+        <v>377600</v>
       </c>
       <c r="I14" s="3">
-        <v>890300</v>
+        <v>132600</v>
       </c>
       <c r="J14" s="3">
+        <v>906700</v>
+      </c>
+      <c r="K14" s="3">
         <v>91800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>344100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>203900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>110100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1062,58 +1082,64 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1500300</v>
+        <v>1514000</v>
       </c>
       <c r="E15" s="3">
-        <v>1519500</v>
+        <v>1527900</v>
       </c>
       <c r="F15" s="3">
-        <v>1664800</v>
+        <v>1547500</v>
       </c>
       <c r="G15" s="3">
-        <v>1793000</v>
+        <v>1695400</v>
       </c>
       <c r="H15" s="3">
-        <v>1865700</v>
+        <v>1826000</v>
       </c>
       <c r="I15" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1494400</v>
+      </c>
+      <c r="K15" s="3">
         <v>1467400</v>
       </c>
-      <c r="J15" s="3">
-        <v>1467400</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1607200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1719700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1619700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1491500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1424700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1436900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1440300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1443200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6582600</v>
+        <v>6656100</v>
       </c>
       <c r="E17" s="3">
-        <v>6692200</v>
+        <v>6703600</v>
       </c>
       <c r="F17" s="3">
-        <v>7038400</v>
+        <v>6815300</v>
       </c>
       <c r="G17" s="3">
-        <v>7689500</v>
+        <v>7167800</v>
       </c>
       <c r="H17" s="3">
-        <v>7787500</v>
+        <v>7830900</v>
       </c>
       <c r="I17" s="3">
-        <v>8514700</v>
+        <v>7930700</v>
       </c>
       <c r="J17" s="3">
+        <v>8671300</v>
+      </c>
+      <c r="K17" s="3">
         <v>8006200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8051800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8923400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8277500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7140600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6674800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7471200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7372800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6814800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>616200</v>
+        <v>864100</v>
       </c>
       <c r="E18" s="3">
-        <v>555200</v>
+        <v>627500</v>
       </c>
       <c r="F18" s="3">
-        <v>490100</v>
+        <v>565400</v>
       </c>
       <c r="G18" s="3">
-        <v>224100</v>
+        <v>499100</v>
       </c>
       <c r="H18" s="3">
-        <v>549700</v>
+        <v>228200</v>
       </c>
       <c r="I18" s="3">
-        <v>171400</v>
+        <v>559800</v>
       </c>
       <c r="J18" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K18" s="3">
         <v>620300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1258100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1003600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1477200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1356200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1556000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1930800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1920700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2414800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,258 +1282,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>270700</v>
+        <v>289700</v>
       </c>
       <c r="E20" s="3">
-        <v>381100</v>
+        <v>275700</v>
       </c>
       <c r="F20" s="3">
-        <v>621000</v>
+        <v>388100</v>
       </c>
       <c r="G20" s="3">
-        <v>774500</v>
+        <v>632400</v>
       </c>
       <c r="H20" s="3">
-        <v>868400</v>
+        <v>788700</v>
       </c>
       <c r="I20" s="3">
-        <v>932800</v>
+        <v>884400</v>
       </c>
       <c r="J20" s="3">
+        <v>950000</v>
+      </c>
+      <c r="K20" s="3">
         <v>852000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>803300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1272600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>989700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>664800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>452300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>405400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>468700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2387200</v>
+        <v>1139800</v>
       </c>
       <c r="E21" s="3">
-        <v>791000</v>
+        <v>2431100</v>
       </c>
       <c r="F21" s="3">
-        <v>2775900</v>
+        <v>805500</v>
       </c>
       <c r="G21" s="3">
-        <v>926000</v>
+        <v>2826900</v>
       </c>
       <c r="H21" s="3">
-        <v>3283800</v>
+        <v>943000</v>
       </c>
       <c r="I21" s="3">
-        <v>1104200</v>
+        <v>3344100</v>
       </c>
       <c r="J21" s="3">
+        <v>1124500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2939700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2084200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3995900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2426300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3512600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2061400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3778100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2386500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3901600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>174800</v>
+        <v>147300</v>
       </c>
       <c r="E22" s="3">
-        <v>177500</v>
+        <v>178000</v>
       </c>
       <c r="F22" s="3">
-        <v>196700</v>
+        <v>180800</v>
       </c>
       <c r="G22" s="3">
-        <v>231000</v>
+        <v>200300</v>
       </c>
       <c r="H22" s="3">
-        <v>269400</v>
+        <v>235200</v>
       </c>
       <c r="I22" s="3">
-        <v>230300</v>
+        <v>274300</v>
       </c>
       <c r="J22" s="3">
+        <v>234500</v>
+      </c>
+      <c r="K22" s="3">
         <v>240600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>234900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>275900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>259200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>257400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>280000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>288000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>296000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>299700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>712100</v>
+        <v>1006500</v>
       </c>
       <c r="E23" s="3">
-        <v>758700</v>
+        <v>725200</v>
       </c>
       <c r="F23" s="3">
-        <v>914300</v>
+        <v>772700</v>
       </c>
       <c r="G23" s="3">
-        <v>767600</v>
+        <v>931100</v>
       </c>
       <c r="H23" s="3">
-        <v>1148700</v>
+        <v>781800</v>
       </c>
       <c r="I23" s="3">
-        <v>873900</v>
+        <v>1169800</v>
       </c>
       <c r="J23" s="3">
+        <v>890000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1231700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1826400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2207700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1763600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1728300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2048200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2093400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2158700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>202900</v>
+        <v>259000</v>
       </c>
       <c r="E24" s="3">
-        <v>226200</v>
+        <v>206600</v>
       </c>
       <c r="F24" s="3">
-        <v>143200</v>
+        <v>230300</v>
       </c>
       <c r="G24" s="3">
-        <v>295400</v>
+        <v>145900</v>
       </c>
       <c r="H24" s="3">
-        <v>360500</v>
+        <v>300800</v>
       </c>
       <c r="I24" s="3">
-        <v>242600</v>
+        <v>367100</v>
       </c>
       <c r="J24" s="3">
+        <v>247100</v>
+      </c>
+      <c r="K24" s="3">
         <v>390000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>494800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>689000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>664700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>579200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>580800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>616900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>631300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>635600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>509300</v>
+        <v>747600</v>
       </c>
       <c r="E26" s="3">
-        <v>532600</v>
+        <v>518600</v>
       </c>
       <c r="F26" s="3">
-        <v>771100</v>
+        <v>542300</v>
       </c>
       <c r="G26" s="3">
-        <v>472200</v>
+        <v>785300</v>
       </c>
       <c r="H26" s="3">
-        <v>788200</v>
+        <v>480900</v>
       </c>
       <c r="I26" s="3">
-        <v>631300</v>
+        <v>802700</v>
       </c>
       <c r="J26" s="3">
+        <v>642900</v>
+      </c>
+      <c r="K26" s="3">
         <v>841700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1331600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1311300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1542900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1184300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1147500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1431300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1462100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1523000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>478400</v>
+        <v>691000</v>
       </c>
       <c r="E27" s="3">
-        <v>520200</v>
+        <v>487200</v>
       </c>
       <c r="F27" s="3">
-        <v>752600</v>
+        <v>529800</v>
       </c>
       <c r="G27" s="3">
-        <v>466100</v>
+        <v>766400</v>
       </c>
       <c r="H27" s="3">
-        <v>780700</v>
+        <v>474600</v>
       </c>
       <c r="I27" s="3">
-        <v>631300</v>
+        <v>795000</v>
       </c>
       <c r="J27" s="3">
+        <v>642900</v>
+      </c>
+      <c r="K27" s="3">
         <v>845100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1340900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1327600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1551100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1188300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1129300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1401600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1432300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1499100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1731,26 +1792,29 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1352100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>79200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>124800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-270700</v>
+        <v>-289700</v>
       </c>
       <c r="E32" s="3">
-        <v>-381100</v>
+        <v>-275700</v>
       </c>
       <c r="F32" s="3">
-        <v>-621000</v>
+        <v>-388100</v>
       </c>
       <c r="G32" s="3">
-        <v>-774500</v>
+        <v>-632400</v>
       </c>
       <c r="H32" s="3">
-        <v>-868400</v>
+        <v>-788700</v>
       </c>
       <c r="I32" s="3">
-        <v>-932800</v>
+        <v>-884400</v>
       </c>
       <c r="J32" s="3">
+        <v>-950000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-852000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-803300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1272600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-989700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-664800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-452300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-405400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-468700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-43500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>478400</v>
+        <v>691000</v>
       </c>
       <c r="E33" s="3">
-        <v>520200</v>
+        <v>487200</v>
       </c>
       <c r="F33" s="3">
-        <v>752600</v>
+        <v>529800</v>
       </c>
       <c r="G33" s="3">
-        <v>466100</v>
+        <v>766400</v>
       </c>
       <c r="H33" s="3">
-        <v>780700</v>
+        <v>474600</v>
       </c>
       <c r="I33" s="3">
-        <v>631300</v>
+        <v>795000</v>
       </c>
       <c r="J33" s="3">
+        <v>642900</v>
+      </c>
+      <c r="K33" s="3">
         <v>845100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1340900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1327600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1551100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1188300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2481400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1480800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1557100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>478400</v>
+        <v>691000</v>
       </c>
       <c r="E35" s="3">
-        <v>520200</v>
+        <v>487200</v>
       </c>
       <c r="F35" s="3">
-        <v>752600</v>
+        <v>529800</v>
       </c>
       <c r="G35" s="3">
-        <v>466100</v>
+        <v>766400</v>
       </c>
       <c r="H35" s="3">
-        <v>780700</v>
+        <v>474600</v>
       </c>
       <c r="I35" s="3">
-        <v>631300</v>
+        <v>795000</v>
       </c>
       <c r="J35" s="3">
+        <v>642900</v>
+      </c>
+      <c r="K35" s="3">
         <v>845100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1340900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1327600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1551100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1188300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2481400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1480800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1557100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1131600</v>
+        <v>725900</v>
       </c>
       <c r="E41" s="3">
-        <v>771100</v>
+        <v>1152400</v>
       </c>
       <c r="F41" s="3">
-        <v>887600</v>
+        <v>785300</v>
       </c>
       <c r="G41" s="3">
-        <v>342000</v>
+        <v>903900</v>
       </c>
       <c r="H41" s="3">
-        <v>516800</v>
+        <v>348300</v>
       </c>
       <c r="I41" s="3">
-        <v>414000</v>
+        <v>526300</v>
       </c>
       <c r="J41" s="3">
+        <v>421600</v>
+      </c>
+      <c r="K41" s="3">
         <v>370800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>449100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>849400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>160600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>181000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>450700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>421600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>243100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2224,378 +2314,402 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>358100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>536200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>627700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2208100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1085300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>591400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>968000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2943800</v>
+        <v>2855500</v>
       </c>
       <c r="E43" s="3">
-        <v>3140500</v>
+        <v>2997900</v>
       </c>
       <c r="F43" s="3">
-        <v>3148700</v>
+        <v>3198200</v>
       </c>
       <c r="G43" s="3">
-        <v>3511300</v>
+        <v>3206600</v>
       </c>
       <c r="H43" s="3">
-        <v>3635400</v>
+        <v>3575900</v>
       </c>
       <c r="I43" s="3">
-        <v>3700500</v>
+        <v>3702200</v>
       </c>
       <c r="J43" s="3">
+        <v>3768500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3754600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3994100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4205200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4506200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3457500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3193400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3572200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3432100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3365300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>312500</v>
+        <v>332200</v>
       </c>
       <c r="E44" s="3">
-        <v>263900</v>
+        <v>318300</v>
       </c>
       <c r="F44" s="3">
-        <v>316000</v>
+        <v>268700</v>
       </c>
       <c r="G44" s="3">
-        <v>286500</v>
+        <v>321800</v>
       </c>
       <c r="H44" s="3">
-        <v>510600</v>
+        <v>291800</v>
       </c>
       <c r="I44" s="3">
-        <v>307100</v>
+        <v>520000</v>
       </c>
       <c r="J44" s="3">
+        <v>312700</v>
+      </c>
+      <c r="K44" s="3">
         <v>595600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>351300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>854100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>346400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>581200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>374900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>501600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>356300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>647000</v>
+        <v>455800</v>
       </c>
       <c r="E45" s="3">
-        <v>700500</v>
+        <v>658900</v>
       </c>
       <c r="F45" s="3">
-        <v>709400</v>
+        <v>713400</v>
       </c>
       <c r="G45" s="3">
-        <v>338600</v>
+        <v>722400</v>
       </c>
       <c r="H45" s="3">
-        <v>459900</v>
+        <v>344800</v>
       </c>
       <c r="I45" s="3">
-        <v>584000</v>
+        <v>468400</v>
       </c>
       <c r="J45" s="3">
+        <v>594700</v>
+      </c>
+      <c r="K45" s="3">
         <v>379000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>410600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>456500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>398100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>383500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>328400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>314800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>256100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5034900</v>
+        <v>4369500</v>
       </c>
       <c r="E46" s="3">
-        <v>4875900</v>
+        <v>5127500</v>
       </c>
       <c r="F46" s="3">
-        <v>5061700</v>
+        <v>4965600</v>
       </c>
       <c r="G46" s="3">
-        <v>4478400</v>
+        <v>5154700</v>
       </c>
       <c r="H46" s="3">
-        <v>5122700</v>
+        <v>4560700</v>
       </c>
       <c r="I46" s="3">
-        <v>5005500</v>
+        <v>5216900</v>
       </c>
       <c r="J46" s="3">
+        <v>5097500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5100100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5205100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5970600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5943500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5210500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6285800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5924600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5057400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5277300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1279000</v>
+        <v>1179600</v>
       </c>
       <c r="E47" s="3">
-        <v>1508600</v>
+        <v>1302500</v>
       </c>
       <c r="F47" s="3">
-        <v>1590800</v>
+        <v>1536300</v>
       </c>
       <c r="G47" s="3">
-        <v>1607900</v>
+        <v>1620100</v>
       </c>
       <c r="H47" s="3">
-        <v>1735400</v>
+        <v>1637500</v>
       </c>
       <c r="I47" s="3">
-        <v>1441400</v>
+        <v>1767300</v>
       </c>
       <c r="J47" s="3">
+        <v>1467900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1481800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1430100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1393500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1076100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1204300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1250400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1098000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1094900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>982500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16291300</v>
+        <v>16340900</v>
       </c>
       <c r="E48" s="3">
-        <v>16254300</v>
+        <v>16590800</v>
       </c>
       <c r="F48" s="3">
-        <v>16418100</v>
+        <v>16553100</v>
       </c>
       <c r="G48" s="3">
-        <v>16812200</v>
+        <v>16719900</v>
       </c>
       <c r="H48" s="3">
-        <v>17067800</v>
+        <v>17121200</v>
       </c>
       <c r="I48" s="3">
-        <v>15306400</v>
+        <v>17381600</v>
       </c>
       <c r="J48" s="3">
+        <v>15587700</v>
+      </c>
+      <c r="K48" s="3">
         <v>15475600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15785100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16792700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15769100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13792800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13851000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14603500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14838500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14308100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5367400</v>
+        <v>5692200</v>
       </c>
       <c r="E49" s="3">
-        <v>4887600</v>
+        <v>5466000</v>
       </c>
       <c r="F49" s="3">
-        <v>4875300</v>
+        <v>4977400</v>
       </c>
       <c r="G49" s="3">
-        <v>5080200</v>
+        <v>4964900</v>
       </c>
       <c r="H49" s="3">
-        <v>4932800</v>
+        <v>5173600</v>
       </c>
       <c r="I49" s="3">
-        <v>4941700</v>
+        <v>5023500</v>
       </c>
       <c r="J49" s="3">
+        <v>5032600</v>
+      </c>
+      <c r="K49" s="3">
         <v>5361900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5656300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7109900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6142900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6066400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6211100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6729000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6771300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6045700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1398900</v>
+        <v>1474200</v>
       </c>
       <c r="E52" s="3">
-        <v>1620300</v>
+        <v>1424600</v>
       </c>
       <c r="F52" s="3">
-        <v>1775200</v>
+        <v>1650100</v>
       </c>
       <c r="G52" s="3">
-        <v>2455100</v>
+        <v>1807800</v>
       </c>
       <c r="H52" s="3">
-        <v>2365300</v>
+        <v>2500200</v>
       </c>
       <c r="I52" s="3">
-        <v>2495500</v>
+        <v>2408800</v>
       </c>
       <c r="J52" s="3">
+        <v>2541400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2548300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2427600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1424500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2093900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1429800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1533100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1693000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1584700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1421500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29371400</v>
+        <v>29056300</v>
       </c>
       <c r="E54" s="3">
-        <v>29146600</v>
+        <v>29911400</v>
       </c>
       <c r="F54" s="3">
-        <v>29721000</v>
+        <v>29682500</v>
       </c>
       <c r="G54" s="3">
-        <v>30433800</v>
+        <v>30267400</v>
       </c>
       <c r="H54" s="3">
-        <v>31224100</v>
+        <v>30993300</v>
       </c>
       <c r="I54" s="3">
-        <v>29190500</v>
+        <v>31798100</v>
       </c>
       <c r="J54" s="3">
+        <v>29727100</v>
+      </c>
+      <c r="K54" s="3">
         <v>29967700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30504200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32691100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31025600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27703800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29131500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30048200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29346900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28035000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2368100</v>
+        <v>905300</v>
       </c>
       <c r="E57" s="3">
-        <v>825200</v>
+        <v>2411600</v>
       </c>
       <c r="F57" s="3">
-        <v>737500</v>
+        <v>840400</v>
       </c>
       <c r="G57" s="3">
-        <v>677200</v>
+        <v>751000</v>
       </c>
       <c r="H57" s="3">
-        <v>688800</v>
+        <v>689600</v>
       </c>
       <c r="I57" s="3">
-        <v>3103500</v>
+        <v>701500</v>
       </c>
       <c r="J57" s="3">
+        <v>3160500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3036300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3233000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3261200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2913000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2557800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2657000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2866800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2960400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2699200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3219300</v>
+        <v>2219600</v>
       </c>
       <c r="E58" s="3">
-        <v>2833400</v>
+        <v>3278500</v>
       </c>
       <c r="F58" s="3">
-        <v>2291300</v>
+        <v>2885500</v>
       </c>
       <c r="G58" s="3">
-        <v>2312500</v>
+        <v>2333400</v>
       </c>
       <c r="H58" s="3">
-        <v>2519500</v>
+        <v>2355100</v>
       </c>
       <c r="I58" s="3">
-        <v>1523000</v>
+        <v>2565800</v>
       </c>
       <c r="J58" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="K58" s="3">
         <v>791600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1167400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2170000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1828800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2478800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1786800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1335800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1085500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1779200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1718300</v>
+        <v>3757300</v>
       </c>
       <c r="E59" s="3">
-        <v>3485900</v>
+        <v>1749900</v>
       </c>
       <c r="F59" s="3">
-        <v>3566100</v>
+        <v>3550000</v>
       </c>
       <c r="G59" s="3">
-        <v>3928700</v>
+        <v>3631700</v>
       </c>
       <c r="H59" s="3">
-        <v>3686800</v>
+        <v>4000900</v>
       </c>
       <c r="I59" s="3">
-        <v>1921200</v>
+        <v>3754500</v>
       </c>
       <c r="J59" s="3">
+        <v>1956500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1695700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2748200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1829800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2878300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1613600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1739700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1790000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1852500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1736400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7305700</v>
+        <v>6882300</v>
       </c>
       <c r="E60" s="3">
-        <v>7144600</v>
+        <v>7440000</v>
       </c>
       <c r="F60" s="3">
-        <v>6594900</v>
+        <v>7276000</v>
       </c>
       <c r="G60" s="3">
-        <v>6918400</v>
+        <v>6716200</v>
       </c>
       <c r="H60" s="3">
-        <v>6895100</v>
+        <v>7045600</v>
       </c>
       <c r="I60" s="3">
-        <v>6547600</v>
+        <v>7021900</v>
       </c>
       <c r="J60" s="3">
+        <v>6668000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5523600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6272500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7261000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6707200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6650300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6183500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5992500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5898400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6214800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7491400</v>
+        <v>7740100</v>
       </c>
       <c r="E61" s="3">
-        <v>9120600</v>
+        <v>7629100</v>
       </c>
       <c r="F61" s="3">
-        <v>10363200</v>
+        <v>9288300</v>
       </c>
       <c r="G61" s="3">
-        <v>10797100</v>
+        <v>10553800</v>
       </c>
       <c r="H61" s="3">
-        <v>11405100</v>
+        <v>10995600</v>
       </c>
       <c r="I61" s="3">
-        <v>10302200</v>
+        <v>11614700</v>
       </c>
       <c r="J61" s="3">
+        <v>10491600</v>
+      </c>
+      <c r="K61" s="3">
         <v>11739500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10935600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11484700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10937200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8940000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9857400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10966300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10258500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9559800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2607900</v>
+        <v>2681700</v>
       </c>
       <c r="E62" s="3">
-        <v>2411900</v>
+        <v>2655900</v>
       </c>
       <c r="F62" s="3">
-        <v>2355000</v>
+        <v>2456300</v>
       </c>
       <c r="G62" s="3">
-        <v>2336500</v>
+        <v>2398300</v>
       </c>
       <c r="H62" s="3">
-        <v>2373500</v>
+        <v>2379500</v>
       </c>
       <c r="I62" s="3">
-        <v>2381800</v>
+        <v>2417200</v>
       </c>
       <c r="J62" s="3">
+        <v>2425600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2762800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3794900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2826400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3786800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2447000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2385100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2604300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2661500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2353800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18398200</v>
+        <v>18342700</v>
       </c>
       <c r="E66" s="3">
-        <v>19148000</v>
+        <v>18736400</v>
       </c>
       <c r="F66" s="3">
-        <v>19782000</v>
+        <v>19500000</v>
       </c>
       <c r="G66" s="3">
-        <v>20514000</v>
+        <v>20145700</v>
       </c>
       <c r="H66" s="3">
-        <v>21141800</v>
+        <v>20891100</v>
       </c>
       <c r="I66" s="3">
-        <v>19218600</v>
+        <v>21530500</v>
       </c>
       <c r="J66" s="3">
+        <v>19571900</v>
+      </c>
+      <c r="K66" s="3">
         <v>20013000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20057000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21572900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20587700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18055800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18450300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19892100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19113800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18344600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8321400</v>
+        <v>8551200</v>
       </c>
       <c r="E72" s="3">
-        <v>6958200</v>
+        <v>8474400</v>
       </c>
       <c r="F72" s="3">
-        <v>6905400</v>
+        <v>7086100</v>
       </c>
       <c r="G72" s="3">
-        <v>6869100</v>
+        <v>7032400</v>
       </c>
       <c r="H72" s="3">
-        <v>7039700</v>
+        <v>6995400</v>
       </c>
       <c r="I72" s="3">
-        <v>6923900</v>
+        <v>7169200</v>
       </c>
       <c r="J72" s="3">
+        <v>7051200</v>
+      </c>
+      <c r="K72" s="3">
         <v>6914300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7285700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7691100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7169600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6583200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7160700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6362500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6415800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5968100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10973300</v>
+        <v>10713600</v>
       </c>
       <c r="E76" s="3">
-        <v>9998600</v>
+        <v>11175000</v>
       </c>
       <c r="F76" s="3">
-        <v>9939000</v>
+        <v>10182400</v>
       </c>
       <c r="G76" s="3">
-        <v>9919800</v>
+        <v>10121700</v>
       </c>
       <c r="H76" s="3">
-        <v>10082200</v>
+        <v>10102200</v>
       </c>
       <c r="I76" s="3">
-        <v>9971900</v>
+        <v>10267600</v>
       </c>
       <c r="J76" s="3">
+        <v>10155200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9954700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10447200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11118200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10437900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9648000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10681200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10156200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10233100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9690400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>478400</v>
+        <v>691000</v>
       </c>
       <c r="E81" s="3">
-        <v>520200</v>
+        <v>487200</v>
       </c>
       <c r="F81" s="3">
-        <v>752600</v>
+        <v>529800</v>
       </c>
       <c r="G81" s="3">
-        <v>466100</v>
+        <v>766400</v>
       </c>
       <c r="H81" s="3">
-        <v>780700</v>
+        <v>474600</v>
       </c>
       <c r="I81" s="3">
-        <v>631300</v>
+        <v>795000</v>
       </c>
       <c r="J81" s="3">
+        <v>642900</v>
+      </c>
+      <c r="K81" s="3">
         <v>845100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1340900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1327600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1551100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1188300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2481400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1480800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1557100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1512900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,8 +4227,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4079,8 +4278,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2224800</v>
+        <v>2794100</v>
       </c>
       <c r="E89" s="3">
-        <v>2596300</v>
+        <v>2265700</v>
       </c>
       <c r="F89" s="3">
-        <v>2359800</v>
+        <v>2644000</v>
       </c>
       <c r="G89" s="3">
-        <v>2931500</v>
+        <v>2403200</v>
       </c>
       <c r="H89" s="3">
-        <v>1873200</v>
+        <v>2985300</v>
       </c>
       <c r="I89" s="3">
-        <v>2649800</v>
+        <v>1907600</v>
       </c>
       <c r="J89" s="3">
+        <v>2698500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1930800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3450800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2924100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3407200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2098000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2998900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2601500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3350100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2680400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-829300</v>
+        <v>-674300</v>
       </c>
       <c r="E91" s="3">
-        <v>-673700</v>
+        <v>-844600</v>
       </c>
       <c r="F91" s="3">
-        <v>-751200</v>
+        <v>-686100</v>
       </c>
       <c r="G91" s="3">
-        <v>-797100</v>
+        <v>-765000</v>
       </c>
       <c r="H91" s="3">
-        <v>-807400</v>
+        <v>-811800</v>
       </c>
       <c r="I91" s="3">
-        <v>-959600</v>
+        <v>-822200</v>
       </c>
       <c r="J91" s="3">
+        <v>-977200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1257700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1173100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1494200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1516300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1109400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-972500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1136200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5108200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2295800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1317300</v>
+        <v>-1028200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1074000</v>
+        <v>-1341600</v>
       </c>
       <c r="F94" s="3">
-        <v>-532600</v>
+        <v>-1093800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1208400</v>
+        <v>-542300</v>
       </c>
       <c r="H94" s="3">
-        <v>-831400</v>
+        <v>-1230600</v>
       </c>
       <c r="I94" s="3">
-        <v>-976700</v>
+        <v>-846700</v>
       </c>
       <c r="J94" s="3">
+        <v>-994700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1323800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1594200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1842800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1183700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-301500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1244500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1639900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2490300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-651800</v>
+        <v>-654000</v>
       </c>
       <c r="E96" s="3">
-        <v>-651800</v>
+        <v>-663800</v>
       </c>
       <c r="F96" s="3">
-        <v>-651800</v>
+        <v>-663800</v>
       </c>
       <c r="G96" s="3">
-        <v>-652500</v>
+        <v>-663800</v>
       </c>
       <c r="H96" s="3">
-        <v>-651800</v>
+        <v>-664500</v>
       </c>
       <c r="I96" s="3">
-        <v>-651800</v>
+        <v>-663800</v>
       </c>
       <c r="J96" s="3">
+        <v>-663800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-896500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-933900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1427600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1360500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1256700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1274700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1339300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1330000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1354000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-558600</v>
+        <v>-2202900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1645000</v>
+        <v>-568900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1258400</v>
+        <v>-1675200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1884200</v>
+        <v>-1281500</v>
       </c>
       <c r="H100" s="3">
-        <v>-952000</v>
+        <v>-1918800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1630600</v>
+        <v>-969500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1660500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-485900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2104200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1602700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1745300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2482200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1761200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-820700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1951100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3042400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9600</v>
+        <v>12600</v>
       </c>
       <c r="E101" s="3">
-        <v>6200</v>
+        <v>9800</v>
       </c>
       <c r="F101" s="3">
-        <v>-23300</v>
+        <v>6300</v>
       </c>
       <c r="G101" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2900</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-5200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>42800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>358500</v>
+        <v>-424400</v>
       </c>
       <c r="E102" s="3">
-        <v>-116500</v>
+        <v>365100</v>
       </c>
       <c r="F102" s="3">
-        <v>545600</v>
+        <v>-118700</v>
       </c>
       <c r="G102" s="3">
-        <v>-163100</v>
+        <v>555600</v>
       </c>
       <c r="H102" s="3">
-        <v>91200</v>
+        <v>-166100</v>
       </c>
       <c r="I102" s="3">
-        <v>43200</v>
+        <v>92800</v>
       </c>
       <c r="J102" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-54100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-272800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-186100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1567200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>932100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>544100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-198100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2799400</v>
       </c>
     </row>
